--- a/Validation/Validation Outputs.xlsx
+++ b/Validation/Validation Outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkasa\OneDrive\Desktop\Fall 2024\DD2\Maze-Router\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABB22AE-E237-4028-AAF7-15CEF314057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4B12A-E040-4D46-98A8-EE6D19CC9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{A893F839-63D9-41AE-8AF0-88D786FCA642}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{A893F839-63D9-41AE-8AF0-88D786FCA642}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t>S</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -206,14 +206,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,16 +224,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,6 +261,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3508,7 +3497,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(0, 3, 2) (0, 3, 3) (0, 3, 4) (0, 3, 5) (0, 3, 6) (0, 3, 7) (0, 3, 8) (0, 3, 9) (0,3,10) (1,9,2) (1,9,3)(1,9,4) (1,9,5)(1,9,6) (0,9,6)(0,10,6) (0,11,6) (0,12,6) (0,12,7)</a:t>
+            <a:t>(0, 3, 2) (0, 4, 2) (0, 5, 2) (0, 6, 2) (0, 7, 2) (0, 8, 2) (0, 9, 2) (1,9,2) (1,9,3)(1,9,4) (1,9,5)(1,9,6) (0,9,6)(0,10,6) (0,11,6) (0,12,6) (0,12,7)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -4579,49 +4568,49 @@
       <c r="F1">
         <v>0</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1">
         <v>1</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1">
         <v>2</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1">
         <v>3</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1">
         <v>4</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1">
         <v>5</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1">
         <v>6</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1">
         <v>7</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1">
         <v>0</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1">
         <v>1</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1">
         <v>2</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1">
         <v>3</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1">
         <v>4</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1">
         <v>5</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1">
         <v>6</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1">
         <v>7</v>
       </c>
     </row>
@@ -4651,7 +4640,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="Q2" s="27">
+      <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" s="3">
@@ -4708,7 +4697,7 @@
       <c r="M3" s="1">
         <v>7</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" s="12">
@@ -4761,7 +4750,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="Q4" s="27">
+      <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" s="4"/>
@@ -4808,7 +4797,7 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="1"/>
-      <c r="Q5" s="27">
+      <c r="Q5">
         <v>3</v>
       </c>
       <c r="R5" s="3"/>
@@ -4847,7 +4836,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
-      <c r="Q6" s="27">
+      <c r="Q6">
         <v>4</v>
       </c>
       <c r="R6" s="3"/>
@@ -4884,7 +4873,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="1"/>
-      <c r="Q7" s="27">
+      <c r="Q7">
         <v>5</v>
       </c>
       <c r="R7" s="3"/>
@@ -4915,7 +4904,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="Q8" s="27">
+      <c r="Q8">
         <v>6</v>
       </c>
       <c r="R8" s="1"/>
@@ -4939,7 +4928,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="Q9" s="27">
+      <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9" s="1"/>
@@ -4952,22 +4941,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="11" spans="5:34" x14ac:dyDescent="0.35">
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="5"/>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4983,7 +4972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6467B2-CC19-4649-9FEF-1223784E04A6}">
   <dimension ref="E1:AH11"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="S11" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
@@ -5108,19 +5097,19 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="3">
         <v>6</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="3">
         <v>7</v>
       </c>
       <c r="L3" s="1">
@@ -5397,22 +5386,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="11" spans="5:34" x14ac:dyDescent="0.35">
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="5"/>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5428,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80DFBE-79B2-44E0-907B-435B62526B72}">
   <dimension ref="E1:AV29"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="105" workbookViewId="0">
-      <selection activeCell="AH52" sqref="AH52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5535,10 +5524,10 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="3">
         <v>23</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="3">
         <v>22</v>
       </c>
       <c r="H2" s="12">
@@ -5556,57 +5545,54 @@
       <c r="L2" s="12">
         <v>11</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="3">
         <v>24</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="17">
         <v>26</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="17">
         <v>7</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="17">
         <v>6</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="17">
         <v>5</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="17">
         <v>6</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="17">
         <v>16</v>
       </c>
-      <c r="AF2" s="20">
+      <c r="AF2" s="17">
         <v>8</v>
       </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
     </row>
     <row r="3" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="3">
         <v>13</v>
       </c>
       <c r="G3" s="12">
@@ -5621,63 +5607,60 @@
       <c r="J3" s="12">
         <v>8</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="3">
         <v>12</v>
       </c>
       <c r="L3" s="12">
         <v>10</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="3">
         <v>14</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="3">
         <v>15</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="3">
         <v>19</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="17">
         <v>7</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="17">
         <v>6</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="17">
         <v>5</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="17">
         <v>4</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AD3" s="17">
         <v>5</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AE3" s="17">
         <v>15</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="17">
         <v>7</v>
       </c>
-      <c r="AG3" s="20">
+      <c r="AG3" s="17">
         <v>8</v>
       </c>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
       <c r="AU3" s="6"/>
       <c r="AV3" t="s">
         <v>4</v>
@@ -5687,13 +5670,13 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
@@ -5717,52 +5700,49 @@
       <c r="O4" s="15">
         <v>6</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="38">
         <v>7</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
       <c r="Y4">
         <v>2</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="18">
         <v>6</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="18">
         <v>5</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="18">
         <v>4</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="18">
         <v>3</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="18">
         <v>4</v>
       </c>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="21">
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="18">
         <v>6</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="18">
         <v>7</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AH4" s="18">
         <v>8</v>
       </c>
-      <c r="AI4" s="24">
+      <c r="AI4" s="21">
         <v>9</v>
       </c>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
       <c r="AU4" s="7"/>
       <c r="AV4" t="s">
         <v>0</v>
@@ -5794,46 +5774,43 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
       <c r="Y5">
         <v>3</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="17">
         <v>7</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="17">
         <v>6</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="17">
         <v>5</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="17">
         <v>4</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AD5" s="17">
         <v>5</v>
       </c>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="20">
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="17">
         <v>7</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="17">
         <v>8</v>
       </c>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="23" t="s">
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
       <c r="AU5" s="8"/>
       <c r="AV5" t="s">
         <v>1</v>
@@ -5843,7 +5820,7 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="3">
         <v>23</v>
       </c>
       <c r="G6" s="12">
@@ -5865,42 +5842,39 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
       <c r="Y6">
         <v>4</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="17">
         <v>8</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA6" s="17">
         <v>7</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AB6" s="17">
         <v>6</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="17">
         <v>5</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="17">
         <v>6</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="20">
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="17">
         <v>8</v>
       </c>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
       <c r="AU6" s="9"/>
       <c r="AV6" t="s">
         <v>7</v>
@@ -5910,10 +5884,10 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="3">
         <v>33</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="3">
         <v>32</v>
       </c>
       <c r="H7" s="12">
@@ -5932,38 +5906,35 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
       <c r="Y7">
         <v>5</v>
       </c>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20">
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17">
         <v>8</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="17">
         <v>7</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="17">
         <v>6</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="17">
         <v>7</v>
       </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
       <c r="AU7" s="14"/>
       <c r="AV7" t="s">
         <v>6</v>
@@ -5973,219 +5944,207 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>42</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="3">
         <v>41</v>
       </c>
       <c r="I8" s="12">
         <v>10</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="3">
         <v>41</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="3">
         <v>42</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
       <c r="Y8">
         <v>6</v>
       </c>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20">
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17">
         <v>8</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="17">
         <v>7</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="17">
         <v>8</v>
       </c>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
     </row>
     <row r="9" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>51</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="3">
         <v>50</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="3">
         <v>51</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
       <c r="Y9">
         <v>7</v>
       </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20">
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17">
         <v>8</v>
       </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
     </row>
     <row r="10" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
       <c r="Y10">
         <v>8</v>
       </c>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
     </row>
     <row r="11" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
       <c r="Y11">
         <v>9</v>
       </c>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
     </row>
     <row r="13" spans="5:48" x14ac:dyDescent="0.35">
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="AB13" s="17" t="s">
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="AB13" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
     </row>
     <row r="17" spans="5:48" x14ac:dyDescent="0.35">
       <c r="F17">
@@ -6283,100 +6242,97 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="3">
         <v>23</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="3">
         <v>21</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="3">
         <v>20</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="3">
         <v>20</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="3">
         <v>20</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="3">
         <v>20</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="3">
         <v>20</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="3">
         <v>20</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="3">
         <v>20</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="3">
         <v>20</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="3">
         <v>21</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="3">
         <v>22</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="3">
         <v>23</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="3">
         <v>24</v>
       </c>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18" s="20">
+      <c r="Z18" s="17">
         <v>8</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="17">
         <v>7</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="17">
         <v>6</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="17">
         <v>5</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="17">
         <v>5</v>
       </c>
-      <c r="AE18" s="20">
+      <c r="AE18" s="17">
         <v>5</v>
       </c>
-      <c r="AF18" s="20">
+      <c r="AF18" s="17">
         <v>5</v>
       </c>
-      <c r="AG18" s="20">
+      <c r="AG18" s="17">
         <v>5</v>
       </c>
-      <c r="AH18" s="20">
+      <c r="AH18" s="17">
         <v>5</v>
       </c>
-      <c r="AI18" s="20">
+      <c r="AI18" s="17">
         <v>2</v>
       </c>
-      <c r="AJ18" s="20">
+      <c r="AJ18" s="17">
         <v>5</v>
       </c>
-      <c r="AK18" s="20">
+      <c r="AK18" s="17">
         <v>6</v>
       </c>
-      <c r="AL18" s="20">
+      <c r="AL18" s="17">
         <v>7</v>
       </c>
-      <c r="AM18" s="20">
+      <c r="AM18" s="17">
         <v>8</v>
       </c>
-      <c r="AN18" s="18"/>
+      <c r="AN18" s="3"/>
     </row>
     <row r="19" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E19">
@@ -6424,58 +6380,55 @@
       <c r="S19" s="12">
         <v>10</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="3">
         <v>14</v>
       </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
       <c r="Y19">
         <v>1</v>
       </c>
-      <c r="Z19" s="20">
+      <c r="Z19" s="17">
         <v>7</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="17">
         <v>6</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="17">
         <v>5</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="17">
         <v>4</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="17">
         <v>4</v>
       </c>
-      <c r="AE19" s="20">
+      <c r="AE19" s="17">
         <v>4</v>
       </c>
-      <c r="AF19" s="20">
+      <c r="AF19" s="17">
         <v>4</v>
       </c>
-      <c r="AG19" s="20">
+      <c r="AG19" s="17">
         <v>4</v>
       </c>
-      <c r="AH19" s="20">
+      <c r="AH19" s="17">
         <v>4</v>
       </c>
-      <c r="AI19" s="20">
+      <c r="AI19" s="17">
         <v>1</v>
       </c>
-      <c r="AJ19" s="20">
+      <c r="AJ19" s="17">
         <v>4</v>
       </c>
-      <c r="AK19" s="20">
+      <c r="AK19" s="17">
         <v>5</v>
       </c>
-      <c r="AL19" s="20">
+      <c r="AL19" s="17">
         <v>6</v>
       </c>
-      <c r="AM19" s="20">
+      <c r="AM19" s="17">
         <v>7</v>
       </c>
-      <c r="AN19" s="18">
+      <c r="AN19" s="3">
         <v>8</v>
       </c>
       <c r="AU19" s="6"/>
@@ -6487,13 +6440,13 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -6517,65 +6470,62 @@
       <c r="O20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="18">
+      <c r="P20" s="38">
         <v>1</v>
       </c>
-      <c r="R20" s="18">
+      <c r="Q20" s="3">
         <v>2</v>
       </c>
-      <c r="S20" s="18">
+      <c r="R20" s="3">
         <v>3</v>
       </c>
-      <c r="T20" s="18">
+      <c r="S20" s="3">
         <v>4</v>
       </c>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
+      <c r="T20" s="3">
+        <v>5</v>
+      </c>
       <c r="Y20">
         <v>2</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="18">
         <v>6</v>
       </c>
-      <c r="AA20" s="21">
+      <c r="AA20" s="18">
         <v>5</v>
       </c>
-      <c r="AB20" s="21">
+      <c r="AB20" s="18">
         <v>4</v>
       </c>
-      <c r="AC20" s="21">
+      <c r="AC20" s="18">
         <v>3</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AD20" s="18">
         <v>3</v>
       </c>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="21">
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="18">
         <v>3</v>
       </c>
-      <c r="AG20" s="21">
+      <c r="AG20" s="18">
         <v>3</v>
       </c>
-      <c r="AH20" s="21">
+      <c r="AH20" s="18">
         <v>3</v>
       </c>
-      <c r="AI20" s="25" t="s">
+      <c r="AI20" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AJ20" s="21">
+      <c r="AJ20" s="18">
         <v>3</v>
       </c>
-      <c r="AK20" s="21">
+      <c r="AK20" s="18">
         <v>4</v>
       </c>
-      <c r="AL20" s="21">
+      <c r="AL20" s="18">
         <v>5</v>
       </c>
-      <c r="AM20" s="21">
+      <c r="AM20" s="18">
         <v>6</v>
       </c>
       <c r="AN20" s="12">
@@ -6615,57 +6565,54 @@
       <c r="R21" s="12">
         <v>9</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="3">
         <v>8</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
+      <c r="T21" s="3"/>
       <c r="Y21">
         <v>3</v>
       </c>
-      <c r="Z21" s="20">
+      <c r="Z21" s="17">
         <v>7</v>
       </c>
-      <c r="AA21" s="20">
+      <c r="AA21" s="17">
         <v>6</v>
       </c>
-      <c r="AB21" s="20">
+      <c r="AB21" s="17">
         <v>5</v>
       </c>
-      <c r="AC21" s="20">
+      <c r="AC21" s="17">
         <v>4</v>
       </c>
-      <c r="AD21" s="20">
+      <c r="AD21" s="17">
         <v>4</v>
       </c>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="20">
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="17">
         <v>4</v>
       </c>
-      <c r="AG21" s="20">
+      <c r="AG21" s="17">
         <v>4</v>
       </c>
-      <c r="AH21" s="20">
+      <c r="AH21" s="17">
         <v>10</v>
       </c>
-      <c r="AI21" s="25" t="s">
+      <c r="AI21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AJ21" s="20">
+      <c r="AJ21" s="17">
         <v>10</v>
       </c>
-      <c r="AK21" s="20">
+      <c r="AK21" s="17">
         <v>20</v>
       </c>
-      <c r="AL21" s="20">
+      <c r="AL21" s="17">
         <v>6</v>
       </c>
-      <c r="AM21" s="20">
+      <c r="AM21" s="17">
         <v>7</v>
       </c>
-      <c r="AN21" s="18">
+      <c r="AN21" s="3">
         <v>8</v>
       </c>
       <c r="AU21" s="8"/>
@@ -6677,7 +6624,7 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="3">
         <v>23</v>
       </c>
       <c r="G22" s="12">
@@ -6699,58 +6646,55 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="18">
+      <c r="R22" s="3">
         <v>8</v>
       </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
       <c r="Y22">
         <v>4</v>
       </c>
-      <c r="Z22" s="20">
+      <c r="Z22" s="17">
         <v>8</v>
       </c>
-      <c r="AA22" s="20">
+      <c r="AA22" s="17">
         <v>7</v>
       </c>
-      <c r="AB22" s="20">
+      <c r="AB22" s="17">
         <v>6</v>
       </c>
-      <c r="AC22" s="20">
+      <c r="AC22" s="17">
         <v>5</v>
       </c>
-      <c r="AD22" s="20">
+      <c r="AD22" s="17">
         <v>5</v>
       </c>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="20">
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="17">
         <v>5</v>
       </c>
-      <c r="AG22" s="20">
+      <c r="AG22" s="17">
         <v>5</v>
       </c>
-      <c r="AH22" s="20">
+      <c r="AH22" s="17">
         <v>11</v>
       </c>
-      <c r="AI22" s="24">
+      <c r="AI22" s="21">
         <v>1</v>
       </c>
-      <c r="AJ22" s="20">
+      <c r="AJ22" s="17">
         <v>11</v>
       </c>
-      <c r="AK22" s="20">
+      <c r="AK22" s="17">
         <v>21</v>
       </c>
-      <c r="AL22" s="20">
+      <c r="AL22" s="17">
         <v>7</v>
       </c>
-      <c r="AM22" s="20">
+      <c r="AM22" s="17">
         <v>8</v>
       </c>
-      <c r="AN22" s="18"/>
+      <c r="AN22" s="3"/>
       <c r="AU22" s="9"/>
       <c r="AV22" t="s">
         <v>7</v>
@@ -6760,10 +6704,10 @@
       <c r="E23">
         <v>5</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="3">
         <v>24</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="3">
         <v>23</v>
       </c>
       <c r="H23" s="12">
@@ -6782,52 +6726,49 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
       <c r="Y23">
         <v>5</v>
       </c>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20">
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17">
         <v>8</v>
       </c>
-      <c r="AB23" s="20">
+      <c r="AB23" s="17">
         <v>7</v>
       </c>
-      <c r="AC23" s="20">
+      <c r="AC23" s="17">
         <v>6</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AD23" s="17">
         <v>6</v>
       </c>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="20">
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="17">
         <v>6</v>
       </c>
-      <c r="AG23" s="20">
+      <c r="AG23" s="17">
         <v>6</v>
       </c>
-      <c r="AH23" s="20">
+      <c r="AH23" s="17">
         <v>12</v>
       </c>
-      <c r="AI23" s="24">
+      <c r="AI23" s="21">
         <v>2</v>
       </c>
-      <c r="AJ23" s="20">
+      <c r="AJ23" s="17">
         <v>12</v>
       </c>
-      <c r="AK23" s="20">
+      <c r="AK23" s="17">
         <v>22</v>
       </c>
-      <c r="AL23" s="20">
+      <c r="AL23" s="17">
         <v>8</v>
       </c>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="18"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="3"/>
       <c r="AU23" s="14"/>
       <c r="AV23" t="s">
         <v>6</v>
@@ -6837,11 +6778,11 @@
       <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>42</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="3">
         <v>41</v>
       </c>
       <c r="I24" s="12">
@@ -6850,16 +6791,16 @@
       <c r="J24" s="12">
         <v>10</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="3">
         <v>41</v>
       </c>
       <c r="L24" s="12">
         <v>10</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="3">
         <v>8</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="3">
         <v>7</v>
       </c>
       <c r="O24" s="15" t="s">
@@ -6874,248 +6815,236 @@
       <c r="R24" s="15">
         <v>9</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
       <c r="Y24">
         <v>6</v>
       </c>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20">
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17">
         <v>8</v>
       </c>
-      <c r="AC24" s="20">
+      <c r="AC24" s="17">
         <v>7</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AD24" s="17">
         <v>7</v>
       </c>
-      <c r="AE24" s="20">
+      <c r="AE24" s="17">
         <v>17</v>
       </c>
-      <c r="AF24" s="20">
+      <c r="AF24" s="17">
         <v>7</v>
       </c>
-      <c r="AG24" s="20">
+      <c r="AG24" s="17">
         <v>7</v>
       </c>
-      <c r="AH24" s="20">
+      <c r="AH24" s="17">
         <v>13</v>
       </c>
-      <c r="AI24" s="24">
+      <c r="AI24" s="21">
         <v>3</v>
       </c>
-      <c r="AJ24" s="20">
+      <c r="AJ24" s="17">
         <v>13</v>
       </c>
-      <c r="AK24" s="20">
+      <c r="AK24" s="17">
         <v>23</v>
       </c>
-      <c r="AL24" s="20">
+      <c r="AL24" s="17">
         <v>33</v>
       </c>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="18"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="3"/>
     </row>
     <row r="25" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>7</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
         <v>51</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="3">
         <v>50</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="3">
         <v>50</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="3">
         <v>51</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
         <v>8</v>
       </c>
       <c r="O25" s="12">
         <v>7</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="3">
         <v>8</v>
       </c>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
       <c r="Y25">
         <v>7</v>
       </c>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20">
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17">
         <v>8</v>
       </c>
-      <c r="AD25" s="20">
+      <c r="AD25" s="17">
         <v>8</v>
       </c>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20">
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17">
         <v>8</v>
       </c>
-      <c r="AG25" s="20">
+      <c r="AG25" s="17">
         <v>8</v>
       </c>
-      <c r="AH25" s="20">
+      <c r="AH25" s="17">
         <v>14</v>
       </c>
-      <c r="AI25" s="20">
+      <c r="AI25" s="17">
         <v>4</v>
       </c>
-      <c r="AJ25" s="20">
+      <c r="AJ25" s="17">
         <v>14</v>
       </c>
-      <c r="AK25" s="20">
+      <c r="AK25" s="17">
         <v>24</v>
       </c>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="18"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="3"/>
     </row>
     <row r="26" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>8</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
         <v>60</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="3">
         <v>60</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="12">
         <v>8</v>
       </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
       <c r="Y26">
         <v>8</v>
       </c>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20">
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17">
         <v>15</v>
       </c>
-      <c r="AI26" s="20">
+      <c r="AI26" s="17">
         <v>5</v>
       </c>
-      <c r="AJ26" s="20">
+      <c r="AJ26" s="17">
         <v>15</v>
       </c>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
     </row>
     <row r="27" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
       <c r="Y27">
         <v>9</v>
       </c>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3">
         <v>6</v>
       </c>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="18"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
     </row>
     <row r="29" spans="5:48" x14ac:dyDescent="0.35">
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="AB29" s="17" t="s">
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="AB29" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7131,9 +7060,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8280E2E-2032-431C-8333-DDD50922E52D}">
-  <dimension ref="B1:CH53"/>
+  <dimension ref="B1:AN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="53" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="53" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AT41" sqref="AT41"/>
     </sheetView>
   </sheetViews>
@@ -7144,4586 +7073,1611 @@
     <col min="22" max="22" width="4.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="C1">
         <v>0</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1">
         <v>3</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1">
         <v>4</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1">
         <v>5</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1">
         <v>6</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1">
         <v>7</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1">
         <v>8</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27">
+      <c r="T1">
         <v>0</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1">
         <v>1</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1">
         <v>2</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1">
         <v>3</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1">
         <v>4</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1">
         <v>5</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1">
         <v>6</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1">
         <v>7</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1">
         <v>8</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1">
         <v>9</v>
       </c>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26"/>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26"/>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26"/>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26"/>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
     </row>
-    <row r="2" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B2" s="27">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="23">
         <v>5</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="23">
         <v>6</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="23">
         <v>7</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="23">
         <v>8</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="23">
         <v>9</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2" s="23">
         <v>21</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="23">
         <v>22</v>
       </c>
-      <c r="V2" s="39">
+      <c r="V2" s="28">
         <v>23</v>
       </c>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="26"/>
-      <c r="CH2" s="26"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="36"/>
     </row>
-    <row r="3" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B3" s="27">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="29">
         <v>1</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="29">
         <v>2</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="23">
         <v>3</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="23">
         <v>4</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="23">
         <v>5</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="T3" s="38">
+      <c r="T3" s="27">
         <v>20</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="27">
         <v>21</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="38">
+      <c r="W3" s="27">
         <v>23</v>
       </c>
-      <c r="X3" s="38">
+      <c r="X3" s="27">
         <v>24</v>
       </c>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="26"/>
-      <c r="BP3" s="26"/>
-      <c r="BQ3" s="26"/>
-      <c r="BR3" s="26"/>
-      <c r="BS3" s="26"/>
-      <c r="BT3" s="26"/>
-      <c r="BU3" s="26"/>
-      <c r="BV3" s="26"/>
-      <c r="BW3" s="26"/>
-      <c r="BX3" s="26"/>
-      <c r="BY3" s="26"/>
-      <c r="BZ3" s="26"/>
-      <c r="CA3" s="26"/>
-      <c r="CB3" s="26"/>
-      <c r="CC3" s="26"/>
-      <c r="CD3" s="26"/>
-      <c r="CE3" s="26"/>
-      <c r="CF3" s="26"/>
-      <c r="CG3" s="26"/>
-      <c r="CH3" s="26"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="36"/>
     </row>
-    <row r="4" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B4" s="27">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="23">
         <v>6</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="23">
         <v>7</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="23">
         <v>8</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="23">
         <v>9</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="S4">
         <v>2</v>
       </c>
-      <c r="T4" s="34">
+      <c r="T4" s="23">
         <v>21</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="23">
         <v>22</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="30">
         <v>23</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="26"/>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="26"/>
-      <c r="BR4" s="26"/>
-      <c r="BS4" s="26"/>
-      <c r="BT4" s="26"/>
-      <c r="BU4" s="26"/>
-      <c r="BV4" s="26"/>
-      <c r="BW4" s="26"/>
-      <c r="BX4" s="26"/>
-      <c r="BY4" s="26"/>
-      <c r="BZ4" s="26"/>
-      <c r="CA4" s="26"/>
-      <c r="CB4" s="26"/>
-      <c r="CC4" s="26"/>
-      <c r="CD4" s="26"/>
-      <c r="CE4" s="26"/>
-      <c r="CF4" s="26"/>
-      <c r="CG4" s="26"/>
-      <c r="CH4" s="26"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="36"/>
     </row>
-    <row r="5" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B5" s="27">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="23">
         <v>10</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="23">
         <v>11</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="34">
+      <c r="E5" s="25"/>
+      <c r="F5" s="23">
         <v>13</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="28">
         <v>22</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="28">
         <v>23</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="29">
         <v>24</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="27" t="s">
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="36"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" t="s">
         <v>4</v>
       </c>
-      <c r="BH5" s="26"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="26"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5" s="26"/>
-      <c r="BP5" s="26"/>
-      <c r="BQ5" s="26"/>
-      <c r="BR5" s="26"/>
-      <c r="BS5" s="26"/>
-      <c r="BT5" s="26"/>
-      <c r="BU5" s="26"/>
-      <c r="BV5" s="26"/>
-      <c r="BW5" s="26"/>
-      <c r="BX5" s="26"/>
-      <c r="BY5" s="26"/>
-      <c r="BZ5" s="26"/>
-      <c r="CA5" s="26"/>
-      <c r="CB5" s="26"/>
-      <c r="CC5" s="26"/>
-      <c r="CD5" s="26"/>
-      <c r="CE5" s="26"/>
-      <c r="CF5" s="26"/>
-      <c r="CG5" s="26"/>
-      <c r="CH5" s="26"/>
     </row>
-    <row r="6" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B6" s="27">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="23">
         <v>15</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="23">
         <v>16</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="23">
         <v>17</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="28">
         <v>23</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="23">
         <v>24</v>
       </c>
-      <c r="V6" s="37" t="s">
+      <c r="V6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="27" t="s">
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="36"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" t="s">
         <v>0</v>
       </c>
-      <c r="BH6" s="26"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="26"/>
-      <c r="BK6" s="26"/>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="26"/>
-      <c r="BO6" s="26"/>
-      <c r="BP6" s="26"/>
-      <c r="BQ6" s="26"/>
-      <c r="BR6" s="26"/>
-      <c r="BS6" s="26"/>
-      <c r="BT6" s="26"/>
-      <c r="BU6" s="26"/>
-      <c r="BV6" s="26"/>
-      <c r="BW6" s="26"/>
-      <c r="BX6" s="26"/>
-      <c r="BY6" s="26"/>
-      <c r="BZ6" s="26"/>
-      <c r="CA6" s="26"/>
-      <c r="CB6" s="26"/>
-      <c r="CC6" s="26"/>
-      <c r="CD6" s="26"/>
-      <c r="CE6" s="26"/>
-      <c r="CF6" s="26"/>
-      <c r="CG6" s="26"/>
-      <c r="CH6" s="26"/>
     </row>
-    <row r="7" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B7" s="27">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="23">
         <v>20</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="23">
         <v>21</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="27" t="s">
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="36"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="26"/>
-      <c r="BL7" s="26"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="26"/>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="26"/>
-      <c r="BR7" s="26"/>
-      <c r="BS7" s="26"/>
-      <c r="BT7" s="26"/>
-      <c r="BU7" s="26"/>
-      <c r="BV7" s="26"/>
-      <c r="BW7" s="26"/>
-      <c r="BX7" s="26"/>
-      <c r="BY7" s="26"/>
-      <c r="BZ7" s="26"/>
-      <c r="CA7" s="26"/>
-      <c r="CB7" s="26"/>
-      <c r="CC7" s="26"/>
-      <c r="CD7" s="26"/>
-      <c r="CE7" s="26"/>
-      <c r="CF7" s="26"/>
-      <c r="CG7" s="26"/>
-      <c r="CH7" s="26"/>
     </row>
-    <row r="8" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B8" s="27">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="23">
         <v>25</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="S8">
         <v>6</v>
       </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="27" t="s">
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="36"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" t="s">
         <v>7</v>
       </c>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="26"/>
-      <c r="BK8" s="26"/>
-      <c r="BL8" s="26"/>
-      <c r="BM8" s="26"/>
-      <c r="BN8" s="26"/>
-      <c r="BO8" s="26"/>
-      <c r="BP8" s="26"/>
-      <c r="BQ8" s="26"/>
-      <c r="BR8" s="26"/>
-      <c r="BS8" s="26"/>
-      <c r="BT8" s="26"/>
-      <c r="BU8" s="26"/>
-      <c r="BV8" s="26"/>
-      <c r="BW8" s="26"/>
-      <c r="BX8" s="26"/>
-      <c r="BY8" s="26"/>
-      <c r="BZ8" s="26"/>
-      <c r="CA8" s="26"/>
-      <c r="CB8" s="26"/>
-      <c r="CC8" s="26"/>
-      <c r="CD8" s="26"/>
-      <c r="CE8" s="26"/>
-      <c r="CF8" s="26"/>
-      <c r="CG8" s="26"/>
-      <c r="CH8" s="26"/>
     </row>
-    <row r="9" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B9" s="27">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="27" t="s">
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="36"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26"/>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26"/>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26"/>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26"/>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26"/>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26"/>
     </row>
-    <row r="10" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B10" s="27">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="S10">
         <v>8</v>
       </c>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10" s="26"/>
-      <c r="BL10" s="26"/>
-      <c r="BM10" s="26"/>
-      <c r="BN10" s="26"/>
-      <c r="BO10" s="26"/>
-      <c r="BP10" s="26"/>
-      <c r="BQ10" s="26"/>
-      <c r="BR10" s="26"/>
-      <c r="BS10" s="26"/>
-      <c r="BT10" s="26"/>
-      <c r="BU10" s="26"/>
-      <c r="BV10" s="26"/>
-      <c r="BW10" s="26"/>
-      <c r="BX10" s="26"/>
-      <c r="BY10" s="26"/>
-      <c r="BZ10" s="26"/>
-      <c r="CA10" s="26"/>
-      <c r="CB10" s="26"/>
-      <c r="CC10" s="26"/>
-      <c r="CD10" s="26"/>
-      <c r="CE10" s="26"/>
-      <c r="CF10" s="26"/>
-      <c r="CG10" s="26"/>
-      <c r="CH10" s="26"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="36"/>
     </row>
-    <row r="11" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B11" s="27">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="37" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="S11">
         <v>9</v>
       </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11" s="26"/>
-      <c r="BL11" s="26"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26"/>
-      <c r="BO11" s="26"/>
-      <c r="BP11" s="26"/>
-      <c r="BQ11" s="26"/>
-      <c r="BR11" s="26"/>
-      <c r="BS11" s="26"/>
-      <c r="BT11" s="26"/>
-      <c r="BU11" s="26"/>
-      <c r="BV11" s="26"/>
-      <c r="BW11" s="26"/>
-      <c r="BX11" s="26"/>
-      <c r="BY11" s="26"/>
-      <c r="BZ11" s="26"/>
-      <c r="CA11" s="26"/>
-      <c r="CB11" s="26"/>
-      <c r="CC11" s="26"/>
-      <c r="CD11" s="26"/>
-      <c r="CE11" s="26"/>
-      <c r="CF11" s="26"/>
-      <c r="CG11" s="26"/>
-      <c r="CH11" s="26"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="36"/>
     </row>
-    <row r="12" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="26"/>
-      <c r="BD12" s="26"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="26"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12" s="26"/>
-      <c r="BL12" s="26"/>
-      <c r="BM12" s="26"/>
-      <c r="BN12" s="26"/>
-      <c r="BO12" s="26"/>
-      <c r="BP12" s="26"/>
-      <c r="BQ12" s="26"/>
-      <c r="BR12" s="26"/>
-      <c r="BS12" s="26"/>
-      <c r="BT12" s="26"/>
-      <c r="BU12" s="26"/>
-      <c r="BV12" s="26"/>
-      <c r="BW12" s="26"/>
-      <c r="BX12" s="26"/>
-      <c r="BY12" s="26"/>
-      <c r="BZ12" s="26"/>
-      <c r="CA12" s="26"/>
-      <c r="CB12" s="26"/>
-      <c r="CC12" s="26"/>
-      <c r="CD12" s="26"/>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="D13" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="V13" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
     </row>
-    <row r="13" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="17" t="s">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="17" t="s">
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="26"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="26"/>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="26"/>
-      <c r="BL13" s="26"/>
-      <c r="BM13" s="26"/>
-      <c r="BN13" s="26"/>
-      <c r="BO13" s="26"/>
-      <c r="BP13" s="26"/>
-      <c r="BQ13" s="26"/>
-      <c r="BR13" s="26"/>
-      <c r="BS13" s="26"/>
-      <c r="BT13" s="26"/>
-      <c r="BU13" s="26"/>
-      <c r="BV13" s="26"/>
-      <c r="BW13" s="26"/>
-      <c r="BX13" s="26"/>
-      <c r="BY13" s="26"/>
-      <c r="BZ13" s="26"/>
-      <c r="CA13" s="26"/>
-      <c r="CB13" s="26"/>
-      <c r="CC13" s="26"/>
-      <c r="CD13" s="26"/>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>8</v>
+      </c>
+      <c r="AC17">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AW14" s="26"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="26"/>
-      <c r="BD14" s="26"/>
-      <c r="BE14" s="26"/>
-      <c r="BF14" s="26"/>
-      <c r="BG14" s="26"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="26"/>
-      <c r="BL14" s="26"/>
-      <c r="BM14" s="26"/>
-      <c r="BN14" s="26"/>
-      <c r="BO14" s="26"/>
-      <c r="BP14" s="26"/>
-      <c r="BQ14" s="26"/>
-      <c r="BR14" s="26"/>
-      <c r="BS14" s="26"/>
-      <c r="BT14" s="26"/>
-      <c r="BU14" s="26"/>
-      <c r="BV14" s="26"/>
-      <c r="BW14" s="26"/>
-      <c r="BX14" s="26"/>
-      <c r="BY14" s="26"/>
-      <c r="BZ14" s="26"/>
-      <c r="CA14" s="26"/>
-      <c r="CB14" s="26"/>
-      <c r="CC14" s="26"/>
-      <c r="CD14" s="26"/>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>5</v>
+      </c>
+      <c r="D18" s="23">
+        <v>5</v>
+      </c>
+      <c r="E18" s="23">
+        <v>5</v>
+      </c>
+      <c r="F18" s="23">
+        <v>6</v>
+      </c>
+      <c r="G18" s="28">
+        <v>7</v>
+      </c>
+      <c r="H18" s="23">
+        <v>8</v>
+      </c>
+      <c r="I18" s="23">
+        <v>9</v>
+      </c>
+      <c r="J18" s="23">
+        <v>10</v>
+      </c>
+      <c r="K18" s="23">
+        <v>11</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="27">
+        <v>25</v>
+      </c>
+      <c r="U18" s="23">
+        <v>6</v>
+      </c>
+      <c r="V18" s="28">
+        <v>1</v>
+      </c>
+      <c r="W18" s="23">
+        <v>6</v>
+      </c>
+      <c r="X18" s="23">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="23">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="23">
+        <v>21</v>
+      </c>
+      <c r="AA18" s="23">
+        <v>26</v>
+      </c>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="36"/>
     </row>
-    <row r="15" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
-      <c r="BL15" s="26"/>
-      <c r="BM15" s="26"/>
-      <c r="BN15" s="26"/>
-      <c r="BO15" s="26"/>
-      <c r="BP15" s="26"/>
-      <c r="BQ15" s="26"/>
-      <c r="BR15" s="26"/>
-      <c r="BS15" s="26"/>
-      <c r="BT15" s="26"/>
-      <c r="BU15" s="26"/>
-      <c r="BV15" s="26"/>
-      <c r="BW15" s="26"/>
-      <c r="BX15" s="26"/>
-      <c r="BY15" s="26"/>
-      <c r="BZ15" s="26"/>
-      <c r="CA15" s="26"/>
-      <c r="CB15" s="26"/>
-      <c r="CC15" s="26"/>
-      <c r="CD15" s="26"/>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28">
+        <v>3</v>
+      </c>
+      <c r="I19" s="23">
+        <v>4</v>
+      </c>
+      <c r="J19" s="23">
+        <v>5</v>
+      </c>
+      <c r="K19" s="23">
+        <v>6</v>
+      </c>
+      <c r="L19" s="23">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="23">
+        <v>10</v>
+      </c>
+      <c r="U19" s="23">
+        <v>5</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="23">
+        <v>5</v>
+      </c>
+      <c r="X19" s="23">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="23">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="23">
+        <v>20</v>
+      </c>
+      <c r="AA19" s="23">
+        <v>25</v>
+      </c>
+      <c r="AB19" s="23">
+        <v>30</v>
+      </c>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="36"/>
     </row>
-    <row r="16" spans="2:86" x14ac:dyDescent="0.35">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="26"/>
-      <c r="BG16" s="26"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
-      <c r="BK16" s="26"/>
-      <c r="BL16" s="26"/>
-      <c r="BM16" s="26"/>
-      <c r="BN16" s="26"/>
-      <c r="BO16" s="26"/>
-      <c r="BP16" s="26"/>
-      <c r="BQ16" s="26"/>
-      <c r="BR16" s="26"/>
-      <c r="BS16" s="26"/>
-      <c r="BT16" s="26"/>
-      <c r="BU16" s="26"/>
-      <c r="BV16" s="26"/>
-      <c r="BW16" s="26"/>
-      <c r="BX16" s="26"/>
-      <c r="BY16" s="26"/>
-      <c r="BZ16" s="26"/>
-      <c r="CA16" s="26"/>
-      <c r="CB16" s="26"/>
-      <c r="CC16" s="26"/>
-      <c r="CD16" s="26"/>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="23">
+        <v>5</v>
+      </c>
+      <c r="D20" s="23">
+        <v>5</v>
+      </c>
+      <c r="E20" s="23">
+        <v>5</v>
+      </c>
+      <c r="F20" s="23">
+        <v>6</v>
+      </c>
+      <c r="G20" s="28">
+        <v>7</v>
+      </c>
+      <c r="H20" s="23">
+        <v>8</v>
+      </c>
+      <c r="I20" s="23">
+        <v>9</v>
+      </c>
+      <c r="J20" s="23">
+        <v>10</v>
+      </c>
+      <c r="K20" s="23">
+        <v>11</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20" s="23">
+        <v>10</v>
+      </c>
+      <c r="U20" s="23">
+        <v>5</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="23">
+        <v>5</v>
+      </c>
+      <c r="X20" s="23">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="23">
+        <v>15</v>
+      </c>
+      <c r="Z20" s="23">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="23">
+        <v>25</v>
+      </c>
+      <c r="AB20" s="23">
+        <v>30</v>
+      </c>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="36"/>
     </row>
-    <row r="17" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="23">
+        <v>10</v>
+      </c>
+      <c r="D21" s="23">
+        <v>10</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="28">
+        <v>11</v>
+      </c>
+      <c r="G21" s="33">
+        <v>12</v>
+      </c>
+      <c r="H21" s="23">
+        <v>13</v>
+      </c>
+      <c r="I21" s="23">
+        <v>14</v>
+      </c>
+      <c r="J21" s="23">
+        <v>15</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21" s="28">
+        <v>10</v>
+      </c>
+      <c r="U21" s="28">
+        <v>5</v>
+      </c>
+      <c r="V21" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="27">
+      <c r="W21" s="23">
+        <v>5</v>
+      </c>
+      <c r="X21" s="23">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="23">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="23">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="23">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="23">
+        <v>30</v>
+      </c>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="36"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="32">
+        <v>16</v>
+      </c>
+      <c r="D22" s="32">
+        <v>16</v>
+      </c>
+      <c r="E22" s="28">
+        <v>17</v>
+      </c>
+      <c r="F22" s="32">
+        <v>16</v>
+      </c>
+      <c r="G22" s="33">
+        <v>17</v>
+      </c>
+      <c r="H22" s="23">
+        <v>18</v>
+      </c>
+      <c r="I22" s="23">
+        <v>19</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22" s="28">
+        <v>10</v>
+      </c>
+      <c r="U22" s="23">
+        <v>5</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="23">
+        <v>5</v>
+      </c>
+      <c r="X22" s="23">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="23">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="23">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="23">
+        <v>25</v>
+      </c>
+      <c r="AB22" s="23">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="36"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="23">
+        <v>21</v>
+      </c>
+      <c r="D23" s="32">
+        <v>21</v>
+      </c>
+      <c r="E23" s="31">
+        <v>21</v>
+      </c>
+      <c r="F23" s="32">
+        <v>21</v>
+      </c>
+      <c r="G23" s="23">
+        <v>22</v>
+      </c>
+      <c r="H23" s="23">
+        <v>23</v>
+      </c>
+      <c r="I23" s="23">
+        <v>25</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23" s="23">
+        <v>11</v>
+      </c>
+      <c r="U23" s="23">
+        <v>6</v>
+      </c>
+      <c r="V23" s="29">
         <v>1</v>
       </c>
-      <c r="E17" s="27">
+      <c r="W23" s="23">
+        <v>6</v>
+      </c>
+      <c r="X23" s="23">
+        <v>11</v>
+      </c>
+      <c r="Y23" s="23">
+        <v>16</v>
+      </c>
+      <c r="Z23" s="23">
+        <v>21</v>
+      </c>
+      <c r="AA23" s="23">
+        <v>26</v>
+      </c>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="36"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" s="23">
+        <v>24</v>
+      </c>
+      <c r="D24" s="23">
+        <v>23</v>
+      </c>
+      <c r="E24" s="34">
+        <v>22</v>
+      </c>
+      <c r="F24" s="23">
+        <v>23</v>
+      </c>
+      <c r="G24" s="23">
+        <v>24</v>
+      </c>
+      <c r="H24" s="23">
+        <v>25</v>
+      </c>
+      <c r="I24" s="23">
+        <v>26</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24" s="23">
+        <v>12</v>
+      </c>
+      <c r="U24" s="23">
+        <v>7</v>
+      </c>
+      <c r="V24" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="W24" s="23">
+        <v>7</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="23">
+        <v>17</v>
+      </c>
+      <c r="Z24" s="23">
+        <v>22</v>
+      </c>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="36"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" s="23">
+        <v>25</v>
+      </c>
+      <c r="D25" s="23">
+        <v>24</v>
+      </c>
+      <c r="E25" s="27">
+        <v>23</v>
+      </c>
+      <c r="F25" s="23">
+        <v>24</v>
+      </c>
+      <c r="G25" s="23">
+        <v>25</v>
+      </c>
+      <c r="H25" s="23">
+        <v>26</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25" s="23">
+        <v>13</v>
+      </c>
+      <c r="U25" s="23">
+        <v>8</v>
+      </c>
+      <c r="V25" s="29">
         <v>3</v>
       </c>
-      <c r="G17" s="27">
+      <c r="W25" s="23">
+        <v>8</v>
+      </c>
+      <c r="X25" s="23">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="23">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="36"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23">
+        <v>25</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="29">
+        <v>25</v>
+      </c>
+      <c r="G26" s="29">
+        <v>26</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26" s="23">
+        <v>14</v>
+      </c>
+      <c r="U26" s="23">
+        <v>9</v>
+      </c>
+      <c r="V26" s="29">
         <v>4</v>
       </c>
-      <c r="H17" s="27">
+      <c r="W26" s="23">
+        <v>9</v>
+      </c>
+      <c r="X26" s="23">
+        <v>14</v>
+      </c>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="36"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="27">
+        <v>25</v>
+      </c>
+      <c r="F27" s="23">
+        <v>30</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23">
+        <v>10</v>
+      </c>
+      <c r="V27" s="23">
         <v>5</v>
       </c>
-      <c r="I17" s="27">
+      <c r="W27" s="23">
+        <v>10</v>
+      </c>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="36"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="D29" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="V29" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="J17" s="27">
+      <c r="K34">
         <v>7</v>
       </c>
-      <c r="K17" s="27">
+      <c r="L34">
         <v>8</v>
       </c>
-      <c r="L17" s="27">
+      <c r="M34">
         <v>9</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27">
+      <c r="U34">
         <v>0</v>
       </c>
-      <c r="U17" s="27">
+      <c r="V34">
         <v>1</v>
       </c>
-      <c r="V17" s="27">
+      <c r="W34">
         <v>2</v>
       </c>
-      <c r="W17" s="27">
+      <c r="X34">
         <v>3</v>
       </c>
-      <c r="X17" s="27">
+      <c r="Y34">
         <v>4</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Z34">
         <v>5</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="AA34">
         <v>6</v>
       </c>
-      <c r="AA17" s="27">
+      <c r="AB34">
         <v>7</v>
       </c>
-      <c r="AB17" s="27">
+      <c r="AC34">
         <v>8</v>
       </c>
-      <c r="AC17" s="27">
+      <c r="AD34">
         <v>9</v>
       </c>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="26"/>
-      <c r="BF17" s="26"/>
-      <c r="BG17" s="26"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="26"/>
-      <c r="BL17" s="26"/>
-      <c r="BM17" s="26"/>
-      <c r="BN17" s="26"/>
-      <c r="BO17" s="26"/>
-      <c r="BP17" s="26"/>
-      <c r="BQ17" s="26"/>
-      <c r="BR17" s="26"/>
-      <c r="BS17" s="26"/>
-      <c r="BT17" s="26"/>
-      <c r="BU17" s="26"/>
-      <c r="BV17" s="26"/>
-      <c r="BW17" s="26"/>
-      <c r="BX17" s="26"/>
-      <c r="BY17" s="26"/>
-      <c r="BZ17" s="26"/>
-      <c r="CA17" s="26"/>
-      <c r="CB17" s="26"/>
-      <c r="CC17" s="26"/>
-      <c r="CD17" s="26"/>
     </row>
-    <row r="18" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B18" s="27">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="C18" s="34">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="27">
+        <v>21</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23">
+        <v>11</v>
+      </c>
+      <c r="AC35" s="23">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="36"/>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23">
+        <v>21</v>
+      </c>
+      <c r="M36" s="23">
+        <v>20</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23">
+        <v>15</v>
+      </c>
+      <c r="AB36" s="23">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="23">
         <v>5</v>
       </c>
-      <c r="D18" s="34">
+      <c r="AD36" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="36"/>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="29">
+        <v>22</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23">
+        <v>11</v>
+      </c>
+      <c r="AC37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AD37" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="36"/>
+    </row>
+    <row r="38" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AD38" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="36"/>
+    </row>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39" s="28"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="36"/>
+    </row>
+    <row r="40" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="E18" s="34">
+      <c r="D40" s="23"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="T40">
         <v>5</v>
       </c>
-      <c r="F18" s="34">
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="36"/>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C41">
         <v>6</v>
       </c>
-      <c r="G18" s="39">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="36"/>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C42">
         <v>7</v>
       </c>
-      <c r="H18" s="34">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="36"/>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C43">
         <v>8</v>
       </c>
-      <c r="I18" s="34">
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="36"/>
+    </row>
+    <row r="44" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="C44">
         <v>9</v>
       </c>
-      <c r="J18" s="34">
-        <v>10</v>
-      </c>
-      <c r="K18" s="34">
-        <v>11</v>
-      </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27">
-        <v>0</v>
-      </c>
-      <c r="T18" s="38">
-        <v>25</v>
-      </c>
-      <c r="U18" s="34">
-        <v>6</v>
-      </c>
-      <c r="V18" s="39">
-        <v>1</v>
-      </c>
-      <c r="W18" s="34">
-        <v>6</v>
-      </c>
-      <c r="X18" s="34">
-        <v>11</v>
-      </c>
-      <c r="Y18" s="34">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="34">
-        <v>21</v>
-      </c>
-      <c r="AA18" s="34">
-        <v>26</v>
-      </c>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="26"/>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="26"/>
-      <c r="BL18" s="26"/>
-      <c r="BM18" s="26"/>
-      <c r="BN18" s="26"/>
-      <c r="BO18" s="26"/>
-      <c r="BP18" s="26"/>
-      <c r="BQ18" s="26"/>
-      <c r="BR18" s="26"/>
-      <c r="BS18" s="26"/>
-      <c r="BT18" s="26"/>
-      <c r="BU18" s="26"/>
-      <c r="BV18" s="26"/>
-      <c r="BW18" s="26"/>
-      <c r="BX18" s="26"/>
-      <c r="BY18" s="26"/>
-      <c r="BZ18" s="26"/>
-      <c r="CA18" s="26"/>
-      <c r="CB18" s="26"/>
-      <c r="CC18" s="26"/>
-      <c r="CD18" s="26"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="T44">
+        <v>9</v>
+      </c>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="36"/>
     </row>
-    <row r="19" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B19" s="27">
-        <v>1</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1</v>
-      </c>
-      <c r="G19" s="34">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="E46" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="39">
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="W46" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="34">
-        <v>4</v>
-      </c>
-      <c r="J19" s="34">
-        <v>5</v>
-      </c>
-      <c r="K19" s="34">
-        <v>6</v>
-      </c>
-      <c r="L19" s="34">
-        <v>7</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27">
-        <v>1</v>
-      </c>
-      <c r="T19" s="34">
-        <v>10</v>
-      </c>
-      <c r="U19" s="34">
-        <v>5</v>
-      </c>
-      <c r="V19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="34">
-        <v>5</v>
-      </c>
-      <c r="X19" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y19" s="34">
-        <v>15</v>
-      </c>
-      <c r="Z19" s="34">
-        <v>20</v>
-      </c>
-      <c r="AA19" s="34">
-        <v>25</v>
-      </c>
-      <c r="AB19" s="34">
-        <v>30</v>
-      </c>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="26"/>
-      <c r="BG19" s="26"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="26"/>
-      <c r="BL19" s="26"/>
-      <c r="BM19" s="26"/>
-      <c r="BN19" s="26"/>
-      <c r="BO19" s="26"/>
-      <c r="BP19" s="26"/>
-      <c r="BQ19" s="26"/>
-      <c r="BR19" s="26"/>
-      <c r="BS19" s="26"/>
-      <c r="BT19" s="26"/>
-      <c r="BU19" s="26"/>
-      <c r="BV19" s="26"/>
-      <c r="BW19" s="26"/>
-      <c r="BX19" s="26"/>
-      <c r="BY19" s="26"/>
-      <c r="BZ19" s="26"/>
-      <c r="CA19" s="26"/>
-      <c r="CB19" s="26"/>
-      <c r="CC19" s="26"/>
-      <c r="CD19" s="26"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
     </row>
-    <row r="20" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B20" s="27">
-        <v>2</v>
-      </c>
-      <c r="C20" s="34">
-        <v>5</v>
-      </c>
-      <c r="D20" s="34">
-        <v>5</v>
-      </c>
-      <c r="E20" s="34">
-        <v>5</v>
-      </c>
-      <c r="F20" s="34">
-        <v>6</v>
-      </c>
-      <c r="G20" s="39">
-        <v>7</v>
-      </c>
-      <c r="H20" s="34">
-        <v>8</v>
-      </c>
-      <c r="I20" s="34">
-        <v>9</v>
-      </c>
-      <c r="J20" s="34">
-        <v>10</v>
-      </c>
-      <c r="K20" s="34">
-        <v>11</v>
-      </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27">
-        <v>2</v>
-      </c>
-      <c r="T20" s="34">
-        <v>10</v>
-      </c>
-      <c r="U20" s="34">
-        <v>5</v>
-      </c>
-      <c r="V20" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W20" s="34">
-        <v>5</v>
-      </c>
-      <c r="X20" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y20" s="34">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="34">
-        <v>20</v>
-      </c>
-      <c r="AA20" s="34">
-        <v>25</v>
-      </c>
-      <c r="AB20" s="34">
-        <v>30</v>
-      </c>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="26"/>
-      <c r="BD20" s="26"/>
-      <c r="BE20" s="26"/>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="26"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
-      <c r="BL20" s="26"/>
-      <c r="BM20" s="26"/>
-      <c r="BN20" s="26"/>
-      <c r="BO20" s="26"/>
-      <c r="BP20" s="26"/>
-      <c r="BQ20" s="26"/>
-      <c r="BR20" s="26"/>
-      <c r="BS20" s="26"/>
-      <c r="BT20" s="26"/>
-      <c r="BU20" s="26"/>
-      <c r="BV20" s="26"/>
-      <c r="BW20" s="26"/>
-      <c r="BX20" s="26"/>
-      <c r="BY20" s="26"/>
-      <c r="BZ20" s="26"/>
-      <c r="CA20" s="26"/>
-      <c r="CB20" s="26"/>
-      <c r="CC20" s="26"/>
-      <c r="CD20" s="26"/>
-    </row>
-    <row r="21" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B21" s="27">
-        <v>3</v>
-      </c>
-      <c r="C21" s="34">
-        <v>10</v>
-      </c>
-      <c r="D21" s="34">
-        <v>10</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="39">
-        <v>11</v>
-      </c>
-      <c r="G21" s="44">
-        <v>12</v>
-      </c>
-      <c r="H21" s="34">
-        <v>13</v>
-      </c>
-      <c r="I21" s="34">
-        <v>14</v>
-      </c>
-      <c r="J21" s="34">
-        <v>15</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27">
-        <v>3</v>
-      </c>
-      <c r="T21" s="39">
-        <v>10</v>
-      </c>
-      <c r="U21" s="39">
-        <v>5</v>
-      </c>
-      <c r="V21" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="34">
-        <v>5</v>
-      </c>
-      <c r="X21" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="34">
-        <v>15</v>
-      </c>
-      <c r="Z21" s="34">
-        <v>20</v>
-      </c>
-      <c r="AA21" s="34">
-        <v>25</v>
-      </c>
-      <c r="AB21" s="34">
-        <v>30</v>
-      </c>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="26"/>
-      <c r="BM21" s="26"/>
-      <c r="BN21" s="26"/>
-      <c r="BO21" s="26"/>
-      <c r="BP21" s="26"/>
-      <c r="BQ21" s="26"/>
-      <c r="BR21" s="26"/>
-      <c r="BS21" s="26"/>
-      <c r="BT21" s="26"/>
-      <c r="BU21" s="26"/>
-      <c r="BV21" s="26"/>
-      <c r="BW21" s="26"/>
-      <c r="BX21" s="26"/>
-      <c r="BY21" s="26"/>
-      <c r="BZ21" s="26"/>
-      <c r="CA21" s="26"/>
-      <c r="CB21" s="26"/>
-      <c r="CC21" s="26"/>
-      <c r="CD21" s="26"/>
-    </row>
-    <row r="22" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B22" s="27">
-        <v>4</v>
-      </c>
-      <c r="C22" s="43">
-        <v>16</v>
-      </c>
-      <c r="D22" s="43">
-        <v>16</v>
-      </c>
-      <c r="E22" s="39">
-        <v>17</v>
-      </c>
-      <c r="F22" s="43">
-        <v>16</v>
-      </c>
-      <c r="G22" s="44">
-        <v>17</v>
-      </c>
-      <c r="H22" s="34">
-        <v>18</v>
-      </c>
-      <c r="I22" s="34">
-        <v>19</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27">
-        <v>4</v>
-      </c>
-      <c r="T22" s="39">
-        <v>10</v>
-      </c>
-      <c r="U22" s="34">
-        <v>5</v>
-      </c>
-      <c r="V22" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W22" s="34">
-        <v>5</v>
-      </c>
-      <c r="X22" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="34">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="34">
-        <v>20</v>
-      </c>
-      <c r="AA22" s="34">
-        <v>25</v>
-      </c>
-      <c r="AB22" s="34">
-        <v>30</v>
-      </c>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
-      <c r="BL22" s="26"/>
-      <c r="BM22" s="26"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="26"/>
-      <c r="BQ22" s="26"/>
-      <c r="BR22" s="26"/>
-      <c r="BS22" s="26"/>
-      <c r="BT22" s="26"/>
-      <c r="BU22" s="26"/>
-      <c r="BV22" s="26"/>
-      <c r="BW22" s="26"/>
-      <c r="BX22" s="26"/>
-      <c r="BY22" s="26"/>
-      <c r="BZ22" s="26"/>
-      <c r="CA22" s="26"/>
-      <c r="CB22" s="26"/>
-      <c r="CC22" s="26"/>
-      <c r="CD22" s="26"/>
-    </row>
-    <row r="23" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B23" s="27">
-        <v>5</v>
-      </c>
-      <c r="C23" s="34">
-        <v>21</v>
-      </c>
-      <c r="D23" s="43">
-        <v>21</v>
-      </c>
-      <c r="E23" s="42">
-        <v>21</v>
-      </c>
-      <c r="F23" s="43">
-        <v>21</v>
-      </c>
-      <c r="G23" s="34">
-        <v>22</v>
-      </c>
-      <c r="H23" s="34">
-        <v>23</v>
-      </c>
-      <c r="I23" s="34">
-        <v>25</v>
-      </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27">
-        <v>5</v>
-      </c>
-      <c r="T23" s="34">
-        <v>11</v>
-      </c>
-      <c r="U23" s="34">
-        <v>6</v>
-      </c>
-      <c r="V23" s="40">
-        <v>1</v>
-      </c>
-      <c r="W23" s="34">
-        <v>6</v>
-      </c>
-      <c r="X23" s="34">
-        <v>11</v>
-      </c>
-      <c r="Y23" s="34">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="34">
-        <v>21</v>
-      </c>
-      <c r="AA23" s="34">
-        <v>26</v>
-      </c>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
-      <c r="BD23" s="26"/>
-      <c r="BE23" s="26"/>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="26"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
-      <c r="BK23" s="26"/>
-      <c r="BL23" s="26"/>
-      <c r="BM23" s="26"/>
-      <c r="BN23" s="26"/>
-      <c r="BO23" s="26"/>
-      <c r="BP23" s="26"/>
-      <c r="BQ23" s="26"/>
-      <c r="BR23" s="26"/>
-      <c r="BS23" s="26"/>
-      <c r="BT23" s="26"/>
-      <c r="BU23" s="26"/>
-      <c r="BV23" s="26"/>
-      <c r="BW23" s="26"/>
-      <c r="BX23" s="26"/>
-      <c r="BY23" s="26"/>
-      <c r="BZ23" s="26"/>
-      <c r="CA23" s="26"/>
-      <c r="CB23" s="26"/>
-      <c r="CC23" s="26"/>
-      <c r="CD23" s="26"/>
-    </row>
-    <row r="24" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B24" s="27">
-        <v>6</v>
-      </c>
-      <c r="C24" s="34">
-        <v>24</v>
-      </c>
-      <c r="D24" s="34">
-        <v>23</v>
-      </c>
-      <c r="E24" s="45">
-        <v>22</v>
-      </c>
-      <c r="F24" s="34">
-        <v>23</v>
-      </c>
-      <c r="G24" s="34">
-        <v>24</v>
-      </c>
-      <c r="H24" s="34">
-        <v>25</v>
-      </c>
-      <c r="I24" s="34">
-        <v>26</v>
-      </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27">
-        <v>6</v>
-      </c>
-      <c r="T24" s="34">
-        <v>12</v>
-      </c>
-      <c r="U24" s="34">
-        <v>7</v>
-      </c>
-      <c r="V24" s="40">
-        <v>2</v>
-      </c>
-      <c r="W24" s="34">
-        <v>7</v>
-      </c>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="34">
-        <v>17</v>
-      </c>
-      <c r="Z24" s="34">
-        <v>22</v>
-      </c>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="26"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="26"/>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="26"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="26"/>
-      <c r="BL24" s="26"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
-      <c r="BP24" s="26"/>
-      <c r="BQ24" s="26"/>
-      <c r="BR24" s="26"/>
-      <c r="BS24" s="26"/>
-      <c r="BT24" s="26"/>
-      <c r="BU24" s="26"/>
-      <c r="BV24" s="26"/>
-      <c r="BW24" s="26"/>
-      <c r="BX24" s="26"/>
-      <c r="BY24" s="26"/>
-      <c r="BZ24" s="26"/>
-      <c r="CA24" s="26"/>
-      <c r="CB24" s="26"/>
-      <c r="CC24" s="26"/>
-      <c r="CD24" s="26"/>
-    </row>
-    <row r="25" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B25" s="27">
-        <v>7</v>
-      </c>
-      <c r="C25" s="34">
-        <v>25</v>
-      </c>
-      <c r="D25" s="34">
-        <v>24</v>
-      </c>
-      <c r="E25" s="38">
-        <v>23</v>
-      </c>
-      <c r="F25" s="34">
-        <v>24</v>
-      </c>
-      <c r="G25" s="34">
-        <v>25</v>
-      </c>
-      <c r="H25" s="34">
-        <v>26</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27">
-        <v>7</v>
-      </c>
-      <c r="T25" s="34">
-        <v>13</v>
-      </c>
-      <c r="U25" s="34">
-        <v>8</v>
-      </c>
-      <c r="V25" s="40">
-        <v>3</v>
-      </c>
-      <c r="W25" s="34">
-        <v>8</v>
-      </c>
-      <c r="X25" s="34">
-        <v>13</v>
-      </c>
-      <c r="Y25" s="34">
-        <v>18</v>
-      </c>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="26"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="26"/>
-      <c r="BD25" s="26"/>
-      <c r="BE25" s="26"/>
-      <c r="BF25" s="26"/>
-      <c r="BG25" s="26"/>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="26"/>
-      <c r="BJ25" s="26"/>
-      <c r="BK25" s="26"/>
-      <c r="BL25" s="26"/>
-      <c r="BM25" s="26"/>
-      <c r="BN25" s="26"/>
-      <c r="BO25" s="26"/>
-      <c r="BP25" s="26"/>
-      <c r="BQ25" s="26"/>
-      <c r="BR25" s="26"/>
-      <c r="BS25" s="26"/>
-      <c r="BT25" s="26"/>
-      <c r="BU25" s="26"/>
-      <c r="BV25" s="26"/>
-      <c r="BW25" s="26"/>
-      <c r="BX25" s="26"/>
-      <c r="BY25" s="26"/>
-      <c r="BZ25" s="26"/>
-      <c r="CA25" s="26"/>
-      <c r="CB25" s="26"/>
-      <c r="CC25" s="26"/>
-      <c r="CD25" s="26"/>
-    </row>
-    <row r="26" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B26" s="27">
-        <v>8</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34">
-        <v>25</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="40">
-        <v>25</v>
-      </c>
-      <c r="G26" s="40">
-        <v>26</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27">
-        <v>8</v>
-      </c>
-      <c r="T26" s="34">
-        <v>14</v>
-      </c>
-      <c r="U26" s="34">
-        <v>9</v>
-      </c>
-      <c r="V26" s="40">
-        <v>4</v>
-      </c>
-      <c r="W26" s="34">
-        <v>9</v>
-      </c>
-      <c r="X26" s="34">
-        <v>14</v>
-      </c>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="26"/>
-      <c r="BD26" s="26"/>
-      <c r="BE26" s="26"/>
-      <c r="BF26" s="26"/>
-      <c r="BG26" s="26"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
-      <c r="BK26" s="26"/>
-      <c r="BL26" s="26"/>
-      <c r="BM26" s="26"/>
-      <c r="BN26" s="26"/>
-      <c r="BO26" s="26"/>
-      <c r="BP26" s="26"/>
-      <c r="BQ26" s="26"/>
-      <c r="BR26" s="26"/>
-      <c r="BS26" s="26"/>
-      <c r="BT26" s="26"/>
-      <c r="BU26" s="26"/>
-      <c r="BV26" s="26"/>
-      <c r="BW26" s="26"/>
-      <c r="BX26" s="26"/>
-      <c r="BY26" s="26"/>
-      <c r="BZ26" s="26"/>
-      <c r="CA26" s="26"/>
-      <c r="CB26" s="26"/>
-      <c r="CC26" s="26"/>
-      <c r="CD26" s="26"/>
-    </row>
-    <row r="27" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B27" s="27">
-        <v>9</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="38">
-        <v>25</v>
-      </c>
-      <c r="F27" s="34">
-        <v>30</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27">
-        <v>9</v>
-      </c>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34">
-        <v>10</v>
-      </c>
-      <c r="V27" s="34">
-        <v>5</v>
-      </c>
-      <c r="W27" s="34">
-        <v>10</v>
-      </c>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="26"/>
-      <c r="BP27" s="26"/>
-      <c r="BQ27" s="26"/>
-      <c r="BR27" s="26"/>
-      <c r="BS27" s="26"/>
-      <c r="BT27" s="26"/>
-      <c r="BU27" s="26"/>
-      <c r="BV27" s="26"/>
-      <c r="BW27" s="26"/>
-      <c r="BX27" s="26"/>
-      <c r="BY27" s="26"/>
-      <c r="BZ27" s="26"/>
-      <c r="CA27" s="26"/>
-      <c r="CB27" s="26"/>
-      <c r="CC27" s="26"/>
-      <c r="CD27" s="26"/>
-    </row>
-    <row r="28" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="26"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="26"/>
-      <c r="AX28" s="26"/>
-      <c r="AY28" s="26"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
-      <c r="BC28" s="26"/>
-      <c r="BD28" s="26"/>
-      <c r="BE28" s="26"/>
-      <c r="BF28" s="26"/>
-      <c r="BG28" s="26"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
-      <c r="BK28" s="26"/>
-      <c r="BL28" s="26"/>
-      <c r="BM28" s="26"/>
-      <c r="BN28" s="26"/>
-      <c r="BO28" s="26"/>
-      <c r="BP28" s="26"/>
-      <c r="BQ28" s="26"/>
-      <c r="BR28" s="26"/>
-      <c r="BS28" s="26"/>
-      <c r="BT28" s="26"/>
-      <c r="BU28" s="26"/>
-      <c r="BV28" s="26"/>
-      <c r="BW28" s="26"/>
-      <c r="BX28" s="26"/>
-      <c r="BY28" s="26"/>
-      <c r="BZ28" s="26"/>
-      <c r="CA28" s="26"/>
-      <c r="CB28" s="26"/>
-      <c r="CC28" s="26"/>
-      <c r="CD28" s="26"/>
-    </row>
-    <row r="29" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="26"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="26"/>
-      <c r="BD29" s="26"/>
-      <c r="BE29" s="26"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="26"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
-      <c r="BL29" s="26"/>
-      <c r="BM29" s="26"/>
-      <c r="BN29" s="26"/>
-      <c r="BO29" s="26"/>
-      <c r="BP29" s="26"/>
-      <c r="BQ29" s="26"/>
-      <c r="BR29" s="26"/>
-      <c r="BS29" s="26"/>
-      <c r="BT29" s="26"/>
-      <c r="BU29" s="26"/>
-      <c r="BV29" s="26"/>
-      <c r="BW29" s="26"/>
-      <c r="BX29" s="26"/>
-      <c r="BY29" s="26"/>
-      <c r="BZ29" s="26"/>
-      <c r="CA29" s="26"/>
-      <c r="CB29" s="26"/>
-      <c r="CC29" s="26"/>
-      <c r="CD29" s="26"/>
-    </row>
-    <row r="30" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="26"/>
-      <c r="AN30" s="26"/>
-      <c r="AO30" s="26"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="26"/>
-      <c r="AR30" s="26"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="AU30" s="26"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
-      <c r="BC30" s="26"/>
-      <c r="BD30" s="26"/>
-      <c r="BE30" s="26"/>
-      <c r="BF30" s="26"/>
-      <c r="BG30" s="26"/>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="26"/>
-      <c r="BK30" s="26"/>
-      <c r="BL30" s="26"/>
-      <c r="BM30" s="26"/>
-      <c r="BN30" s="26"/>
-      <c r="BO30" s="26"/>
-      <c r="BP30" s="26"/>
-      <c r="BQ30" s="26"/>
-      <c r="BR30" s="26"/>
-      <c r="BS30" s="26"/>
-      <c r="BT30" s="26"/>
-      <c r="BU30" s="26"/>
-      <c r="BV30" s="26"/>
-      <c r="BW30" s="26"/>
-      <c r="BX30" s="26"/>
-      <c r="BY30" s="26"/>
-      <c r="BZ30" s="26"/>
-      <c r="CA30" s="26"/>
-      <c r="CB30" s="26"/>
-      <c r="CC30" s="26"/>
-      <c r="CD30" s="26"/>
-    </row>
-    <row r="31" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="26"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="AU31" s="26"/>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="26"/>
-      <c r="BD31" s="26"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="26"/>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="26"/>
-      <c r="BJ31" s="26"/>
-      <c r="BK31" s="26"/>
-      <c r="BL31" s="26"/>
-      <c r="BM31" s="26"/>
-      <c r="BN31" s="26"/>
-      <c r="BO31" s="26"/>
-      <c r="BP31" s="26"/>
-      <c r="BQ31" s="26"/>
-      <c r="BR31" s="26"/>
-      <c r="BS31" s="26"/>
-      <c r="BT31" s="26"/>
-      <c r="BU31" s="26"/>
-      <c r="BV31" s="26"/>
-      <c r="BW31" s="26"/>
-      <c r="BX31" s="26"/>
-      <c r="BY31" s="26"/>
-      <c r="BZ31" s="26"/>
-      <c r="CA31" s="26"/>
-      <c r="CB31" s="26"/>
-      <c r="CC31" s="26"/>
-      <c r="CD31" s="26"/>
-    </row>
-    <row r="32" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="26"/>
-      <c r="AR32" s="26"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="26"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="26"/>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
-      <c r="BL32" s="26"/>
-      <c r="BM32" s="26"/>
-      <c r="BN32" s="26"/>
-      <c r="BO32" s="26"/>
-      <c r="BP32" s="26"/>
-      <c r="BQ32" s="26"/>
-      <c r="BR32" s="26"/>
-      <c r="BS32" s="26"/>
-      <c r="BT32" s="26"/>
-      <c r="BU32" s="26"/>
-      <c r="BV32" s="26"/>
-      <c r="BW32" s="26"/>
-      <c r="BX32" s="26"/>
-      <c r="BY32" s="26"/>
-      <c r="BZ32" s="26"/>
-      <c r="CA32" s="26"/>
-      <c r="CB32" s="26"/>
-      <c r="CC32" s="26"/>
-      <c r="CD32" s="26"/>
-    </row>
-    <row r="33" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="26"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="26"/>
-      <c r="BL33" s="26"/>
-      <c r="BM33" s="26"/>
-      <c r="BN33" s="26"/>
-      <c r="BO33" s="26"/>
-      <c r="BP33" s="26"/>
-      <c r="BQ33" s="26"/>
-      <c r="BR33" s="26"/>
-      <c r="BS33" s="26"/>
-      <c r="BT33" s="26"/>
-      <c r="BU33" s="26"/>
-      <c r="BV33" s="26"/>
-      <c r="BW33" s="26"/>
-      <c r="BX33" s="26"/>
-      <c r="BY33" s="26"/>
-      <c r="BZ33" s="26"/>
-      <c r="CA33" s="26"/>
-      <c r="CB33" s="26"/>
-      <c r="CC33" s="26"/>
-      <c r="CD33" s="26"/>
-    </row>
-    <row r="34" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C34" s="27"/>
-      <c r="D34" s="27">
-        <v>0</v>
-      </c>
-      <c r="E34" s="27">
-        <v>1</v>
-      </c>
-      <c r="F34" s="27">
-        <v>2</v>
-      </c>
-      <c r="G34" s="27">
-        <v>3</v>
-      </c>
-      <c r="H34" s="27">
-        <v>4</v>
-      </c>
-      <c r="I34" s="27">
-        <v>5</v>
-      </c>
-      <c r="J34" s="27">
-        <v>6</v>
-      </c>
-      <c r="K34" s="27">
-        <v>7</v>
-      </c>
-      <c r="L34" s="27">
-        <v>8</v>
-      </c>
-      <c r="M34" s="27">
-        <v>9</v>
-      </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27">
-        <v>0</v>
-      </c>
-      <c r="V34" s="27">
-        <v>1</v>
-      </c>
-      <c r="W34" s="27">
-        <v>2</v>
-      </c>
-      <c r="X34" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="27">
-        <v>4</v>
-      </c>
-      <c r="Z34" s="27">
-        <v>5</v>
-      </c>
-      <c r="AA34" s="27">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="27">
-        <v>7</v>
-      </c>
-      <c r="AC34" s="27">
-        <v>8</v>
-      </c>
-      <c r="AD34" s="27">
-        <v>9</v>
-      </c>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26"/>
-      <c r="BO34" s="26"/>
-      <c r="BP34" s="26"/>
-      <c r="BQ34" s="26"/>
-      <c r="BR34" s="26"/>
-      <c r="BS34" s="26"/>
-      <c r="BT34" s="26"/>
-      <c r="BU34" s="26"/>
-      <c r="BV34" s="26"/>
-      <c r="BW34" s="26"/>
-      <c r="BX34" s="26"/>
-      <c r="BY34" s="26"/>
-      <c r="BZ34" s="26"/>
-      <c r="CA34" s="26"/>
-      <c r="CB34" s="26"/>
-      <c r="CC34" s="26"/>
-      <c r="CD34" s="26"/>
-    </row>
-    <row r="35" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C35" s="27">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="38">
-        <v>21</v>
-      </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27">
-        <v>0</v>
-      </c>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34">
-        <v>11</v>
-      </c>
-      <c r="AC35" s="34">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="26"/>
-      <c r="BE35" s="26"/>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="26"/>
-      <c r="BH35" s="26"/>
-      <c r="BI35" s="26"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="26"/>
-      <c r="BL35" s="26"/>
-      <c r="BM35" s="26"/>
-      <c r="BN35" s="26"/>
-      <c r="BO35" s="26"/>
-      <c r="BP35" s="26"/>
-      <c r="BQ35" s="26"/>
-      <c r="BR35" s="26"/>
-      <c r="BS35" s="26"/>
-      <c r="BT35" s="26"/>
-      <c r="BU35" s="26"/>
-      <c r="BV35" s="26"/>
-      <c r="BW35" s="26"/>
-      <c r="BX35" s="26"/>
-      <c r="BY35" s="26"/>
-      <c r="BZ35" s="26"/>
-      <c r="CA35" s="26"/>
-      <c r="CB35" s="26"/>
-      <c r="CC35" s="26"/>
-      <c r="CD35" s="26"/>
-    </row>
-    <row r="36" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C36" s="27">
-        <v>1</v>
-      </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34">
-        <v>21</v>
-      </c>
-      <c r="M36" s="34">
-        <v>20</v>
-      </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27">
-        <v>1</v>
-      </c>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34">
-        <v>15</v>
-      </c>
-      <c r="AB36" s="34">
-        <v>10</v>
-      </c>
-      <c r="AC36" s="34">
-        <v>5</v>
-      </c>
-      <c r="AD36" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26"/>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
-      <c r="BQ36" s="26"/>
-      <c r="BR36" s="26"/>
-      <c r="BS36" s="26"/>
-      <c r="BT36" s="26"/>
-      <c r="BU36" s="26"/>
-      <c r="BV36" s="26"/>
-      <c r="BW36" s="26"/>
-      <c r="BX36" s="26"/>
-      <c r="BY36" s="26"/>
-      <c r="BZ36" s="26"/>
-      <c r="CA36" s="26"/>
-      <c r="CB36" s="26"/>
-      <c r="CC36" s="26"/>
-      <c r="CD36" s="26"/>
-    </row>
-    <row r="37" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C37" s="27">
-        <v>2</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="40">
-        <v>22</v>
-      </c>
-      <c r="M37" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27">
-        <v>2</v>
-      </c>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34">
-        <v>11</v>
-      </c>
-      <c r="AC37" s="34">
-        <v>6</v>
-      </c>
-      <c r="AD37" s="40">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="26"/>
-      <c r="AR37" s="26"/>
-      <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="AU37" s="26"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="26"/>
-      <c r="AZ37" s="26"/>
-      <c r="BA37" s="26"/>
-      <c r="BB37" s="26"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="26"/>
-      <c r="BE37" s="26"/>
-      <c r="BF37" s="26"/>
-      <c r="BG37" s="26"/>
-      <c r="BH37" s="26"/>
-      <c r="BI37" s="26"/>
-      <c r="BJ37" s="26"/>
-      <c r="BK37" s="26"/>
-      <c r="BL37" s="26"/>
-      <c r="BM37" s="26"/>
-      <c r="BN37" s="26"/>
-      <c r="BO37" s="26"/>
-      <c r="BP37" s="26"/>
-      <c r="BQ37" s="26"/>
-      <c r="BR37" s="26"/>
-      <c r="BS37" s="26"/>
-      <c r="BT37" s="26"/>
-      <c r="BU37" s="26"/>
-      <c r="BV37" s="26"/>
-      <c r="BW37" s="26"/>
-      <c r="BX37" s="26"/>
-      <c r="BY37" s="26"/>
-      <c r="BZ37" s="26"/>
-      <c r="CA37" s="26"/>
-      <c r="CB37" s="26"/>
-      <c r="CC37" s="26"/>
-      <c r="CD37" s="26"/>
-    </row>
-    <row r="38" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C38" s="27">
-        <v>3</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38" s="34"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27">
-        <v>3</v>
-      </c>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34">
-        <v>7</v>
-      </c>
-      <c r="AD38" s="34">
-        <v>2</v>
-      </c>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="26"/>
-      <c r="AR38" s="26"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="AU38" s="26"/>
-      <c r="AV38" s="26"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="26"/>
-      <c r="AY38" s="26"/>
-      <c r="AZ38" s="26"/>
-      <c r="BA38" s="26"/>
-      <c r="BB38" s="26"/>
-      <c r="BC38" s="26"/>
-      <c r="BD38" s="26"/>
-      <c r="BE38" s="26"/>
-      <c r="BF38" s="26"/>
-      <c r="BG38" s="26"/>
-      <c r="BH38" s="26"/>
-      <c r="BI38" s="26"/>
-      <c r="BJ38" s="26"/>
-      <c r="BK38" s="26"/>
-      <c r="BL38" s="26"/>
-      <c r="BM38" s="26"/>
-      <c r="BN38" s="26"/>
-      <c r="BO38" s="26"/>
-      <c r="BP38" s="26"/>
-      <c r="BQ38" s="26"/>
-      <c r="BR38" s="26"/>
-      <c r="BS38" s="26"/>
-      <c r="BT38" s="26"/>
-      <c r="BU38" s="26"/>
-      <c r="BV38" s="26"/>
-      <c r="BW38" s="26"/>
-      <c r="BX38" s="26"/>
-      <c r="BY38" s="26"/>
-      <c r="BZ38" s="26"/>
-      <c r="CA38" s="26"/>
-      <c r="CB38" s="26"/>
-      <c r="CC38" s="26"/>
-      <c r="CD38" s="26"/>
-    </row>
-    <row r="39" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C39" s="27">
-        <v>4</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27">
-        <v>4</v>
-      </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34">
-        <v>3</v>
-      </c>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-      <c r="AU39" s="26"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="26"/>
-      <c r="AY39" s="26"/>
-      <c r="AZ39" s="26"/>
-      <c r="BA39" s="26"/>
-      <c r="BB39" s="26"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="26"/>
-      <c r="BE39" s="26"/>
-      <c r="BF39" s="26"/>
-      <c r="BG39" s="26"/>
-      <c r="BH39" s="26"/>
-      <c r="BI39" s="26"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="26"/>
-      <c r="BL39" s="26"/>
-      <c r="BM39" s="26"/>
-      <c r="BN39" s="26"/>
-      <c r="BO39" s="26"/>
-      <c r="BP39" s="26"/>
-      <c r="BQ39" s="26"/>
-      <c r="BR39" s="26"/>
-      <c r="BS39" s="26"/>
-      <c r="BT39" s="26"/>
-      <c r="BU39" s="26"/>
-      <c r="BV39" s="26"/>
-      <c r="BW39" s="26"/>
-      <c r="BX39" s="26"/>
-      <c r="BY39" s="26"/>
-      <c r="BZ39" s="26"/>
-      <c r="CA39" s="26"/>
-      <c r="CB39" s="26"/>
-      <c r="CC39" s="26"/>
-      <c r="CD39" s="26"/>
-    </row>
-    <row r="40" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C40" s="27">
-        <v>5</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27">
-        <v>5</v>
-      </c>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="26"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="26"/>
-      <c r="AR40" s="26"/>
-      <c r="AS40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="AU40" s="26"/>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="26"/>
-      <c r="BD40" s="26"/>
-      <c r="BE40" s="26"/>
-      <c r="BF40" s="26"/>
-      <c r="BG40" s="26"/>
-      <c r="BH40" s="26"/>
-      <c r="BI40" s="26"/>
-      <c r="BJ40" s="26"/>
-      <c r="BK40" s="26"/>
-      <c r="BL40" s="26"/>
-      <c r="BM40" s="26"/>
-      <c r="BN40" s="26"/>
-      <c r="BO40" s="26"/>
-      <c r="BP40" s="26"/>
-      <c r="BQ40" s="26"/>
-      <c r="BR40" s="26"/>
-      <c r="BS40" s="26"/>
-      <c r="BT40" s="26"/>
-      <c r="BU40" s="26"/>
-      <c r="BV40" s="26"/>
-      <c r="BW40" s="26"/>
-      <c r="BX40" s="26"/>
-      <c r="BY40" s="26"/>
-      <c r="BZ40" s="26"/>
-      <c r="CA40" s="26"/>
-      <c r="CB40" s="26"/>
-      <c r="CC40" s="26"/>
-      <c r="CD40" s="26"/>
-    </row>
-    <row r="41" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C41" s="27">
-        <v>6</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27">
-        <v>6</v>
-      </c>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="26"/>
-      <c r="AR41" s="26"/>
-      <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="26"/>
-      <c r="AY41" s="26"/>
-      <c r="AZ41" s="26"/>
-      <c r="BA41" s="26"/>
-      <c r="BB41" s="26"/>
-      <c r="BC41" s="26"/>
-      <c r="BD41" s="26"/>
-      <c r="BE41" s="26"/>
-      <c r="BF41" s="26"/>
-      <c r="BG41" s="26"/>
-      <c r="BH41" s="26"/>
-      <c r="BI41" s="26"/>
-      <c r="BJ41" s="26"/>
-      <c r="BK41" s="26"/>
-      <c r="BL41" s="26"/>
-      <c r="BM41" s="26"/>
-      <c r="BN41" s="26"/>
-      <c r="BO41" s="26"/>
-      <c r="BP41" s="26"/>
-      <c r="BQ41" s="26"/>
-      <c r="BR41" s="26"/>
-      <c r="BS41" s="26"/>
-      <c r="BT41" s="26"/>
-      <c r="BU41" s="26"/>
-      <c r="BV41" s="26"/>
-      <c r="BW41" s="26"/>
-      <c r="BX41" s="26"/>
-      <c r="BY41" s="26"/>
-      <c r="BZ41" s="26"/>
-      <c r="CA41" s="26"/>
-      <c r="CB41" s="26"/>
-      <c r="CC41" s="26"/>
-      <c r="CD41" s="26"/>
-    </row>
-    <row r="42" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C42" s="27">
-        <v>7</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27">
-        <v>7</v>
-      </c>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="26"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="26"/>
-      <c r="AQ42" s="26"/>
-      <c r="AR42" s="26"/>
-      <c r="AS42" s="26"/>
-      <c r="AT42" s="26"/>
-      <c r="AU42" s="26"/>
-      <c r="AV42" s="26"/>
-      <c r="AW42" s="26"/>
-      <c r="AX42" s="26"/>
-      <c r="AY42" s="26"/>
-      <c r="AZ42" s="26"/>
-      <c r="BA42" s="26"/>
-      <c r="BB42" s="26"/>
-      <c r="BC42" s="26"/>
-      <c r="BD42" s="26"/>
-      <c r="BE42" s="26"/>
-      <c r="BF42" s="26"/>
-      <c r="BG42" s="26"/>
-      <c r="BH42" s="26"/>
-      <c r="BI42" s="26"/>
-      <c r="BJ42" s="26"/>
-      <c r="BK42" s="26"/>
-      <c r="BL42" s="26"/>
-      <c r="BM42" s="26"/>
-      <c r="BN42" s="26"/>
-      <c r="BO42" s="26"/>
-      <c r="BP42" s="26"/>
-      <c r="BQ42" s="26"/>
-      <c r="BR42" s="26"/>
-      <c r="BS42" s="26"/>
-      <c r="BT42" s="26"/>
-      <c r="BU42" s="26"/>
-      <c r="BV42" s="26"/>
-      <c r="BW42" s="26"/>
-      <c r="BX42" s="26"/>
-      <c r="BY42" s="26"/>
-      <c r="BZ42" s="26"/>
-      <c r="CA42" s="26"/>
-      <c r="CB42" s="26"/>
-      <c r="CC42" s="26"/>
-      <c r="CD42" s="26"/>
-    </row>
-    <row r="43" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C43" s="27">
-        <v>8</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27">
-        <v>8</v>
-      </c>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
-      <c r="AR43" s="26"/>
-      <c r="AS43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="AU43" s="26"/>
-      <c r="AV43" s="26"/>
-      <c r="AW43" s="26"/>
-      <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
-      <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
-      <c r="BB43" s="26"/>
-      <c r="BC43" s="26"/>
-      <c r="BD43" s="26"/>
-      <c r="BE43" s="26"/>
-      <c r="BF43" s="26"/>
-      <c r="BG43" s="26"/>
-      <c r="BH43" s="26"/>
-      <c r="BI43" s="26"/>
-      <c r="BJ43" s="26"/>
-      <c r="BK43" s="26"/>
-      <c r="BL43" s="26"/>
-      <c r="BM43" s="26"/>
-      <c r="BN43" s="26"/>
-      <c r="BO43" s="26"/>
-      <c r="BP43" s="26"/>
-      <c r="BQ43" s="26"/>
-      <c r="BR43" s="26"/>
-      <c r="BS43" s="26"/>
-      <c r="BT43" s="26"/>
-      <c r="BU43" s="26"/>
-      <c r="BV43" s="26"/>
-      <c r="BW43" s="26"/>
-      <c r="BX43" s="26"/>
-      <c r="BY43" s="26"/>
-      <c r="BZ43" s="26"/>
-      <c r="CA43" s="26"/>
-      <c r="CB43" s="26"/>
-      <c r="CC43" s="26"/>
-      <c r="CD43" s="26"/>
-    </row>
-    <row r="44" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C44" s="27">
-        <v>9</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27">
-        <v>9</v>
-      </c>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
-      <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
-      <c r="AV44" s="26"/>
-      <c r="AW44" s="26"/>
-      <c r="AX44" s="26"/>
-      <c r="AY44" s="26"/>
-      <c r="AZ44" s="26"/>
-      <c r="BA44" s="26"/>
-      <c r="BB44" s="26"/>
-      <c r="BC44" s="26"/>
-      <c r="BD44" s="26"/>
-      <c r="BE44" s="26"/>
-      <c r="BF44" s="26"/>
-      <c r="BG44" s="26"/>
-      <c r="BH44" s="26"/>
-      <c r="BI44" s="26"/>
-      <c r="BJ44" s="26"/>
-      <c r="BK44" s="26"/>
-      <c r="BL44" s="26"/>
-      <c r="BM44" s="26"/>
-      <c r="BN44" s="26"/>
-      <c r="BO44" s="26"/>
-      <c r="BP44" s="26"/>
-      <c r="BQ44" s="26"/>
-      <c r="BR44" s="26"/>
-      <c r="BS44" s="26"/>
-      <c r="BT44" s="26"/>
-      <c r="BU44" s="26"/>
-      <c r="BV44" s="26"/>
-      <c r="BW44" s="26"/>
-      <c r="BX44" s="26"/>
-      <c r="BY44" s="26"/>
-      <c r="BZ44" s="26"/>
-      <c r="CA44" s="26"/>
-      <c r="CB44" s="26"/>
-      <c r="CC44" s="26"/>
-      <c r="CD44" s="26"/>
-    </row>
-    <row r="45" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="26"/>
-      <c r="AO45" s="26"/>
-      <c r="AP45" s="26"/>
-      <c r="AQ45" s="26"/>
-      <c r="AR45" s="26"/>
-      <c r="AS45" s="26"/>
-      <c r="AT45" s="26"/>
-      <c r="AU45" s="26"/>
-      <c r="AV45" s="26"/>
-      <c r="AW45" s="26"/>
-      <c r="AX45" s="26"/>
-      <c r="AY45" s="26"/>
-      <c r="AZ45" s="26"/>
-      <c r="BA45" s="26"/>
-      <c r="BB45" s="26"/>
-      <c r="BC45" s="26"/>
-      <c r="BD45" s="26"/>
-      <c r="BE45" s="26"/>
-      <c r="BF45" s="26"/>
-      <c r="BG45" s="26"/>
-      <c r="BH45" s="26"/>
-      <c r="BI45" s="26"/>
-      <c r="BJ45" s="26"/>
-      <c r="BK45" s="26"/>
-      <c r="BL45" s="26"/>
-      <c r="BM45" s="26"/>
-      <c r="BN45" s="26"/>
-      <c r="BO45" s="26"/>
-      <c r="BP45" s="26"/>
-      <c r="BQ45" s="26"/>
-      <c r="BR45" s="26"/>
-      <c r="BS45" s="26"/>
-      <c r="BT45" s="26"/>
-      <c r="BU45" s="26"/>
-      <c r="BV45" s="26"/>
-      <c r="BW45" s="26"/>
-      <c r="BX45" s="26"/>
-      <c r="BY45" s="26"/>
-      <c r="BZ45" s="26"/>
-      <c r="CA45" s="26"/>
-      <c r="CB45" s="26"/>
-      <c r="CC45" s="26"/>
-      <c r="CD45" s="26"/>
-    </row>
-    <row r="46" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="26"/>
-      <c r="AM46" s="26"/>
-      <c r="AN46" s="26"/>
-      <c r="AO46" s="26"/>
-      <c r="AP46" s="26"/>
-      <c r="AQ46" s="26"/>
-      <c r="AR46" s="26"/>
-      <c r="AS46" s="26"/>
-      <c r="AT46" s="26"/>
-      <c r="AU46" s="26"/>
-      <c r="AV46" s="26"/>
-      <c r="AW46" s="26"/>
-      <c r="AX46" s="26"/>
-      <c r="AY46" s="26"/>
-      <c r="AZ46" s="26"/>
-      <c r="BA46" s="26"/>
-      <c r="BB46" s="26"/>
-      <c r="BC46" s="26"/>
-      <c r="BD46" s="26"/>
-      <c r="BE46" s="26"/>
-      <c r="BF46" s="26"/>
-      <c r="BG46" s="26"/>
-      <c r="BH46" s="26"/>
-      <c r="BI46" s="26"/>
-      <c r="BJ46" s="26"/>
-      <c r="BK46" s="26"/>
-      <c r="BL46" s="26"/>
-      <c r="BM46" s="26"/>
-      <c r="BN46" s="26"/>
-      <c r="BO46" s="26"/>
-      <c r="BP46" s="26"/>
-      <c r="BQ46" s="26"/>
-      <c r="BR46" s="26"/>
-      <c r="BS46" s="26"/>
-      <c r="BT46" s="26"/>
-      <c r="BU46" s="26"/>
-      <c r="BV46" s="26"/>
-      <c r="BW46" s="26"/>
-      <c r="BX46" s="26"/>
-      <c r="BY46" s="26"/>
-      <c r="BZ46" s="26"/>
-      <c r="CA46" s="26"/>
-      <c r="CB46" s="26"/>
-      <c r="CC46" s="26"/>
-      <c r="CD46" s="26"/>
-    </row>
-    <row r="47" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="26"/>
-      <c r="AM47" s="26"/>
-      <c r="AN47" s="26"/>
-      <c r="AO47" s="26"/>
-      <c r="AP47" s="26"/>
-      <c r="AQ47" s="26"/>
-      <c r="AR47" s="26"/>
-      <c r="AS47" s="26"/>
-      <c r="AT47" s="26"/>
-      <c r="AU47" s="26"/>
-      <c r="AV47" s="26"/>
-      <c r="AW47" s="26"/>
-      <c r="AX47" s="26"/>
-      <c r="AY47" s="26"/>
-      <c r="AZ47" s="26"/>
-      <c r="BA47" s="26"/>
-      <c r="BB47" s="26"/>
-      <c r="BC47" s="26"/>
-      <c r="BD47" s="26"/>
-      <c r="BE47" s="26"/>
-      <c r="BF47" s="26"/>
-      <c r="BG47" s="26"/>
-      <c r="BH47" s="26"/>
-      <c r="BI47" s="26"/>
-      <c r="BJ47" s="26"/>
-      <c r="BK47" s="26"/>
-      <c r="BL47" s="26"/>
-      <c r="BM47" s="26"/>
-      <c r="BN47" s="26"/>
-      <c r="BO47" s="26"/>
-      <c r="BP47" s="26"/>
-      <c r="BQ47" s="26"/>
-      <c r="BR47" s="26"/>
-      <c r="BS47" s="26"/>
-      <c r="BT47" s="26"/>
-      <c r="BU47" s="26"/>
-      <c r="BV47" s="26"/>
-      <c r="BW47" s="26"/>
-      <c r="BX47" s="26"/>
-      <c r="BY47" s="26"/>
-      <c r="BZ47" s="26"/>
-      <c r="CA47" s="26"/>
-      <c r="CB47" s="26"/>
-      <c r="CC47" s="26"/>
-      <c r="CD47" s="26"/>
-    </row>
-    <row r="48" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="26"/>
-      <c r="AM48" s="26"/>
-      <c r="AN48" s="26"/>
-      <c r="AO48" s="26"/>
-      <c r="AP48" s="26"/>
-      <c r="AQ48" s="26"/>
-      <c r="AR48" s="26"/>
-      <c r="AS48" s="26"/>
-      <c r="AT48" s="26"/>
-      <c r="AU48" s="26"/>
-      <c r="AV48" s="26"/>
-      <c r="AW48" s="26"/>
-      <c r="AX48" s="26"/>
-      <c r="AY48" s="26"/>
-      <c r="AZ48" s="26"/>
-      <c r="BA48" s="26"/>
-      <c r="BB48" s="26"/>
-      <c r="BC48" s="26"/>
-      <c r="BD48" s="26"/>
-      <c r="BE48" s="26"/>
-      <c r="BF48" s="26"/>
-      <c r="BG48" s="26"/>
-      <c r="BH48" s="26"/>
-      <c r="BI48" s="26"/>
-      <c r="BJ48" s="26"/>
-      <c r="BK48" s="26"/>
-      <c r="BL48" s="26"/>
-      <c r="BM48" s="26"/>
-      <c r="BN48" s="26"/>
-      <c r="BO48" s="26"/>
-      <c r="BP48" s="26"/>
-      <c r="BQ48" s="26"/>
-      <c r="BR48" s="26"/>
-      <c r="BS48" s="26"/>
-      <c r="BT48" s="26"/>
-      <c r="BU48" s="26"/>
-      <c r="BV48" s="26"/>
-      <c r="BW48" s="26"/>
-      <c r="BX48" s="26"/>
-      <c r="BY48" s="26"/>
-      <c r="BZ48" s="26"/>
-      <c r="CA48" s="26"/>
-      <c r="CB48" s="26"/>
-      <c r="CC48" s="26"/>
-      <c r="CD48" s="26"/>
-    </row>
-    <row r="49" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="BO49" s="26"/>
-      <c r="BP49" s="26"/>
-      <c r="BQ49" s="26"/>
-      <c r="BR49" s="26"/>
-      <c r="BS49" s="26"/>
-      <c r="BT49" s="26"/>
-      <c r="BU49" s="26"/>
-      <c r="BV49" s="26"/>
-      <c r="BW49" s="26"/>
-      <c r="BX49" s="26"/>
-      <c r="BY49" s="26"/>
-      <c r="BZ49" s="26"/>
-      <c r="CA49" s="26"/>
-      <c r="CB49" s="26"/>
-      <c r="CC49" s="26"/>
-      <c r="CD49" s="26"/>
-    </row>
-    <row r="50" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="BO50" s="26"/>
-      <c r="BP50" s="26"/>
-      <c r="BQ50" s="26"/>
-      <c r="BR50" s="26"/>
-      <c r="BS50" s="26"/>
-      <c r="BT50" s="26"/>
-      <c r="BU50" s="26"/>
-      <c r="BV50" s="26"/>
-      <c r="BW50" s="26"/>
-      <c r="BX50" s="26"/>
-      <c r="BY50" s="26"/>
-      <c r="BZ50" s="26"/>
-      <c r="CA50" s="26"/>
-      <c r="CB50" s="26"/>
-      <c r="CC50" s="26"/>
-      <c r="CD50" s="26"/>
-    </row>
-    <row r="51" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="BO51" s="26"/>
-      <c r="BP51" s="26"/>
-      <c r="BQ51" s="26"/>
-      <c r="BR51" s="26"/>
-      <c r="BS51" s="26"/>
-      <c r="BT51" s="26"/>
-      <c r="BU51" s="26"/>
-      <c r="BV51" s="26"/>
-      <c r="BW51" s="26"/>
-      <c r="BX51" s="26"/>
-      <c r="BY51" s="26"/>
-      <c r="BZ51" s="26"/>
-      <c r="CA51" s="26"/>
-      <c r="CB51" s="26"/>
-      <c r="CC51" s="26"/>
-      <c r="CD51" s="26"/>
-    </row>
-    <row r="52" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="BO52" s="26"/>
-      <c r="BP52" s="26"/>
-      <c r="BQ52" s="26"/>
-      <c r="BR52" s="26"/>
-      <c r="BS52" s="26"/>
-      <c r="BT52" s="26"/>
-      <c r="BU52" s="26"/>
-      <c r="BV52" s="26"/>
-      <c r="BW52" s="26"/>
-      <c r="BX52" s="26"/>
-      <c r="BY52" s="26"/>
-      <c r="BZ52" s="26"/>
-      <c r="CA52" s="26"/>
-      <c r="CB52" s="26"/>
-      <c r="CC52" s="26"/>
-      <c r="CD52" s="26"/>
-    </row>
-    <row r="53" spans="2:82" x14ac:dyDescent="0.35">
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="BO53" s="26"/>
-      <c r="BP53" s="26"/>
-      <c r="BQ53" s="26"/>
-      <c r="BR53" s="26"/>
-      <c r="BS53" s="26"/>
-      <c r="BT53" s="26"/>
-      <c r="BU53" s="26"/>
-      <c r="BV53" s="26"/>
-      <c r="BW53" s="26"/>
-      <c r="BX53" s="26"/>
-      <c r="BY53" s="26"/>
-      <c r="BZ53" s="26"/>
-      <c r="CA53" s="26"/>
-      <c r="CB53" s="26"/>
-      <c r="CC53" s="26"/>
-      <c r="CD53" s="26"/>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.35">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Validation/Validation Outputs.xlsx
+++ b/Validation/Validation Outputs.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkasa\OneDrive\Desktop\Fall 2024\DD2\Maze-Router\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4B12A-E040-4D46-98A8-EE6D19CC9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8ED15F-91F2-4039-A326-2764470F9D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{A893F839-63D9-41AE-8AF0-88D786FCA642}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{A893F839-63D9-41AE-8AF0-88D786FCA642}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="4" r:id="rId1"/>
     <sheet name="Test2" sheetId="3" r:id="rId2"/>
     <sheet name="Test3" sheetId="2" r:id="rId3"/>
     <sheet name="Test4" sheetId="1" r:id="rId4"/>
+    <sheet name="Test5" sheetId="5" r:id="rId5"/>
+    <sheet name="Test6" sheetId="6" r:id="rId6"/>
+    <sheet name="Test7" sheetId="7" r:id="rId7"/>
+    <sheet name="Test8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="16">
   <si>
     <t>S</t>
   </si>
@@ -82,12 +86,18 @@
   <si>
     <t>9_v</t>
   </si>
+  <si>
+    <t>Manhattan Distance</t>
+  </si>
+  <si>
+    <t>Actual Via</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +118,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +177,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -174,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -262,10 +329,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3497,7 +3622,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(0, 3, 2) (0, 4, 2) (0, 5, 2) (0, 6, 2) (0, 7, 2) (0, 8, 2) (0, 9, 2) (1,9,2) (1,9,3)(1,9,4) (1,9,5)(1,9,6) (0,9,6)(0,10,6) (0,11,6) (0,12,6) (0,12,7)</a:t>
+            <a:t>(0, 3, 2) (0, 4, 2) (0, 5, 2) (0, 6, 2) (0, 7, 2) (0, 8, 2) (0, 9, 2) (1,9,2) (1,9,3)   (1,9,4) (1,9,5)(1,9,6) (0,9,6)(0,10,6) (0,11,6) (0,12,6) (0,12,7)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -4227,6 +4352,1844 @@
           <a:br>
             <a:rPr lang="en-US"/>
           </a:br>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133217</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B550EC-E07E-4A84-BCCE-C49EBBB6E9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8432667" y="2034714"/>
+          <a:ext cx="1689233" cy="491526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Bend Penalty = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Via Penalty = 20</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>165334</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB5E968-C669-4C2B-A035-D8653FD7CAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4984750" y="2959100"/>
+          <a:ext cx="2959334" cy="2298700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>14, 14, 5,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 20</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net0 (0, 13,1) (0,1,13 </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,5,7)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0, 10, 7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net2 (0,3,3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,9,10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net3 (0,12,4) (0,6,11)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sorted from smallest distance to largest.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,5,7)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0, 10, 7)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net2 (0,3,3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,9,10)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net3 (0,12,4) (0,6,11)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net0 (0, 13,1) (0,1,13 )</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>92119</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>152043</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>26832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162EE033-E2C1-4907-8488-D77DA75CFACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5011133" y="9200436"/>
+          <a:ext cx="11114290" cy="1344142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,5,7) (0,6,7) (0,7,7) (0,8,7) (0,9,7) (0,10,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net2 (0,3,3) (0,4,3) (0,4,4) (0,4,5) (0,4,6) (0,4,7) (0,4,8) (0,5,8) (0,6,8) (0,7,8) (0,8,8) (0,9,8) (0,9,9) (0,9,10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net3  (0,12,4) (0,11,4) (0,11,5) (0,11,6) (0,11,7) (0,11,8) (0,10,8) (0,10,9) (0,10,10) (0,10,11) (0,9,11) (0,8,11) (0,9,11) (0,8,11) (0,7,11) (0,6,11)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net0  (0,13,1) (0,12,1) (0,11,1) (0,10,1) (0,9,1) (0,8,1) (0,7,1) (0,6,1) (0,5,1) (0,4,1) (0,3,1) (0,2,1) (0,1,1) (0,1,2) (0,1,3) (0,1,4) (0,1,5) (0,1,6) (0,1,7) (0,1,8) (0,1,9) (0,1,10) (0,1,11) (0,1,12) (0,1,13)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>150979</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366AE07E-3308-40F8-AB74-4B56B652DD90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608801" y="2228249"/>
+          <a:ext cx="2787028" cy="3035901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Input:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8,8,5,10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,0,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,1,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,2,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,3,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,6,3) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,6,4) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,6,5) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (1,0,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (1,1,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (1,2,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (1,3,2) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (1,3,3) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (1,3,4) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net1 (0,0,1) (0,1,3)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133217</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5F9B33-66C1-4C04-952A-9C12EE6F9B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800717" y="1666414"/>
+          <a:ext cx="1784483" cy="491526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Bending Penalty = 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Via Penalty = 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185023</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>77610</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843BA49A-BB44-48B2-B79B-2068A0F2F10A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4185523" y="3334585"/>
+          <a:ext cx="5969537" cy="857826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Output:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>net1 (0,0,1) (0,1,1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0,2,1) (0,3,1) (0,4,1) (1,4,1) (1,4,2) (1,4,3) (0,4,3) (0,3,3) (0,2,3) (0,1,3)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91722</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Right 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D044449-94BB-4C57-8AED-1F3C37B5CAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3203222" y="3675239"/>
+          <a:ext cx="860778" cy="155928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="25000"/>
+              <a:lumOff val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>133217</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>132290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5044B296-F729-4DAF-BA83-69F3C9CAFD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200767" y="1666414"/>
+          <a:ext cx="1784483" cy="491526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Bending Penalty = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Via Penalty = 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A95BF27-F0F6-90B9-94C2-9B170A92FD82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="2870200"/>
+          <a:ext cx="2908300" cy="8394700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>11, 9, 5, 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,5,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,5,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,5,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,5,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,6,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,6,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,6,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,6,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,7,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,7,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,7,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,7,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,8,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,8,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,8,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,8,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,9,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,9,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,9,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,9,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,10,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,10,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (0,10,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,5,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,5,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,5,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,5,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,6,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,6,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,6,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,6,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,7,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,7,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,7,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,7,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,8,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,8,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,8,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,8,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,9,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,9,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,9,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,9,8)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,10,5) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,10,6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>OBS (1,10,7)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>net0 (0,0,0)(1,10,8)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B963CDED-6966-4D40-B0F5-30F54C33E27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5111750" y="3695700"/>
+          <a:ext cx="2908300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Source</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> cannot reach target.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
@@ -4556,7 +6519,7 @@
   <dimension ref="E1:AH11"/>
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BC18" sqref="BC18"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4941,22 +6904,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="11" spans="5:34" x14ac:dyDescent="0.35">
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="5"/>
-      <c r="S11" s="37" t="s">
+      <c r="S11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5386,22 +7349,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="11" spans="5:34" x14ac:dyDescent="0.35">
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="5"/>
-      <c r="S11" s="37" t="s">
+      <c r="S11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5415,10 +7378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80DFBE-79B2-44E0-907B-435B62526B72}">
-  <dimension ref="E1:AV29"/>
+  <dimension ref="E1:CV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI24" sqref="AI24"/>
+    <sheetView topLeftCell="B1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5700,7 +7663,7 @@
       <c r="O4" s="15">
         <v>6</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="3">
         <v>7</v>
       </c>
       <c r="Q4" s="3"/>
@@ -6119,34 +8082,34 @@
       <c r="AN11" s="3"/>
     </row>
     <row r="13" spans="5:48" x14ac:dyDescent="0.35">
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="AB13" s="37" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="AB13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-    </row>
-    <row r="17" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+    </row>
+    <row r="17" spans="5:100" x14ac:dyDescent="0.35">
       <c r="F17">
         <v>0</v>
       </c>
@@ -6237,8 +8200,98 @@
       <c r="AN17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>2</v>
+      </c>
+      <c r="BI17">
+        <v>3</v>
+      </c>
+      <c r="BJ17">
+        <v>4</v>
+      </c>
+      <c r="BK17">
+        <v>5</v>
+      </c>
+      <c r="BL17">
+        <v>6</v>
+      </c>
+      <c r="BM17">
+        <v>7</v>
+      </c>
+      <c r="BN17">
+        <v>8</v>
+      </c>
+      <c r="BO17">
+        <v>9</v>
+      </c>
+      <c r="BP17">
+        <v>10</v>
+      </c>
+      <c r="BQ17">
+        <v>11</v>
+      </c>
+      <c r="BR17">
+        <v>12</v>
+      </c>
+      <c r="BS17">
+        <v>13</v>
+      </c>
+      <c r="BT17">
+        <v>14</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>1</v>
+      </c>
+      <c r="CB17">
+        <v>2</v>
+      </c>
+      <c r="CC17">
+        <v>3</v>
+      </c>
+      <c r="CD17">
+        <v>4</v>
+      </c>
+      <c r="CE17">
+        <v>5</v>
+      </c>
+      <c r="CF17">
+        <v>6</v>
+      </c>
+      <c r="CG17">
+        <v>7</v>
+      </c>
+      <c r="CH17">
+        <v>8</v>
+      </c>
+      <c r="CI17">
+        <v>9</v>
+      </c>
+      <c r="CJ17">
+        <v>10</v>
+      </c>
+      <c r="CK17">
+        <v>11</v>
+      </c>
+      <c r="CL17">
+        <v>12</v>
+      </c>
+      <c r="CM17">
+        <v>13</v>
+      </c>
+      <c r="CN17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>0</v>
       </c>
@@ -6333,8 +8386,92 @@
         <v>8</v>
       </c>
       <c r="AN18" s="3"/>
-    </row>
-    <row r="19" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3">
+        <v>21</v>
+      </c>
+      <c r="BI18" s="3">
+        <v>8</v>
+      </c>
+      <c r="BJ18" s="3">
+        <v>8</v>
+      </c>
+      <c r="BK18" s="3">
+        <v>17</v>
+      </c>
+      <c r="BL18" s="3">
+        <v>8</v>
+      </c>
+      <c r="BM18" s="3">
+        <v>8</v>
+      </c>
+      <c r="BN18" s="3">
+        <v>20</v>
+      </c>
+      <c r="BO18" s="3">
+        <v>20</v>
+      </c>
+      <c r="BP18" s="3">
+        <v>21</v>
+      </c>
+      <c r="BQ18" s="3">
+        <v>22</v>
+      </c>
+      <c r="BR18" s="3">
+        <v>23</v>
+      </c>
+      <c r="BS18" s="3">
+        <v>24</v>
+      </c>
+      <c r="BT18" s="3">
+        <v>25</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="17"/>
+      <c r="CA18" s="17">
+        <v>16</v>
+      </c>
+      <c r="CB18" s="17">
+        <v>6</v>
+      </c>
+      <c r="CC18" s="17">
+        <v>5</v>
+      </c>
+      <c r="CD18" s="17">
+        <v>5</v>
+      </c>
+      <c r="CE18" s="17">
+        <v>14</v>
+      </c>
+      <c r="CF18" s="17">
+        <v>5</v>
+      </c>
+      <c r="CG18" s="17">
+        <v>5</v>
+      </c>
+      <c r="CH18" s="17">
+        <v>5</v>
+      </c>
+      <c r="CI18" s="17">
+        <v>2</v>
+      </c>
+      <c r="CJ18" s="17">
+        <v>6</v>
+      </c>
+      <c r="CK18" s="17">
+        <v>7</v>
+      </c>
+      <c r="CL18" s="17"/>
+      <c r="CM18" s="17"/>
+      <c r="CN18" s="3"/>
+    </row>
+    <row r="19" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>1</v>
       </c>
@@ -6435,8 +8572,106 @@
       <c r="AV19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3">
+        <v>12</v>
+      </c>
+      <c r="BH19" s="3">
+        <v>8</v>
+      </c>
+      <c r="BI19" s="3">
+        <v>7</v>
+      </c>
+      <c r="BJ19" s="3">
+        <v>7</v>
+      </c>
+      <c r="BK19" s="3">
+        <v>10</v>
+      </c>
+      <c r="BL19" s="3">
+        <v>7</v>
+      </c>
+      <c r="BM19" s="3">
+        <v>7</v>
+      </c>
+      <c r="BN19" s="3">
+        <v>7</v>
+      </c>
+      <c r="BO19" s="3">
+        <v>4</v>
+      </c>
+      <c r="BP19" s="3">
+        <v>5</v>
+      </c>
+      <c r="BQ19" s="3">
+        <v>12</v>
+      </c>
+      <c r="BR19" s="3">
+        <v>13</v>
+      </c>
+      <c r="BS19" s="3">
+        <v>14</v>
+      </c>
+      <c r="BT19" s="3">
+        <v>15</v>
+      </c>
+      <c r="BY19">
+        <v>1</v>
+      </c>
+      <c r="BZ19" s="17">
+        <v>25</v>
+      </c>
+      <c r="CA19" s="17">
+        <v>15</v>
+      </c>
+      <c r="CB19" s="17">
+        <v>5</v>
+      </c>
+      <c r="CC19" s="17">
+        <v>4</v>
+      </c>
+      <c r="CD19" s="17">
+        <v>4</v>
+      </c>
+      <c r="CE19" s="17">
+        <v>13</v>
+      </c>
+      <c r="CF19" s="17">
+        <v>4</v>
+      </c>
+      <c r="CG19" s="17">
+        <v>4</v>
+      </c>
+      <c r="CH19" s="17">
+        <v>4</v>
+      </c>
+      <c r="CI19" s="17">
+        <v>1</v>
+      </c>
+      <c r="CJ19" s="17">
+        <v>5</v>
+      </c>
+      <c r="CK19" s="17">
+        <v>6</v>
+      </c>
+      <c r="CL19" s="17">
+        <v>7</v>
+      </c>
+      <c r="CM19" s="17">
+        <v>8</v>
+      </c>
+      <c r="CN19" s="3">
+        <v>9</v>
+      </c>
+      <c r="CU19" s="6"/>
+      <c r="CV19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>2</v>
       </c>
@@ -6470,7 +8705,7 @@
       <c r="O20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="3">
         <v>1</v>
       </c>
       <c r="Q20" s="3">
@@ -6535,8 +8770,106 @@
       <c r="AV20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE20">
+        <v>2</v>
+      </c>
+      <c r="BF20" s="3">
+        <v>3</v>
+      </c>
+      <c r="BG20" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH20" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="37">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="37">
+        <v>2</v>
+      </c>
+      <c r="BR20" s="37">
+        <v>3</v>
+      </c>
+      <c r="BS20" s="3">
+        <v>4</v>
+      </c>
+      <c r="BT20" s="3">
+        <v>5</v>
+      </c>
+      <c r="BY20">
+        <v>2</v>
+      </c>
+      <c r="BZ20" s="17">
+        <v>24</v>
+      </c>
+      <c r="CA20" s="17">
+        <v>14</v>
+      </c>
+      <c r="CB20" s="17">
+        <v>4</v>
+      </c>
+      <c r="CC20" s="17">
+        <v>3</v>
+      </c>
+      <c r="CD20" s="17">
+        <v>3</v>
+      </c>
+      <c r="CE20" s="19"/>
+      <c r="CF20" s="17">
+        <v>3</v>
+      </c>
+      <c r="CG20" s="17">
+        <v>3</v>
+      </c>
+      <c r="CH20" s="17">
+        <v>3</v>
+      </c>
+      <c r="CI20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="17">
+        <v>4</v>
+      </c>
+      <c r="CK20" s="17">
+        <v>5</v>
+      </c>
+      <c r="CL20" s="17">
+        <v>6</v>
+      </c>
+      <c r="CM20" s="17">
+        <v>7</v>
+      </c>
+      <c r="CN20" s="3">
+        <v>8</v>
+      </c>
+      <c r="CU20" s="7"/>
+      <c r="CV20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E21">
         <v>3</v>
       </c>
@@ -6619,8 +8952,90 @@
       <c r="AV21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE21">
+        <v>3</v>
+      </c>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3">
+        <v>12</v>
+      </c>
+      <c r="BH21" s="3">
+        <v>11</v>
+      </c>
+      <c r="BI21" s="3">
+        <v>10</v>
+      </c>
+      <c r="BJ21" s="3">
+        <v>10</v>
+      </c>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
+      <c r="BP21" s="4"/>
+      <c r="BQ21" s="4"/>
+      <c r="BR21" s="3">
+        <v>13</v>
+      </c>
+      <c r="BS21" s="3">
+        <v>14</v>
+      </c>
+      <c r="BT21" s="3">
+        <v>15</v>
+      </c>
+      <c r="BY21">
+        <v>3</v>
+      </c>
+      <c r="BZ21" s="17">
+        <v>26</v>
+      </c>
+      <c r="CA21" s="17">
+        <v>6</v>
+      </c>
+      <c r="CB21" s="17">
+        <v>5</v>
+      </c>
+      <c r="CC21" s="17">
+        <v>4</v>
+      </c>
+      <c r="CD21" s="17">
+        <v>4</v>
+      </c>
+      <c r="CE21" s="19"/>
+      <c r="CF21" s="17">
+        <v>4</v>
+      </c>
+      <c r="CG21" s="17">
+        <v>4</v>
+      </c>
+      <c r="CH21" s="17">
+        <v>4</v>
+      </c>
+      <c r="CI21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="17">
+        <v>5</v>
+      </c>
+      <c r="CK21" s="17">
+        <v>6</v>
+      </c>
+      <c r="CL21" s="17">
+        <v>7</v>
+      </c>
+      <c r="CM21" s="17">
+        <v>8</v>
+      </c>
+      <c r="CN21" s="3">
+        <v>9</v>
+      </c>
+      <c r="CU21" s="8"/>
+      <c r="CV21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E22">
         <v>4</v>
       </c>
@@ -6647,7 +9062,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -6699,8 +9114,78 @@
       <c r="AV22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE22">
+        <v>4</v>
+      </c>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3">
+        <v>21</v>
+      </c>
+      <c r="BI22" s="3">
+        <v>20</v>
+      </c>
+      <c r="BJ22" s="3">
+        <v>20</v>
+      </c>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BY22">
+        <v>4</v>
+      </c>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="17">
+        <v>7</v>
+      </c>
+      <c r="CB22" s="17">
+        <v>6</v>
+      </c>
+      <c r="CC22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CD22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CE22" s="19"/>
+      <c r="CF22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CG22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CH22" s="17">
+        <v>5</v>
+      </c>
+      <c r="CI22" s="21">
+        <v>1</v>
+      </c>
+      <c r="CJ22" s="17">
+        <v>6</v>
+      </c>
+      <c r="CK22" s="17">
+        <v>7</v>
+      </c>
+      <c r="CL22" s="17">
+        <v>8</v>
+      </c>
+      <c r="CM22" s="17">
+        <v>9</v>
+      </c>
+      <c r="CN22" s="3"/>
+      <c r="CU22" s="9"/>
+      <c r="CV22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E23">
         <v>5</v>
       </c>
@@ -6773,8 +9258,72 @@
       <c r="AV23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE23">
+        <v>5</v>
+      </c>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3">
+        <v>30</v>
+      </c>
+      <c r="BJ23" s="3">
+        <v>30</v>
+      </c>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="3"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BY23">
+        <v>5</v>
+      </c>
+      <c r="BZ23" s="17"/>
+      <c r="CA23" s="17"/>
+      <c r="CB23" s="17">
+        <v>7</v>
+      </c>
+      <c r="CC23" s="17">
+        <v>6</v>
+      </c>
+      <c r="CD23" s="17">
+        <v>6</v>
+      </c>
+      <c r="CE23" s="19"/>
+      <c r="CF23" s="17">
+        <v>6</v>
+      </c>
+      <c r="CG23" s="17">
+        <v>6</v>
+      </c>
+      <c r="CH23" s="17">
+        <v>6</v>
+      </c>
+      <c r="CI23" s="21">
+        <v>2</v>
+      </c>
+      <c r="CJ23" s="17">
+        <v>7</v>
+      </c>
+      <c r="CK23" s="17">
+        <v>8</v>
+      </c>
+      <c r="CL23" s="17">
+        <v>9</v>
+      </c>
+      <c r="CM23" s="17"/>
+      <c r="CN23" s="3"/>
+      <c r="CU23" s="14"/>
+      <c r="CV23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E24">
         <v>6</v>
       </c>
@@ -6857,8 +9406,72 @@
       </c>
       <c r="AM24" s="17"/>
       <c r="AN24" s="3"/>
-    </row>
-    <row r="25" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE24">
+        <v>6</v>
+      </c>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3">
+        <v>7</v>
+      </c>
+      <c r="BO24" s="15">
+        <v>6</v>
+      </c>
+      <c r="BP24" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ24" s="15">
+        <v>8</v>
+      </c>
+      <c r="BR24" s="15">
+        <v>9</v>
+      </c>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BY24">
+        <v>6</v>
+      </c>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17">
+        <v>7</v>
+      </c>
+      <c r="CD24" s="17">
+        <v>7</v>
+      </c>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17">
+        <v>7</v>
+      </c>
+      <c r="CG24" s="17">
+        <v>7</v>
+      </c>
+      <c r="CH24" s="17">
+        <v>7</v>
+      </c>
+      <c r="CI24" s="21">
+        <v>3</v>
+      </c>
+      <c r="CJ24" s="17">
+        <v>8</v>
+      </c>
+      <c r="CK24" s="17">
+        <v>9</v>
+      </c>
+      <c r="CL24" s="17">
+        <v>10</v>
+      </c>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="3"/>
+    </row>
+    <row r="25" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>7</v>
       </c>
@@ -6927,8 +9540,52 @@
       <c r="AL25" s="17"/>
       <c r="AM25" s="17"/>
       <c r="AN25" s="3"/>
-    </row>
-    <row r="26" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE25">
+        <v>7</v>
+      </c>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BY25">
+        <v>7</v>
+      </c>
+      <c r="BZ25" s="17"/>
+      <c r="CA25" s="17"/>
+      <c r="CB25" s="17"/>
+      <c r="CC25" s="17"/>
+      <c r="CD25" s="17"/>
+      <c r="CE25" s="17"/>
+      <c r="CF25" s="17"/>
+      <c r="CG25" s="17"/>
+      <c r="CH25" s="17">
+        <v>8</v>
+      </c>
+      <c r="CI25" s="17">
+        <v>4</v>
+      </c>
+      <c r="CJ25" s="17">
+        <v>9</v>
+      </c>
+      <c r="CK25" s="17"/>
+      <c r="CL25" s="17"/>
+      <c r="CM25" s="17"/>
+      <c r="CN25" s="3"/>
+    </row>
+    <row r="26" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>8</v>
       </c>
@@ -6977,8 +9634,46 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-    </row>
-    <row r="27" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="BE26">
+        <v>8</v>
+      </c>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BY26">
+        <v>8</v>
+      </c>
+      <c r="BZ26" s="17"/>
+      <c r="CA26" s="17"/>
+      <c r="CB26" s="17"/>
+      <c r="CC26" s="17"/>
+      <c r="CD26" s="17"/>
+      <c r="CE26" s="17"/>
+      <c r="CF26" s="17"/>
+      <c r="CG26" s="17"/>
+      <c r="CH26" s="17"/>
+      <c r="CI26" s="17">
+        <v>5</v>
+      </c>
+      <c r="CJ26" s="17"/>
+      <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+    </row>
+    <row r="27" spans="5:100" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>9</v>
       </c>
@@ -7017,41 +9712,105 @@
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-    </row>
-    <row r="29" spans="5:48" x14ac:dyDescent="0.35">
-      <c r="H29" s="37" t="s">
+      <c r="BE27">
+        <v>9</v>
+      </c>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BY27">
+        <v>9</v>
+      </c>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
+      <c r="CD27" s="3"/>
+      <c r="CE27" s="3"/>
+      <c r="CF27" s="3"/>
+      <c r="CG27" s="3"/>
+      <c r="CH27" s="3"/>
+      <c r="CI27" s="3"/>
+      <c r="CJ27" s="3"/>
+      <c r="CK27" s="3"/>
+      <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
+      <c r="CN27" s="3"/>
+    </row>
+    <row r="29" spans="5:100" x14ac:dyDescent="0.35">
+      <c r="H29" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="AB29" s="37" t="s">
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="AB29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="BH29" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="CB29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC29" s="38"/>
+      <c r="CD29" s="38"/>
+      <c r="CE29" s="38"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="38"/>
+      <c r="CH29" s="38"/>
+      <c r="CI29" s="38"/>
+      <c r="CJ29" s="38"/>
+      <c r="CK29" s="38"/>
+      <c r="CL29" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="CB29:CL29"/>
     <mergeCell ref="H13:R13"/>
     <mergeCell ref="AB13:AL13"/>
     <mergeCell ref="H29:R29"/>
     <mergeCell ref="AB29:AL29"/>
+    <mergeCell ref="BH29:BR29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7060,10 +9819,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8280E2E-2032-431C-8333-DDD50922E52D}">
-  <dimension ref="B1:AN47"/>
+  <dimension ref="B1:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="53" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT41" sqref="AT41"/>
+    <sheetView topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7532,24 +10291,24 @@
       <c r="AD11" s="36"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="V13" s="37" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="V13" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C17">
@@ -8186,24 +10945,24 @@
       <c r="AD27" s="36"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="V29" s="37" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="V29" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="D30" s="5"/>
@@ -8644,24 +11403,24 @@
       <c r="AE44" s="36"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.35">
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="W46" s="37" t="s">
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="W46" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
     </row>
     <row r="47" spans="3:31" x14ac:dyDescent="0.35">
       <c r="E47" s="5"/>
@@ -8679,6 +11438,7 @@
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
     </row>
+    <row r="51" ht="24.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="W46:AC46"/>
@@ -8691,4 +11451,3361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EA9477-8BFD-4D07-81F4-3D7BAB562A1F}">
+  <dimension ref="C1:AK66"/>
+  <sheetViews>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:AG15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="37" max="37" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>12</v>
+      </c>
+      <c r="Q1">
+        <v>13</v>
+      </c>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+    </row>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23">
+        <v>15</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
+        <v>11</v>
+      </c>
+      <c r="I7" s="23">
+        <v>10</v>
+      </c>
+      <c r="J7" s="23">
+        <v>11</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23">
+        <v>7</v>
+      </c>
+      <c r="H8" s="23">
+        <v>6</v>
+      </c>
+      <c r="I8" s="23">
+        <v>5</v>
+      </c>
+      <c r="J8" s="23">
+        <v>6</v>
+      </c>
+      <c r="K8" s="23">
+        <v>7</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
+        <v>3</v>
+      </c>
+      <c r="G9" s="23">
+        <v>2</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44">
+        <v>1</v>
+      </c>
+      <c r="K9" s="44">
+        <v>2</v>
+      </c>
+      <c r="L9" s="44">
+        <v>3</v>
+      </c>
+      <c r="M9" s="44">
+        <v>4</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23">
+        <v>7</v>
+      </c>
+      <c r="H10" s="23">
+        <v>6</v>
+      </c>
+      <c r="I10" s="23">
+        <v>5</v>
+      </c>
+      <c r="J10" s="23">
+        <v>6</v>
+      </c>
+      <c r="K10" s="23">
+        <v>7</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
+        <v>11</v>
+      </c>
+      <c r="I11" s="23">
+        <v>10</v>
+      </c>
+      <c r="J11" s="23">
+        <v>11</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23">
+        <v>15</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="39"/>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="AK17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+      <c r="AK18">
+        <f>ABS(13-1)+ABS(1-13)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23">
+        <v>18</v>
+      </c>
+      <c r="E19" s="23">
+        <v>17</v>
+      </c>
+      <c r="F19" s="23">
+        <v>16</v>
+      </c>
+      <c r="G19" s="23">
+        <v>15</v>
+      </c>
+      <c r="H19" s="23">
+        <v>16</v>
+      </c>
+      <c r="I19" s="23">
+        <v>17</v>
+      </c>
+      <c r="J19" s="23">
+        <v>18</v>
+      </c>
+      <c r="K19" s="23">
+        <v>19</v>
+      </c>
+      <c r="L19" s="23">
+        <v>20</v>
+      </c>
+      <c r="M19" s="23">
+        <v>21</v>
+      </c>
+      <c r="N19" s="23">
+        <v>22</v>
+      </c>
+      <c r="O19" s="23">
+        <v>23</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="AK19">
+        <f>ABS(5-10)+ABS(7-7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="23">
+        <v>13</v>
+      </c>
+      <c r="E20" s="23">
+        <v>12</v>
+      </c>
+      <c r="F20" s="23">
+        <v>11</v>
+      </c>
+      <c r="G20" s="23">
+        <v>10</v>
+      </c>
+      <c r="H20" s="23">
+        <v>11</v>
+      </c>
+      <c r="I20" s="23">
+        <v>12</v>
+      </c>
+      <c r="J20" s="23">
+        <v>13</v>
+      </c>
+      <c r="K20" s="23">
+        <v>14</v>
+      </c>
+      <c r="L20" s="23">
+        <v>15</v>
+      </c>
+      <c r="M20" s="23">
+        <v>16</v>
+      </c>
+      <c r="N20" s="23">
+        <v>17</v>
+      </c>
+      <c r="O20" s="23">
+        <v>18</v>
+      </c>
+      <c r="P20" s="23">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f>ABS(3-9)+ABS(3-10)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="23">
+        <v>8</v>
+      </c>
+      <c r="E21" s="23">
+        <v>7</v>
+      </c>
+      <c r="F21" s="23">
+        <v>6</v>
+      </c>
+      <c r="G21" s="23">
+        <v>5</v>
+      </c>
+      <c r="H21" s="23">
+        <v>6</v>
+      </c>
+      <c r="I21" s="23">
+        <v>7</v>
+      </c>
+      <c r="J21" s="23">
+        <v>8</v>
+      </c>
+      <c r="K21" s="23">
+        <v>9</v>
+      </c>
+      <c r="L21" s="23">
+        <v>10</v>
+      </c>
+      <c r="M21" s="23">
+        <v>11</v>
+      </c>
+      <c r="N21" s="23">
+        <v>12</v>
+      </c>
+      <c r="O21" s="23">
+        <v>13</v>
+      </c>
+      <c r="P21" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>15</v>
+      </c>
+      <c r="AK21">
+        <f>ABS(12-6)+ABS(4-11)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="23">
+        <v>3</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="23">
+        <v>1</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
+      <c r="J22" s="23">
+        <v>3</v>
+      </c>
+      <c r="K22" s="23">
+        <v>4</v>
+      </c>
+      <c r="L22" s="23">
+        <v>5</v>
+      </c>
+      <c r="M22" s="23">
+        <v>6</v>
+      </c>
+      <c r="N22" s="23">
+        <v>7</v>
+      </c>
+      <c r="O22" s="23">
+        <v>8</v>
+      </c>
+      <c r="P22" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="23">
+        <v>7</v>
+      </c>
+      <c r="F23" s="23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="47">
+        <v>5</v>
+      </c>
+      <c r="H23" s="44">
+        <v>6</v>
+      </c>
+      <c r="I23" s="23">
+        <v>7</v>
+      </c>
+      <c r="J23" s="23">
+        <v>8</v>
+      </c>
+      <c r="K23" s="23">
+        <v>9</v>
+      </c>
+      <c r="L23" s="23">
+        <v>10</v>
+      </c>
+      <c r="M23" s="23">
+        <v>11</v>
+      </c>
+      <c r="N23" s="23">
+        <v>12</v>
+      </c>
+      <c r="O23" s="23">
+        <v>13</v>
+      </c>
+      <c r="P23" s="41">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="23">
+        <v>13</v>
+      </c>
+      <c r="E24" s="23">
+        <v>12</v>
+      </c>
+      <c r="F24" s="23">
+        <v>11</v>
+      </c>
+      <c r="G24" s="47">
+        <v>10</v>
+      </c>
+      <c r="H24" s="44">
+        <v>11</v>
+      </c>
+      <c r="I24" s="23">
+        <v>12</v>
+      </c>
+      <c r="J24" s="23">
+        <v>13</v>
+      </c>
+      <c r="K24" s="23">
+        <v>14</v>
+      </c>
+      <c r="L24" s="23">
+        <v>15</v>
+      </c>
+      <c r="M24" s="23">
+        <v>16</v>
+      </c>
+      <c r="N24" s="23">
+        <v>17</v>
+      </c>
+      <c r="O24" s="23">
+        <v>18</v>
+      </c>
+      <c r="P24" s="23">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="23">
+        <v>18</v>
+      </c>
+      <c r="E25" s="23">
+        <v>17</v>
+      </c>
+      <c r="F25" s="23">
+        <v>16</v>
+      </c>
+      <c r="G25" s="47">
+        <v>15</v>
+      </c>
+      <c r="H25" s="44">
+        <v>16</v>
+      </c>
+      <c r="I25" s="23">
+        <v>17</v>
+      </c>
+      <c r="J25" s="23">
+        <v>18</v>
+      </c>
+      <c r="K25" s="23">
+        <v>19</v>
+      </c>
+      <c r="L25" s="23">
+        <v>20</v>
+      </c>
+      <c r="M25" s="23">
+        <v>21</v>
+      </c>
+      <c r="N25" s="23">
+        <v>22</v>
+      </c>
+      <c r="O25" s="23">
+        <v>23</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="23">
+        <v>23</v>
+      </c>
+      <c r="E26" s="23">
+        <v>22</v>
+      </c>
+      <c r="F26" s="23">
+        <v>21</v>
+      </c>
+      <c r="G26" s="47">
+        <v>20</v>
+      </c>
+      <c r="H26" s="44">
+        <v>21</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+    </row>
+    <row r="27" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="23">
+        <v>28</v>
+      </c>
+      <c r="E27" s="23">
+        <v>27</v>
+      </c>
+      <c r="F27" s="23">
+        <v>26</v>
+      </c>
+      <c r="G27" s="47">
+        <v>25</v>
+      </c>
+      <c r="H27" s="44">
+        <v>26</v>
+      </c>
+      <c r="I27" s="44">
+        <v>31</v>
+      </c>
+      <c r="J27" s="44">
+        <v>32</v>
+      </c>
+      <c r="K27" s="44">
+        <v>33</v>
+      </c>
+      <c r="L27" s="44">
+        <v>34</v>
+      </c>
+      <c r="M27" s="44">
+        <v>35</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+    </row>
+    <row r="28" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="23">
+        <v>33</v>
+      </c>
+      <c r="E28" s="23">
+        <v>32</v>
+      </c>
+      <c r="F28" s="23">
+        <v>31</v>
+      </c>
+      <c r="G28" s="47">
+        <v>30</v>
+      </c>
+      <c r="H28" s="47">
+        <v>31</v>
+      </c>
+      <c r="I28" s="47">
+        <v>32</v>
+      </c>
+      <c r="J28" s="47">
+        <v>33</v>
+      </c>
+      <c r="K28" s="47">
+        <v>34</v>
+      </c>
+      <c r="L28" s="47">
+        <v>35</v>
+      </c>
+      <c r="M28" s="44">
+        <v>36</v>
+      </c>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" s="23">
+        <v>38</v>
+      </c>
+      <c r="E29" s="23">
+        <v>37</v>
+      </c>
+      <c r="F29" s="23">
+        <v>36</v>
+      </c>
+      <c r="G29" s="23">
+        <v>35</v>
+      </c>
+      <c r="H29" s="23">
+        <v>36</v>
+      </c>
+      <c r="I29" s="23">
+        <v>37</v>
+      </c>
+      <c r="J29" s="23">
+        <v>38</v>
+      </c>
+      <c r="K29" s="23">
+        <v>39</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+    </row>
+    <row r="30" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" s="23">
+        <v>43</v>
+      </c>
+      <c r="E30" s="23">
+        <v>42</v>
+      </c>
+      <c r="F30" s="23">
+        <v>41</v>
+      </c>
+      <c r="G30" s="23">
+        <v>40</v>
+      </c>
+      <c r="H30" s="23">
+        <v>41</v>
+      </c>
+      <c r="I30" s="23">
+        <v>42</v>
+      </c>
+      <c r="J30" s="41">
+        <v>43</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+    </row>
+    <row r="31" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" s="23">
+        <v>48</v>
+      </c>
+      <c r="E31" s="23">
+        <v>47</v>
+      </c>
+      <c r="F31" s="23">
+        <v>46</v>
+      </c>
+      <c r="G31" s="23">
+        <v>45</v>
+      </c>
+      <c r="H31" s="23">
+        <v>46</v>
+      </c>
+      <c r="I31" s="23">
+        <v>47</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+    </row>
+    <row r="32" spans="3:37" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>11</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23">
+        <v>29</v>
+      </c>
+      <c r="H36" s="23">
+        <v>28</v>
+      </c>
+      <c r="I36" s="23">
+        <v>27</v>
+      </c>
+      <c r="J36" s="23">
+        <v>26</v>
+      </c>
+      <c r="K36" s="23">
+        <v>25</v>
+      </c>
+      <c r="L36" s="23">
+        <v>24</v>
+      </c>
+      <c r="M36" s="23">
+        <v>23</v>
+      </c>
+      <c r="N36" s="23">
+        <v>22</v>
+      </c>
+      <c r="O36" s="23">
+        <v>21</v>
+      </c>
+      <c r="P36" s="23">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23">
+        <v>25</v>
+      </c>
+      <c r="G37" s="23">
+        <v>24</v>
+      </c>
+      <c r="H37" s="23">
+        <v>23</v>
+      </c>
+      <c r="I37" s="23">
+        <v>22</v>
+      </c>
+      <c r="J37" s="23">
+        <v>21</v>
+      </c>
+      <c r="K37" s="23">
+        <v>20</v>
+      </c>
+      <c r="L37" s="23">
+        <v>19</v>
+      </c>
+      <c r="M37" s="23">
+        <v>18</v>
+      </c>
+      <c r="N37" s="23">
+        <v>17</v>
+      </c>
+      <c r="O37" s="23">
+        <v>16</v>
+      </c>
+      <c r="P37" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23">
+        <v>21</v>
+      </c>
+      <c r="F38" s="23">
+        <v>20</v>
+      </c>
+      <c r="G38" s="23">
+        <v>19</v>
+      </c>
+      <c r="H38" s="23">
+        <v>18</v>
+      </c>
+      <c r="I38" s="23">
+        <v>17</v>
+      </c>
+      <c r="J38" s="23">
+        <v>16</v>
+      </c>
+      <c r="K38" s="23">
+        <v>15</v>
+      </c>
+      <c r="L38" s="23">
+        <v>14</v>
+      </c>
+      <c r="M38" s="23">
+        <v>13</v>
+      </c>
+      <c r="N38" s="23">
+        <v>12</v>
+      </c>
+      <c r="O38" s="23">
+        <v>11</v>
+      </c>
+      <c r="P38" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="23">
+        <v>12</v>
+      </c>
+      <c r="J39" s="23">
+        <v>11</v>
+      </c>
+      <c r="K39" s="23">
+        <v>10</v>
+      </c>
+      <c r="L39" s="23">
+        <v>9</v>
+      </c>
+      <c r="M39" s="23">
+        <v>8</v>
+      </c>
+      <c r="N39" s="23">
+        <v>7</v>
+      </c>
+      <c r="O39" s="23">
+        <v>6</v>
+      </c>
+      <c r="P39" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="23">
+        <v>7</v>
+      </c>
+      <c r="J40" s="23">
+        <v>6</v>
+      </c>
+      <c r="K40" s="23">
+        <v>5</v>
+      </c>
+      <c r="L40" s="23">
+        <v>4</v>
+      </c>
+      <c r="M40" s="23">
+        <v>3</v>
+      </c>
+      <c r="N40" s="23">
+        <v>2</v>
+      </c>
+      <c r="O40" s="44">
+        <v>1</v>
+      </c>
+      <c r="P40" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="23">
+        <v>12</v>
+      </c>
+      <c r="J41" s="23">
+        <v>11</v>
+      </c>
+      <c r="K41" s="23">
+        <v>10</v>
+      </c>
+      <c r="L41" s="23">
+        <v>9</v>
+      </c>
+      <c r="M41" s="23">
+        <v>8</v>
+      </c>
+      <c r="N41" s="23">
+        <v>7</v>
+      </c>
+      <c r="O41" s="44">
+        <v>6</v>
+      </c>
+      <c r="P41" s="47">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="23">
+        <v>17</v>
+      </c>
+      <c r="J42" s="23">
+        <v>16</v>
+      </c>
+      <c r="K42" s="23">
+        <v>15</v>
+      </c>
+      <c r="L42" s="23">
+        <v>14</v>
+      </c>
+      <c r="M42" s="23">
+        <v>13</v>
+      </c>
+      <c r="N42" s="23">
+        <v>12</v>
+      </c>
+      <c r="O42" s="44">
+        <v>11</v>
+      </c>
+      <c r="P42" s="47">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="44">
+        <v>16</v>
+      </c>
+      <c r="P43" s="47">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="44">
+        <v>22</v>
+      </c>
+      <c r="O44" s="44">
+        <v>21</v>
+      </c>
+      <c r="P44" s="47">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="44">
+        <v>27</v>
+      </c>
+      <c r="O45" s="23">
+        <v>26</v>
+      </c>
+      <c r="P45" s="47">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="44">
+        <v>32</v>
+      </c>
+      <c r="O46" s="23">
+        <v>31</v>
+      </c>
+      <c r="P46" s="47">
+        <v>30</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="44">
+        <v>40</v>
+      </c>
+      <c r="L47" s="44">
+        <v>39</v>
+      </c>
+      <c r="M47" s="44">
+        <v>38</v>
+      </c>
+      <c r="N47" s="44">
+        <v>37</v>
+      </c>
+      <c r="O47" s="47">
+        <v>36</v>
+      </c>
+      <c r="P47" s="47">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23">
+        <v>44</v>
+      </c>
+      <c r="M48" s="23">
+        <v>43</v>
+      </c>
+      <c r="N48" s="23">
+        <v>42</v>
+      </c>
+      <c r="O48" s="23">
+        <v>41</v>
+      </c>
+      <c r="P48" s="23">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23">
+        <v>48</v>
+      </c>
+      <c r="N49" s="23">
+        <v>47</v>
+      </c>
+      <c r="O49" s="23">
+        <v>46</v>
+      </c>
+      <c r="P49" s="23">
+        <v>45</v>
+      </c>
+      <c r="Q49" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>11</v>
+      </c>
+      <c r="P52">
+        <v>12</v>
+      </c>
+      <c r="Q52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="23">
+        <v>18</v>
+      </c>
+      <c r="E53" s="23">
+        <v>17</v>
+      </c>
+      <c r="F53" s="23">
+        <v>16</v>
+      </c>
+      <c r="G53" s="23">
+        <v>15</v>
+      </c>
+      <c r="H53" s="23">
+        <v>14</v>
+      </c>
+      <c r="I53" s="23">
+        <v>13</v>
+      </c>
+      <c r="J53" s="23">
+        <v>12</v>
+      </c>
+      <c r="K53" s="23">
+        <v>11</v>
+      </c>
+      <c r="L53" s="23">
+        <v>10</v>
+      </c>
+      <c r="M53" s="23">
+        <v>9</v>
+      </c>
+      <c r="N53" s="23">
+        <v>8</v>
+      </c>
+      <c r="O53" s="23">
+        <v>7</v>
+      </c>
+      <c r="P53" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="23">
+        <v>13</v>
+      </c>
+      <c r="E54" s="44">
+        <v>12</v>
+      </c>
+      <c r="F54" s="44">
+        <v>11</v>
+      </c>
+      <c r="G54" s="44">
+        <v>10</v>
+      </c>
+      <c r="H54" s="44">
+        <v>9</v>
+      </c>
+      <c r="I54" s="44">
+        <v>8</v>
+      </c>
+      <c r="J54" s="44">
+        <v>7</v>
+      </c>
+      <c r="K54" s="44">
+        <v>6</v>
+      </c>
+      <c r="L54" s="44">
+        <v>5</v>
+      </c>
+      <c r="M54" s="44">
+        <v>4</v>
+      </c>
+      <c r="N54" s="44">
+        <v>3</v>
+      </c>
+      <c r="O54" s="44">
+        <v>2</v>
+      </c>
+      <c r="P54" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="23">
+        <v>18</v>
+      </c>
+      <c r="E55" s="44">
+        <v>17</v>
+      </c>
+      <c r="F55" s="23">
+        <v>16</v>
+      </c>
+      <c r="G55" s="23">
+        <v>15</v>
+      </c>
+      <c r="H55" s="23">
+        <v>14</v>
+      </c>
+      <c r="I55" s="23">
+        <v>13</v>
+      </c>
+      <c r="J55" s="23">
+        <v>12</v>
+      </c>
+      <c r="K55" s="23">
+        <v>11</v>
+      </c>
+      <c r="L55" s="23">
+        <v>10</v>
+      </c>
+      <c r="M55" s="23">
+        <v>9</v>
+      </c>
+      <c r="N55" s="23">
+        <v>8</v>
+      </c>
+      <c r="O55" s="23">
+        <v>7</v>
+      </c>
+      <c r="P55" s="23">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="23">
+        <v>23</v>
+      </c>
+      <c r="E56" s="44">
+        <v>22</v>
+      </c>
+      <c r="F56" s="23">
+        <v>21</v>
+      </c>
+      <c r="G56" s="48"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="23">
+        <v>18</v>
+      </c>
+      <c r="J56" s="23">
+        <v>17</v>
+      </c>
+      <c r="K56" s="23">
+        <v>16</v>
+      </c>
+      <c r="L56" s="23">
+        <v>15</v>
+      </c>
+      <c r="M56" s="23">
+        <v>14</v>
+      </c>
+      <c r="N56" s="23">
+        <v>13</v>
+      </c>
+      <c r="O56" s="23">
+        <v>12</v>
+      </c>
+      <c r="P56" s="23">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="23">
+        <v>28</v>
+      </c>
+      <c r="E57" s="44">
+        <v>27</v>
+      </c>
+      <c r="F57" s="23">
+        <v>26</v>
+      </c>
+      <c r="G57" s="47">
+        <v>28</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="23">
+        <v>23</v>
+      </c>
+      <c r="J57" s="23">
+        <v>22</v>
+      </c>
+      <c r="K57" s="23">
+        <v>21</v>
+      </c>
+      <c r="L57" s="23">
+        <v>20</v>
+      </c>
+      <c r="M57" s="23">
+        <v>19</v>
+      </c>
+      <c r="N57" s="23">
+        <v>18</v>
+      </c>
+      <c r="O57" s="25"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" s="23">
+        <v>33</v>
+      </c>
+      <c r="E58" s="44">
+        <v>32</v>
+      </c>
+      <c r="F58" s="23">
+        <v>31</v>
+      </c>
+      <c r="G58" s="47">
+        <v>32</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="23">
+        <v>28</v>
+      </c>
+      <c r="J58" s="23">
+        <v>27</v>
+      </c>
+      <c r="K58" s="23">
+        <v>26</v>
+      </c>
+      <c r="L58" s="23">
+        <v>25</v>
+      </c>
+      <c r="M58" s="23">
+        <v>24</v>
+      </c>
+      <c r="N58" s="23">
+        <v>23</v>
+      </c>
+      <c r="O58" s="25"/>
+      <c r="P58" s="47">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" s="23">
+        <v>38</v>
+      </c>
+      <c r="E59" s="44">
+        <v>37</v>
+      </c>
+      <c r="F59" s="23">
+        <v>36</v>
+      </c>
+      <c r="G59" s="47">
+        <v>37</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="23">
+        <v>33</v>
+      </c>
+      <c r="J59" s="23">
+        <v>32</v>
+      </c>
+      <c r="K59" s="23">
+        <v>31</v>
+      </c>
+      <c r="L59" s="23">
+        <v>30</v>
+      </c>
+      <c r="M59" s="23">
+        <v>29</v>
+      </c>
+      <c r="N59" s="23">
+        <v>28</v>
+      </c>
+      <c r="O59" s="25"/>
+      <c r="P59" s="47">
+        <v>26</v>
+      </c>
+      <c r="Q59" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60" s="23">
+        <v>43</v>
+      </c>
+      <c r="E60" s="44">
+        <v>42</v>
+      </c>
+      <c r="F60" s="23">
+        <v>41</v>
+      </c>
+      <c r="G60" s="47">
+        <v>42</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="47">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" s="23">
+        <v>48</v>
+      </c>
+      <c r="E61" s="44">
+        <v>47</v>
+      </c>
+      <c r="F61" s="23">
+        <v>46</v>
+      </c>
+      <c r="G61" s="47">
+        <v>47</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="47">
+        <v>36</v>
+      </c>
+      <c r="Q61" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62" s="23">
+        <v>53</v>
+      </c>
+      <c r="E62" s="44">
+        <v>52</v>
+      </c>
+      <c r="F62" s="23">
+        <v>51</v>
+      </c>
+      <c r="G62" s="47">
+        <v>52</v>
+      </c>
+      <c r="H62" s="47">
+        <v>53</v>
+      </c>
+      <c r="I62" s="47">
+        <v>54</v>
+      </c>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="23">
+        <v>42</v>
+      </c>
+      <c r="P62" s="47">
+        <v>41</v>
+      </c>
+      <c r="Q62" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" s="23">
+        <v>58</v>
+      </c>
+      <c r="E63" s="44">
+        <v>57</v>
+      </c>
+      <c r="F63" s="23">
+        <v>56</v>
+      </c>
+      <c r="G63" s="23">
+        <v>57</v>
+      </c>
+      <c r="H63" s="23">
+        <v>58</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="23">
+        <v>47</v>
+      </c>
+      <c r="P63" s="47">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" s="23">
+        <v>59</v>
+      </c>
+      <c r="E64" s="44">
+        <v>58</v>
+      </c>
+      <c r="F64" s="23">
+        <v>61</v>
+      </c>
+      <c r="G64" s="23">
+        <v>58</v>
+      </c>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="47">
+        <v>52</v>
+      </c>
+      <c r="P64" s="47">
+        <v>51</v>
+      </c>
+      <c r="Q64" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="44">
+        <v>67</v>
+      </c>
+      <c r="F65" s="23">
+        <v>66</v>
+      </c>
+      <c r="G65" s="23">
+        <v>65</v>
+      </c>
+      <c r="H65" s="23">
+        <v>64</v>
+      </c>
+      <c r="I65" s="23">
+        <v>63</v>
+      </c>
+      <c r="J65" s="23">
+        <v>62</v>
+      </c>
+      <c r="K65" s="23">
+        <v>61</v>
+      </c>
+      <c r="L65" s="23">
+        <v>60</v>
+      </c>
+      <c r="M65" s="23">
+        <v>59</v>
+      </c>
+      <c r="N65" s="23">
+        <v>58</v>
+      </c>
+      <c r="O65" s="23">
+        <v>57</v>
+      </c>
+      <c r="P65" s="23">
+        <v>56</v>
+      </c>
+      <c r="Q65" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23">
+        <v>70</v>
+      </c>
+      <c r="H66" s="23">
+        <v>69</v>
+      </c>
+      <c r="I66" s="23">
+        <v>68</v>
+      </c>
+      <c r="J66" s="23">
+        <v>67</v>
+      </c>
+      <c r="K66" s="23">
+        <v>66</v>
+      </c>
+      <c r="L66" s="23">
+        <v>65</v>
+      </c>
+      <c r="M66" s="23">
+        <v>64</v>
+      </c>
+      <c r="N66" s="23">
+        <v>63</v>
+      </c>
+      <c r="O66" s="23">
+        <v>62</v>
+      </c>
+      <c r="P66" s="23">
+        <v>61</v>
+      </c>
+      <c r="Q66" s="23">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A1C67E-5A46-4B15-92F8-0C9429361B3D}">
+  <dimension ref="E1:AH11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="13" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>2</v>
+      </c>
+      <c r="U1">
+        <v>3</v>
+      </c>
+      <c r="V1">
+        <v>4</v>
+      </c>
+      <c r="W1">
+        <v>5</v>
+      </c>
+      <c r="X1">
+        <v>6</v>
+      </c>
+      <c r="Y1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12">
+        <v>22</v>
+      </c>
+      <c r="H2" s="12">
+        <v>23</v>
+      </c>
+      <c r="I2" s="12">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12">
+        <v>25</v>
+      </c>
+      <c r="L2" s="13">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1">
+        <v>107</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>11</v>
+      </c>
+      <c r="S2" s="3">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3">
+        <v>13</v>
+      </c>
+      <c r="U2" s="3">
+        <v>14</v>
+      </c>
+      <c r="V2" s="3">
+        <v>15</v>
+      </c>
+      <c r="W2" s="3">
+        <v>16</v>
+      </c>
+      <c r="X2" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3</v>
+      </c>
+      <c r="J3" s="56">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="12">
+        <v>10</v>
+      </c>
+      <c r="S3" s="12">
+        <v>11</v>
+      </c>
+      <c r="T3" s="12">
+        <v>12</v>
+      </c>
+      <c r="U3" s="12">
+        <v>13</v>
+      </c>
+      <c r="V3" s="56">
+        <v>14</v>
+      </c>
+      <c r="W3" s="12">
+        <v>15</v>
+      </c>
+      <c r="X3" s="55">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="55">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="12">
+        <v>25</v>
+      </c>
+      <c r="K4" s="12">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1">
+        <v>106</v>
+      </c>
+      <c r="M4" s="1">
+        <v>107</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="15">
+        <v>15</v>
+      </c>
+      <c r="W4" s="3">
+        <v>16</v>
+      </c>
+      <c r="X4" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>206</v>
+      </c>
+      <c r="I5" s="15">
+        <v>205</v>
+      </c>
+      <c r="J5" s="56">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3">
+        <v>205</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1"/>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="56">
+        <v>16</v>
+      </c>
+      <c r="W5" s="3">
+        <v>17</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>305</v>
+      </c>
+      <c r="J6" s="3">
+        <v>304</v>
+      </c>
+      <c r="K6" s="3">
+        <v>305</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="3">
+        <v>17</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>404</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="11" spans="5:34" x14ac:dyDescent="0.35">
+      <c r="G11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="5"/>
+      <c r="S11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="S11:X11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD475B01-DDF3-44E7-B6D5-60EFA1CF5C39}">
+  <dimension ref="C1:AQ13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK19" sqref="AK19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>6</v>
+      </c>
+      <c r="AC2">
+        <v>7</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>9</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="5"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="60">
+        <v>10</v>
+      </c>
+      <c r="W3" s="60">
+        <v>11</v>
+      </c>
+      <c r="X3" s="60">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="60">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="60">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="60">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="60">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="60">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="60">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="60">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="60">
+        <v>20</v>
+      </c>
+      <c r="AM3" s="5"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>11</v>
+      </c>
+      <c r="K4" s="3">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3">
+        <v>13</v>
+      </c>
+      <c r="M4" s="3">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3">
+        <v>15</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>11</v>
+      </c>
+      <c r="W4" s="3">
+        <v>12</v>
+      </c>
+      <c r="X4" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>17</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AM4" s="5"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>12</v>
+      </c>
+      <c r="W5" s="3">
+        <v>13</v>
+      </c>
+      <c r="X5" s="3">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="5"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>13</v>
+      </c>
+      <c r="W6" s="3">
+        <v>14</v>
+      </c>
+      <c r="X6" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>22</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>23</v>
+      </c>
+      <c r="AM6" s="5"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3">
+        <v>28</v>
+      </c>
+      <c r="M7" s="3">
+        <v>29</v>
+      </c>
+      <c r="N7" s="3">
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7" s="3">
+        <v>14</v>
+      </c>
+      <c r="W7" s="3">
+        <v>15</v>
+      </c>
+      <c r="X7" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3">
+        <v>29</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8" s="3">
+        <v>15</v>
+      </c>
+      <c r="W8" s="3">
+        <v>16</v>
+      </c>
+      <c r="X8" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
+    </row>
+    <row r="9" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="60">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9" s="60">
+        <v>16</v>
+      </c>
+      <c r="W9" s="3">
+        <v>17</v>
+      </c>
+      <c r="X9" s="3">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+    </row>
+    <row r="10" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="60">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
+        <v>31</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10" s="60">
+        <v>17</v>
+      </c>
+      <c r="W10" s="3">
+        <v>18</v>
+      </c>
+      <c r="X10" s="3">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+    </row>
+    <row r="11" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="60">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3">
+        <v>32</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="3"/>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11" s="3">
+        <v>18</v>
+      </c>
+      <c r="W11" s="3">
+        <v>19</v>
+      </c>
+      <c r="X11" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="E13" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="W13" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="W13:AD13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB49713B-288F-4EA2-851B-AB36E90C81FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Validation/Validation Outputs.xlsx
+++ b/Validation/Validation Outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkasa\OneDrive\Desktop\Fall 2024\DD2\Maze-Router\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D767A-EF28-42BD-869F-C82503FA7D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92228BE-522A-4941-8BA0-77C91E738A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{A893F839-63D9-41AE-8AF0-88D786FCA642}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{A893F839-63D9-41AE-8AF0-88D786FCA642}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="4" r:id="rId1"/>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -379,19 +379,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,9 +403,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,16 +413,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,8 +427,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7436,22 +7421,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="11" spans="5:34" x14ac:dyDescent="0.35">
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="5"/>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7827,7 +7812,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="71">
+      <c r="K8" s="65">
         <v>18</v>
       </c>
       <c r="L8" s="11" t="s">
@@ -7844,7 +7829,7 @@
       <c r="V8" s="1">
         <v>16</v>
       </c>
-      <c r="W8" s="71">
+      <c r="W8" s="65">
         <v>13</v>
       </c>
       <c r="X8" s="1">
@@ -7885,22 +7870,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="11" spans="5:34" x14ac:dyDescent="0.35">
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="5"/>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7914,7 +7899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80DFBE-79B2-44E0-907B-435B62526B72}">
-  <dimension ref="E1:DA35"/>
+  <dimension ref="E1:CN29"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AU8" sqref="AU8:AV8"/>
@@ -7927,7 +7912,7 @@
     <col min="38" max="38" width="3.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:48" x14ac:dyDescent="0.35">
       <c r="F1">
         <v>0</v>
       </c>
@@ -8019,7 +8004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>0</v>
       </c>
@@ -8087,7 +8072,7 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
     </row>
-    <row r="3" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="3" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E3">
         <v>1</v>
       </c>
@@ -8165,7 +8150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E4">
         <v>2</v>
       </c>
@@ -8234,7 +8219,7 @@
       <c r="AH4" s="17">
         <v>8</v>
       </c>
-      <c r="AI4" s="73">
+      <c r="AI4" s="66">
         <v>9</v>
       </c>
       <c r="AJ4" s="16"/>
@@ -8247,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E5">
         <v>3</v>
       </c>
@@ -8315,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E6">
         <v>4</v>
       </c>
@@ -8379,7 +8364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E7">
         <v>5</v>
       </c>
@@ -8439,7 +8424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E8">
         <v>6</v>
       </c>
@@ -8497,7 +8482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>7</v>
       </c>
@@ -8545,7 +8530,7 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>8</v>
       </c>
@@ -8583,7 +8568,7 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="5:105" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:48" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>9</v>
       </c>
@@ -8621,124 +8606,35 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
     </row>
-    <row r="13" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="H13" s="52" t="s">
+    <row r="13" spans="5:48" x14ac:dyDescent="0.35">
+      <c r="H13" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="AB13" s="52" t="s">
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="AB13" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-    </row>
-    <row r="14" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-      <c r="BB14" s="72"/>
-      <c r="BC14" s="72"/>
-    </row>
-    <row r="15" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="72"/>
-      <c r="BC15" s="72"/>
-    </row>
-    <row r="16" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="67"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="67"/>
-      <c r="BH16" s="67"/>
-      <c r="BI16" s="67"/>
-      <c r="BJ16" s="67"/>
-      <c r="BK16" s="67"/>
-      <c r="BL16" s="67"/>
-      <c r="BM16" s="67"/>
-      <c r="BN16" s="67"/>
-      <c r="BO16" s="67"/>
-      <c r="BP16" s="67"/>
-      <c r="BQ16" s="67"/>
-      <c r="BR16" s="67"/>
-      <c r="BS16" s="67"/>
-      <c r="BT16" s="67"/>
-      <c r="BU16" s="67"/>
-      <c r="BV16" s="67"/>
-      <c r="BW16" s="67"/>
-      <c r="BX16" s="67"/>
-      <c r="BY16" s="67"/>
-      <c r="BZ16" s="67"/>
-      <c r="CA16" s="67"/>
-      <c r="CB16" s="67"/>
-      <c r="CC16" s="67"/>
-      <c r="CD16" s="67"/>
-      <c r="CE16" s="67"/>
-      <c r="CF16" s="67"/>
-      <c r="CG16" s="67"/>
-      <c r="CH16" s="67"/>
-      <c r="CI16" s="67"/>
-      <c r="CJ16" s="67"/>
-      <c r="CK16" s="67"/>
-      <c r="CL16" s="67"/>
-      <c r="CM16" s="67"/>
-      <c r="CN16" s="67"/>
-      <c r="CO16" s="67"/>
-      <c r="CP16" s="67"/>
-      <c r="CQ16" s="67"/>
-      <c r="CR16" s="67"/>
-      <c r="CS16" s="67"/>
-      <c r="CT16" s="67"/>
-      <c r="CU16" s="67"/>
-      <c r="CV16" s="67"/>
-      <c r="CW16" s="67"/>
-      <c r="CX16" s="67"/>
-      <c r="CY16" s="67"/>
-      <c r="CZ16" s="67"/>
-      <c r="DA16" s="67"/>
-    </row>
-    <row r="17" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+    </row>
+    <row r="17" spans="5:92" x14ac:dyDescent="0.35">
       <c r="F17">
         <v>0</v>
       </c>
@@ -8829,69 +8725,8 @@
       <c r="AN17">
         <v>14</v>
       </c>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="72"/>
-      <c r="BA17" s="72"/>
-      <c r="BB17" s="72"/>
-      <c r="BC17" s="72"/>
-      <c r="BD17" s="67"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="67"/>
-      <c r="BG17" s="67"/>
-      <c r="BH17" s="67"/>
-      <c r="BI17" s="67"/>
-      <c r="BJ17" s="67"/>
-      <c r="BK17" s="67"/>
-      <c r="BL17" s="67"/>
-      <c r="BM17" s="67"/>
-      <c r="BN17" s="67"/>
-      <c r="BO17" s="67"/>
-      <c r="BP17" s="67"/>
-      <c r="BQ17" s="67"/>
-      <c r="BR17" s="67"/>
-      <c r="BS17" s="67"/>
-      <c r="BT17" s="67"/>
-      <c r="BU17" s="67"/>
-      <c r="BV17" s="67"/>
-      <c r="BW17" s="67"/>
-      <c r="BX17" s="67"/>
-      <c r="BY17" s="67"/>
-      <c r="BZ17" s="67"/>
-      <c r="CA17" s="67"/>
-      <c r="CB17" s="67"/>
-      <c r="CC17" s="67"/>
-      <c r="CD17" s="67"/>
-      <c r="CE17" s="67"/>
-      <c r="CF17" s="67"/>
-      <c r="CG17" s="67"/>
-      <c r="CH17" s="67"/>
-      <c r="CI17" s="67"/>
-      <c r="CJ17" s="67"/>
-      <c r="CK17" s="67"/>
-      <c r="CL17" s="67"/>
-      <c r="CM17" s="67"/>
-      <c r="CN17" s="67"/>
-      <c r="CO17" s="67"/>
-      <c r="CP17" s="67"/>
-      <c r="CQ17" s="67"/>
-      <c r="CR17" s="67"/>
-      <c r="CS17" s="67"/>
-      <c r="CT17" s="67"/>
-      <c r="CU17" s="67"/>
-      <c r="CV17" s="67"/>
-      <c r="CW17" s="67"/>
-      <c r="CX17" s="67"/>
-      <c r="CY17" s="67"/>
-      <c r="CZ17" s="67"/>
-      <c r="DA17" s="67"/>
-    </row>
-    <row r="18" spans="5:105" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>0</v>
       </c>
@@ -8986,69 +8821,38 @@
         <v>8</v>
       </c>
       <c r="AN18" s="3"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="72"/>
-      <c r="BC18" s="72"/>
-      <c r="BD18" s="67"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
-      <c r="BP18" s="68"/>
-      <c r="BQ18" s="68"/>
-      <c r="BR18" s="68"/>
-      <c r="BS18" s="68"/>
-      <c r="BT18" s="68"/>
-      <c r="BU18" s="67"/>
-      <c r="BV18" s="67"/>
-      <c r="BW18" s="67"/>
-      <c r="BX18" s="67"/>
-      <c r="BY18" s="67"/>
-      <c r="BZ18" s="69"/>
-      <c r="CA18" s="69"/>
-      <c r="CB18" s="69"/>
-      <c r="CC18" s="69"/>
-      <c r="CD18" s="69"/>
-      <c r="CE18" s="69"/>
-      <c r="CF18" s="69"/>
-      <c r="CG18" s="69"/>
-      <c r="CH18" s="69"/>
-      <c r="CI18" s="69"/>
-      <c r="CJ18" s="69"/>
-      <c r="CK18" s="69"/>
-      <c r="CL18" s="69"/>
-      <c r="CM18" s="69"/>
-      <c r="CN18" s="68"/>
-      <c r="CO18" s="67"/>
-      <c r="CP18" s="67"/>
-      <c r="CQ18" s="67"/>
-      <c r="CR18" s="67"/>
-      <c r="CS18" s="67"/>
-      <c r="CT18" s="67"/>
-      <c r="CU18" s="67"/>
-      <c r="CV18" s="67"/>
-      <c r="CW18" s="67"/>
-      <c r="CX18" s="67"/>
-      <c r="CY18" s="67"/>
-      <c r="CZ18" s="67"/>
-      <c r="DA18" s="67"/>
-    </row>
-    <row r="19" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BZ18" s="64"/>
+      <c r="CA18" s="64"/>
+      <c r="CB18" s="64"/>
+      <c r="CC18" s="64"/>
+      <c r="CD18" s="64"/>
+      <c r="CE18" s="64"/>
+      <c r="CF18" s="64"/>
+      <c r="CG18" s="64"/>
+      <c r="CH18" s="64"/>
+      <c r="CI18" s="64"/>
+      <c r="CJ18" s="64"/>
+      <c r="CK18" s="64"/>
+      <c r="CL18" s="64"/>
+      <c r="CM18" s="64"/>
+      <c r="CN18" s="5"/>
+    </row>
+    <row r="19" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>1</v>
       </c>
@@ -9145,69 +8949,38 @@
       <c r="AN19" s="3">
         <v>8</v>
       </c>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="72"/>
-      <c r="BA19" s="72"/>
-      <c r="BB19" s="72"/>
-      <c r="BC19" s="72"/>
-      <c r="BD19" s="67"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
-      <c r="BP19" s="68"/>
-      <c r="BQ19" s="68"/>
-      <c r="BR19" s="68"/>
-      <c r="BS19" s="68"/>
-      <c r="BT19" s="68"/>
-      <c r="BU19" s="67"/>
-      <c r="BV19" s="67"/>
-      <c r="BW19" s="67"/>
-      <c r="BX19" s="67"/>
-      <c r="BY19" s="67"/>
-      <c r="BZ19" s="69"/>
-      <c r="CA19" s="69"/>
-      <c r="CB19" s="69"/>
-      <c r="CC19" s="69"/>
-      <c r="CD19" s="69"/>
-      <c r="CE19" s="69"/>
-      <c r="CF19" s="69"/>
-      <c r="CG19" s="69"/>
-      <c r="CH19" s="69"/>
-      <c r="CI19" s="69"/>
-      <c r="CJ19" s="69"/>
-      <c r="CK19" s="69"/>
-      <c r="CL19" s="69"/>
-      <c r="CM19" s="69"/>
-      <c r="CN19" s="68"/>
-      <c r="CO19" s="67"/>
-      <c r="CP19" s="67"/>
-      <c r="CQ19" s="67"/>
-      <c r="CR19" s="67"/>
-      <c r="CS19" s="67"/>
-      <c r="CT19" s="67"/>
-      <c r="CU19" s="67"/>
-      <c r="CV19" s="67"/>
-      <c r="CW19" s="67"/>
-      <c r="CX19" s="67"/>
-      <c r="CY19" s="67"/>
-      <c r="CZ19" s="67"/>
-      <c r="DA19" s="67"/>
-    </row>
-    <row r="20" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
+      <c r="BO19" s="5"/>
+      <c r="BP19" s="5"/>
+      <c r="BQ19" s="5"/>
+      <c r="BR19" s="5"/>
+      <c r="BS19" s="5"/>
+      <c r="BT19" s="5"/>
+      <c r="BZ19" s="64"/>
+      <c r="CA19" s="64"/>
+      <c r="CB19" s="64"/>
+      <c r="CC19" s="64"/>
+      <c r="CD19" s="64"/>
+      <c r="CE19" s="64"/>
+      <c r="CF19" s="64"/>
+      <c r="CG19" s="64"/>
+      <c r="CH19" s="64"/>
+      <c r="CI19" s="64"/>
+      <c r="CJ19" s="64"/>
+      <c r="CK19" s="64"/>
+      <c r="CL19" s="64"/>
+      <c r="CM19" s="64"/>
+      <c r="CN19" s="5"/>
+    </row>
+    <row r="20" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>2</v>
       </c>
@@ -9302,69 +9075,38 @@
       <c r="AN20" s="12">
         <v>7</v>
       </c>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="72"/>
-      <c r="BA20" s="72"/>
-      <c r="BB20" s="72"/>
-      <c r="BC20" s="72"/>
-      <c r="BD20" s="67"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
-      <c r="BO20" s="68"/>
-      <c r="BP20" s="68"/>
-      <c r="BQ20" s="68"/>
-      <c r="BR20" s="68"/>
-      <c r="BS20" s="68"/>
-      <c r="BT20" s="68"/>
-      <c r="BU20" s="67"/>
-      <c r="BV20" s="67"/>
-      <c r="BW20" s="67"/>
-      <c r="BX20" s="67"/>
-      <c r="BY20" s="67"/>
-      <c r="BZ20" s="69"/>
-      <c r="CA20" s="69"/>
-      <c r="CB20" s="69"/>
-      <c r="CC20" s="69"/>
-      <c r="CD20" s="69"/>
-      <c r="CE20" s="69"/>
-      <c r="CF20" s="69"/>
-      <c r="CG20" s="69"/>
-      <c r="CH20" s="69"/>
-      <c r="CI20" s="69"/>
-      <c r="CJ20" s="69"/>
-      <c r="CK20" s="69"/>
-      <c r="CL20" s="69"/>
-      <c r="CM20" s="69"/>
-      <c r="CN20" s="68"/>
-      <c r="CO20" s="67"/>
-      <c r="CP20" s="67"/>
-      <c r="CQ20" s="67"/>
-      <c r="CR20" s="67"/>
-      <c r="CS20" s="67"/>
-      <c r="CT20" s="67"/>
-      <c r="CU20" s="67"/>
-      <c r="CV20" s="67"/>
-      <c r="CW20" s="67"/>
-      <c r="CX20" s="67"/>
-      <c r="CY20" s="67"/>
-      <c r="CZ20" s="67"/>
-      <c r="DA20" s="67"/>
-    </row>
-    <row r="21" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BZ20" s="64"/>
+      <c r="CA20" s="64"/>
+      <c r="CB20" s="64"/>
+      <c r="CC20" s="64"/>
+      <c r="CD20" s="64"/>
+      <c r="CE20" s="64"/>
+      <c r="CF20" s="64"/>
+      <c r="CG20" s="64"/>
+      <c r="CH20" s="64"/>
+      <c r="CI20" s="64"/>
+      <c r="CJ20" s="64"/>
+      <c r="CK20" s="64"/>
+      <c r="CL20" s="64"/>
+      <c r="CM20" s="64"/>
+      <c r="CN20" s="5"/>
+    </row>
+    <row r="21" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E21">
         <v>3</v>
       </c>
@@ -9443,69 +9185,38 @@
       <c r="AN21" s="3">
         <v>8</v>
       </c>
-      <c r="AS21" s="72"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="72"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="72"/>
-      <c r="AY21" s="72"/>
-      <c r="AZ21" s="72"/>
-      <c r="BA21" s="72"/>
-      <c r="BB21" s="72"/>
-      <c r="BC21" s="72"/>
-      <c r="BD21" s="67"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
-      <c r="BP21" s="68"/>
-      <c r="BQ21" s="68"/>
-      <c r="BR21" s="68"/>
-      <c r="BS21" s="68"/>
-      <c r="BT21" s="68"/>
-      <c r="BU21" s="67"/>
-      <c r="BV21" s="67"/>
-      <c r="BW21" s="67"/>
-      <c r="BX21" s="67"/>
-      <c r="BY21" s="67"/>
-      <c r="BZ21" s="69"/>
-      <c r="CA21" s="69"/>
-      <c r="CB21" s="69"/>
-      <c r="CC21" s="69"/>
-      <c r="CD21" s="69"/>
-      <c r="CE21" s="69"/>
-      <c r="CF21" s="69"/>
-      <c r="CG21" s="69"/>
-      <c r="CH21" s="69"/>
-      <c r="CI21" s="69"/>
-      <c r="CJ21" s="69"/>
-      <c r="CK21" s="69"/>
-      <c r="CL21" s="69"/>
-      <c r="CM21" s="69"/>
-      <c r="CN21" s="68"/>
-      <c r="CO21" s="67"/>
-      <c r="CP21" s="67"/>
-      <c r="CQ21" s="67"/>
-      <c r="CR21" s="67"/>
-      <c r="CS21" s="67"/>
-      <c r="CT21" s="67"/>
-      <c r="CU21" s="67"/>
-      <c r="CV21" s="67"/>
-      <c r="CW21" s="67"/>
-      <c r="CX21" s="67"/>
-      <c r="CY21" s="67"/>
-      <c r="CZ21" s="67"/>
-      <c r="DA21" s="67"/>
-    </row>
-    <row r="22" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BZ21" s="64"/>
+      <c r="CA21" s="64"/>
+      <c r="CB21" s="64"/>
+      <c r="CC21" s="64"/>
+      <c r="CD21" s="64"/>
+      <c r="CE21" s="64"/>
+      <c r="CF21" s="64"/>
+      <c r="CG21" s="64"/>
+      <c r="CH21" s="64"/>
+      <c r="CI21" s="64"/>
+      <c r="CJ21" s="64"/>
+      <c r="CK21" s="64"/>
+      <c r="CL21" s="64"/>
+      <c r="CM21" s="64"/>
+      <c r="CN21" s="5"/>
+    </row>
+    <row r="22" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E22">
         <v>4</v>
       </c>
@@ -9580,69 +9291,38 @@
         <v>8</v>
       </c>
       <c r="AN22" s="3"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="72"/>
-      <c r="BA22" s="72"/>
-      <c r="BB22" s="72"/>
-      <c r="BC22" s="72"/>
-      <c r="BD22" s="67"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
-      <c r="BO22" s="68"/>
-      <c r="BP22" s="68"/>
-      <c r="BQ22" s="68"/>
-      <c r="BR22" s="68"/>
-      <c r="BS22" s="68"/>
-      <c r="BT22" s="68"/>
-      <c r="BU22" s="67"/>
-      <c r="BV22" s="67"/>
-      <c r="BW22" s="67"/>
-      <c r="BX22" s="67"/>
-      <c r="BY22" s="67"/>
-      <c r="BZ22" s="69"/>
-      <c r="CA22" s="69"/>
-      <c r="CB22" s="69"/>
-      <c r="CC22" s="69"/>
-      <c r="CD22" s="69"/>
-      <c r="CE22" s="69"/>
-      <c r="CF22" s="69"/>
-      <c r="CG22" s="69"/>
-      <c r="CH22" s="69"/>
-      <c r="CI22" s="69"/>
-      <c r="CJ22" s="69"/>
-      <c r="CK22" s="69"/>
-      <c r="CL22" s="69"/>
-      <c r="CM22" s="69"/>
-      <c r="CN22" s="68"/>
-      <c r="CO22" s="67"/>
-      <c r="CP22" s="67"/>
-      <c r="CQ22" s="67"/>
-      <c r="CR22" s="67"/>
-      <c r="CS22" s="67"/>
-      <c r="CT22" s="67"/>
-      <c r="CU22" s="67"/>
-      <c r="CV22" s="67"/>
-      <c r="CW22" s="67"/>
-      <c r="CX22" s="67"/>
-      <c r="CY22" s="67"/>
-      <c r="CZ22" s="67"/>
-      <c r="DA22" s="67"/>
-    </row>
-    <row r="23" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BZ22" s="64"/>
+      <c r="CA22" s="64"/>
+      <c r="CB22" s="64"/>
+      <c r="CC22" s="64"/>
+      <c r="CD22" s="64"/>
+      <c r="CE22" s="64"/>
+      <c r="CF22" s="64"/>
+      <c r="CG22" s="64"/>
+      <c r="CH22" s="64"/>
+      <c r="CI22" s="64"/>
+      <c r="CJ22" s="64"/>
+      <c r="CK22" s="64"/>
+      <c r="CL22" s="64"/>
+      <c r="CM22" s="64"/>
+      <c r="CN22" s="5"/>
+    </row>
+    <row r="23" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E23">
         <v>5</v>
       </c>
@@ -9711,69 +9391,38 @@
       </c>
       <c r="AM23" s="16"/>
       <c r="AN23" s="3"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="72"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="72"/>
-      <c r="BA23" s="72"/>
-      <c r="BB23" s="72"/>
-      <c r="BC23" s="72"/>
-      <c r="BD23" s="67"/>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="68"/>
-      <c r="BJ23" s="68"/>
-      <c r="BK23" s="68"/>
-      <c r="BL23" s="68"/>
-      <c r="BM23" s="68"/>
-      <c r="BN23" s="68"/>
-      <c r="BO23" s="68"/>
-      <c r="BP23" s="68"/>
-      <c r="BQ23" s="68"/>
-      <c r="BR23" s="68"/>
-      <c r="BS23" s="68"/>
-      <c r="BT23" s="68"/>
-      <c r="BU23" s="67"/>
-      <c r="BV23" s="67"/>
-      <c r="BW23" s="67"/>
-      <c r="BX23" s="67"/>
-      <c r="BY23" s="67"/>
-      <c r="BZ23" s="69"/>
-      <c r="CA23" s="69"/>
-      <c r="CB23" s="69"/>
-      <c r="CC23" s="69"/>
-      <c r="CD23" s="69"/>
-      <c r="CE23" s="69"/>
-      <c r="CF23" s="69"/>
-      <c r="CG23" s="69"/>
-      <c r="CH23" s="69"/>
-      <c r="CI23" s="69"/>
-      <c r="CJ23" s="69"/>
-      <c r="CK23" s="69"/>
-      <c r="CL23" s="69"/>
-      <c r="CM23" s="69"/>
-      <c r="CN23" s="68"/>
-      <c r="CO23" s="67"/>
-      <c r="CP23" s="67"/>
-      <c r="CQ23" s="67"/>
-      <c r="CR23" s="67"/>
-      <c r="CS23" s="67"/>
-      <c r="CT23" s="67"/>
-      <c r="CU23" s="67"/>
-      <c r="CV23" s="67"/>
-      <c r="CW23" s="67"/>
-      <c r="CX23" s="67"/>
-      <c r="CY23" s="67"/>
-      <c r="CZ23" s="67"/>
-      <c r="DA23" s="67"/>
-    </row>
-    <row r="24" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BZ23" s="64"/>
+      <c r="CA23" s="64"/>
+      <c r="CB23" s="64"/>
+      <c r="CC23" s="64"/>
+      <c r="CD23" s="64"/>
+      <c r="CE23" s="64"/>
+      <c r="CF23" s="64"/>
+      <c r="CG23" s="64"/>
+      <c r="CH23" s="64"/>
+      <c r="CI23" s="64"/>
+      <c r="CJ23" s="64"/>
+      <c r="CK23" s="64"/>
+      <c r="CL23" s="64"/>
+      <c r="CM23" s="64"/>
+      <c r="CN23" s="5"/>
+    </row>
+    <row r="24" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E24">
         <v>6</v>
       </c>
@@ -9842,7 +9491,7 @@
       <c r="AH24" s="16">
         <v>13</v>
       </c>
-      <c r="AI24" s="73">
+      <c r="AI24" s="66">
         <v>3</v>
       </c>
       <c r="AJ24" s="16">
@@ -9856,69 +9505,38 @@
       </c>
       <c r="AM24" s="16"/>
       <c r="AN24" s="3"/>
-      <c r="AS24" s="72"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="72"/>
-      <c r="AY24" s="72"/>
-      <c r="AZ24" s="72"/>
-      <c r="BA24" s="72"/>
-      <c r="BB24" s="72"/>
-      <c r="BC24" s="72"/>
-      <c r="BD24" s="67"/>
-      <c r="BE24" s="67"/>
-      <c r="BF24" s="68"/>
-      <c r="BG24" s="68"/>
-      <c r="BH24" s="68"/>
-      <c r="BI24" s="68"/>
-      <c r="BJ24" s="68"/>
-      <c r="BK24" s="68"/>
-      <c r="BL24" s="68"/>
-      <c r="BM24" s="68"/>
-      <c r="BN24" s="68"/>
-      <c r="BO24" s="68"/>
-      <c r="BP24" s="68"/>
-      <c r="BQ24" s="68"/>
-      <c r="BR24" s="68"/>
-      <c r="BS24" s="68"/>
-      <c r="BT24" s="68"/>
-      <c r="BU24" s="67"/>
-      <c r="BV24" s="67"/>
-      <c r="BW24" s="67"/>
-      <c r="BX24" s="67"/>
-      <c r="BY24" s="67"/>
-      <c r="BZ24" s="69"/>
-      <c r="CA24" s="69"/>
-      <c r="CB24" s="69"/>
-      <c r="CC24" s="69"/>
-      <c r="CD24" s="69"/>
-      <c r="CE24" s="69"/>
-      <c r="CF24" s="69"/>
-      <c r="CG24" s="69"/>
-      <c r="CH24" s="69"/>
-      <c r="CI24" s="69"/>
-      <c r="CJ24" s="69"/>
-      <c r="CK24" s="69"/>
-      <c r="CL24" s="69"/>
-      <c r="CM24" s="69"/>
-      <c r="CN24" s="68"/>
-      <c r="CO24" s="67"/>
-      <c r="CP24" s="67"/>
-      <c r="CQ24" s="67"/>
-      <c r="CR24" s="67"/>
-      <c r="CS24" s="67"/>
-      <c r="CT24" s="67"/>
-      <c r="CU24" s="67"/>
-      <c r="CV24" s="67"/>
-      <c r="CW24" s="67"/>
-      <c r="CX24" s="67"/>
-      <c r="CY24" s="67"/>
-      <c r="CZ24" s="67"/>
-      <c r="DA24" s="67"/>
-    </row>
-    <row r="25" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BZ24" s="64"/>
+      <c r="CA24" s="64"/>
+      <c r="CB24" s="64"/>
+      <c r="CC24" s="64"/>
+      <c r="CD24" s="64"/>
+      <c r="CE24" s="64"/>
+      <c r="CF24" s="64"/>
+      <c r="CG24" s="64"/>
+      <c r="CH24" s="64"/>
+      <c r="CI24" s="64"/>
+      <c r="CJ24" s="64"/>
+      <c r="CK24" s="64"/>
+      <c r="CL24" s="64"/>
+      <c r="CM24" s="64"/>
+      <c r="CN24" s="5"/>
+    </row>
+    <row r="25" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>7</v>
       </c>
@@ -9987,69 +9605,38 @@
       <c r="AL25" s="16"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="3"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="72"/>
-      <c r="BA25" s="72"/>
-      <c r="BB25" s="72"/>
-      <c r="BC25" s="72"/>
-      <c r="BD25" s="67"/>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="68"/>
-      <c r="BM25" s="68"/>
-      <c r="BN25" s="68"/>
-      <c r="BO25" s="68"/>
-      <c r="BP25" s="68"/>
-      <c r="BQ25" s="68"/>
-      <c r="BR25" s="68"/>
-      <c r="BS25" s="68"/>
-      <c r="BT25" s="68"/>
-      <c r="BU25" s="67"/>
-      <c r="BV25" s="67"/>
-      <c r="BW25" s="67"/>
-      <c r="BX25" s="67"/>
-      <c r="BY25" s="67"/>
-      <c r="BZ25" s="69"/>
-      <c r="CA25" s="69"/>
-      <c r="CB25" s="69"/>
-      <c r="CC25" s="69"/>
-      <c r="CD25" s="69"/>
-      <c r="CE25" s="69"/>
-      <c r="CF25" s="69"/>
-      <c r="CG25" s="69"/>
-      <c r="CH25" s="69"/>
-      <c r="CI25" s="69"/>
-      <c r="CJ25" s="69"/>
-      <c r="CK25" s="69"/>
-      <c r="CL25" s="69"/>
-      <c r="CM25" s="69"/>
-      <c r="CN25" s="68"/>
-      <c r="CO25" s="67"/>
-      <c r="CP25" s="67"/>
-      <c r="CQ25" s="67"/>
-      <c r="CR25" s="67"/>
-      <c r="CS25" s="67"/>
-      <c r="CT25" s="67"/>
-      <c r="CU25" s="67"/>
-      <c r="CV25" s="67"/>
-      <c r="CW25" s="67"/>
-      <c r="CX25" s="67"/>
-      <c r="CY25" s="67"/>
-      <c r="CZ25" s="67"/>
-      <c r="DA25" s="67"/>
-    </row>
-    <row r="26" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="5"/>
+      <c r="BQ25" s="5"/>
+      <c r="BR25" s="5"/>
+      <c r="BS25" s="5"/>
+      <c r="BT25" s="5"/>
+      <c r="BZ25" s="64"/>
+      <c r="CA25" s="64"/>
+      <c r="CB25" s="64"/>
+      <c r="CC25" s="64"/>
+      <c r="CD25" s="64"/>
+      <c r="CE25" s="64"/>
+      <c r="CF25" s="64"/>
+      <c r="CG25" s="64"/>
+      <c r="CH25" s="64"/>
+      <c r="CI25" s="64"/>
+      <c r="CJ25" s="64"/>
+      <c r="CK25" s="64"/>
+      <c r="CL25" s="64"/>
+      <c r="CM25" s="64"/>
+      <c r="CN25" s="5"/>
+    </row>
+    <row r="26" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>8</v>
       </c>
@@ -10098,69 +9685,38 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="72"/>
-      <c r="AY26" s="72"/>
-      <c r="AZ26" s="72"/>
-      <c r="BA26" s="72"/>
-      <c r="BB26" s="72"/>
-      <c r="BC26" s="72"/>
-      <c r="BD26" s="67"/>
-      <c r="BE26" s="67"/>
-      <c r="BF26" s="68"/>
-      <c r="BG26" s="68"/>
-      <c r="BH26" s="68"/>
-      <c r="BI26" s="68"/>
-      <c r="BJ26" s="68"/>
-      <c r="BK26" s="68"/>
-      <c r="BL26" s="68"/>
-      <c r="BM26" s="68"/>
-      <c r="BN26" s="68"/>
-      <c r="BO26" s="68"/>
-      <c r="BP26" s="68"/>
-      <c r="BQ26" s="68"/>
-      <c r="BR26" s="68"/>
-      <c r="BS26" s="68"/>
-      <c r="BT26" s="68"/>
-      <c r="BU26" s="67"/>
-      <c r="BV26" s="67"/>
-      <c r="BW26" s="67"/>
-      <c r="BX26" s="67"/>
-      <c r="BY26" s="67"/>
-      <c r="BZ26" s="69"/>
-      <c r="CA26" s="69"/>
-      <c r="CB26" s="69"/>
-      <c r="CC26" s="69"/>
-      <c r="CD26" s="69"/>
-      <c r="CE26" s="69"/>
-      <c r="CF26" s="69"/>
-      <c r="CG26" s="69"/>
-      <c r="CH26" s="69"/>
-      <c r="CI26" s="69"/>
-      <c r="CJ26" s="69"/>
-      <c r="CK26" s="68"/>
-      <c r="CL26" s="68"/>
-      <c r="CM26" s="68"/>
-      <c r="CN26" s="68"/>
-      <c r="CO26" s="67"/>
-      <c r="CP26" s="67"/>
-      <c r="CQ26" s="67"/>
-      <c r="CR26" s="67"/>
-      <c r="CS26" s="67"/>
-      <c r="CT26" s="67"/>
-      <c r="CU26" s="67"/>
-      <c r="CV26" s="67"/>
-      <c r="CW26" s="67"/>
-      <c r="CX26" s="67"/>
-      <c r="CY26" s="67"/>
-      <c r="CZ26" s="67"/>
-      <c r="DA26" s="67"/>
-    </row>
-    <row r="27" spans="5:105" x14ac:dyDescent="0.35">
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="5"/>
+      <c r="BP26" s="5"/>
+      <c r="BQ26" s="5"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5"/>
+      <c r="BZ26" s="64"/>
+      <c r="CA26" s="64"/>
+      <c r="CB26" s="64"/>
+      <c r="CC26" s="64"/>
+      <c r="CD26" s="64"/>
+      <c r="CE26" s="64"/>
+      <c r="CF26" s="64"/>
+      <c r="CG26" s="64"/>
+      <c r="CH26" s="64"/>
+      <c r="CI26" s="64"/>
+      <c r="CJ26" s="64"/>
+      <c r="CK26" s="5"/>
+      <c r="CL26" s="5"/>
+      <c r="CM26" s="5"/>
+      <c r="CN26" s="5"/>
+    </row>
+    <row r="27" spans="5:92" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>9</v>
       </c>
@@ -10199,520 +9755,64 @@
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="72"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="72"/>
-      <c r="BA27" s="72"/>
-      <c r="BB27" s="72"/>
-      <c r="BC27" s="72"/>
-      <c r="BD27" s="67"/>
-      <c r="BE27" s="67"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="68"/>
-      <c r="BI27" s="68"/>
-      <c r="BJ27" s="68"/>
-      <c r="BK27" s="68"/>
-      <c r="BL27" s="68"/>
-      <c r="BM27" s="68"/>
-      <c r="BN27" s="68"/>
-      <c r="BO27" s="68"/>
-      <c r="BP27" s="68"/>
-      <c r="BQ27" s="68"/>
-      <c r="BR27" s="68"/>
-      <c r="BS27" s="68"/>
-      <c r="BT27" s="68"/>
-      <c r="BU27" s="67"/>
-      <c r="BV27" s="67"/>
-      <c r="BW27" s="67"/>
-      <c r="BX27" s="67"/>
-      <c r="BY27" s="67"/>
-      <c r="BZ27" s="68"/>
-      <c r="CA27" s="68"/>
-      <c r="CB27" s="68"/>
-      <c r="CC27" s="68"/>
-      <c r="CD27" s="68"/>
-      <c r="CE27" s="68"/>
-      <c r="CF27" s="68"/>
-      <c r="CG27" s="68"/>
-      <c r="CH27" s="68"/>
-      <c r="CI27" s="68"/>
-      <c r="CJ27" s="68"/>
-      <c r="CK27" s="68"/>
-      <c r="CL27" s="68"/>
-      <c r="CM27" s="68"/>
-      <c r="CN27" s="68"/>
-      <c r="CO27" s="67"/>
-      <c r="CP27" s="67"/>
-      <c r="CQ27" s="67"/>
-      <c r="CR27" s="67"/>
-      <c r="CS27" s="67"/>
-      <c r="CT27" s="67"/>
-      <c r="CU27" s="67"/>
-      <c r="CV27" s="67"/>
-      <c r="CW27" s="67"/>
-      <c r="CX27" s="67"/>
-      <c r="CY27" s="67"/>
-      <c r="CZ27" s="67"/>
-      <c r="DA27" s="67"/>
-    </row>
-    <row r="28" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="AS28" s="72"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="72"/>
-      <c r="AY28" s="72"/>
-      <c r="AZ28" s="72"/>
-      <c r="BA28" s="72"/>
-      <c r="BB28" s="72"/>
-      <c r="BC28" s="72"/>
-      <c r="BD28" s="67"/>
-      <c r="BE28" s="67"/>
-      <c r="BF28" s="67"/>
-      <c r="BG28" s="67"/>
-      <c r="BH28" s="67"/>
-      <c r="BI28" s="67"/>
-      <c r="BJ28" s="67"/>
-      <c r="BK28" s="67"/>
-      <c r="BL28" s="67"/>
-      <c r="BM28" s="67"/>
-      <c r="BN28" s="67"/>
-      <c r="BO28" s="67"/>
-      <c r="BP28" s="67"/>
-      <c r="BQ28" s="67"/>
-      <c r="BR28" s="67"/>
-      <c r="BS28" s="67"/>
-      <c r="BT28" s="67"/>
-      <c r="BU28" s="67"/>
-      <c r="BV28" s="67"/>
-      <c r="BW28" s="67"/>
-      <c r="BX28" s="67"/>
-      <c r="BY28" s="67"/>
-      <c r="BZ28" s="67"/>
-      <c r="CA28" s="67"/>
-      <c r="CB28" s="67"/>
-      <c r="CC28" s="67"/>
-      <c r="CD28" s="67"/>
-      <c r="CE28" s="67"/>
-      <c r="CF28" s="67"/>
-      <c r="CG28" s="67"/>
-      <c r="CH28" s="67"/>
-      <c r="CI28" s="67"/>
-      <c r="CJ28" s="67"/>
-      <c r="CK28" s="67"/>
-      <c r="CL28" s="67"/>
-      <c r="CM28" s="67"/>
-      <c r="CN28" s="67"/>
-      <c r="CO28" s="67"/>
-      <c r="CP28" s="67"/>
-      <c r="CQ28" s="67"/>
-      <c r="CR28" s="67"/>
-      <c r="CS28" s="67"/>
-      <c r="CT28" s="67"/>
-      <c r="CU28" s="67"/>
-      <c r="CV28" s="67"/>
-      <c r="CW28" s="67"/>
-      <c r="CX28" s="67"/>
-      <c r="CY28" s="67"/>
-      <c r="CZ28" s="67"/>
-      <c r="DA28" s="67"/>
-    </row>
-    <row r="29" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="H29" s="52" t="s">
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="5"/>
+      <c r="BP27" s="5"/>
+      <c r="BQ27" s="5"/>
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5"/>
+      <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="5"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="5"/>
+      <c r="CF27" s="5"/>
+      <c r="CG27" s="5"/>
+      <c r="CH27" s="5"/>
+      <c r="CI27" s="5"/>
+      <c r="CJ27" s="5"/>
+      <c r="CK27" s="5"/>
+      <c r="CL27" s="5"/>
+      <c r="CM27" s="5"/>
+      <c r="CN27" s="5"/>
+    </row>
+    <row r="29" spans="5:92" x14ac:dyDescent="0.35">
+      <c r="H29" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="AB29" s="52" t="s">
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="AB29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="BD29" s="67"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="67"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="70"/>
-      <c r="BJ29" s="70"/>
-      <c r="BK29" s="70"/>
-      <c r="BL29" s="70"/>
-      <c r="BM29" s="70"/>
-      <c r="BN29" s="70"/>
-      <c r="BO29" s="70"/>
-      <c r="BP29" s="70"/>
-      <c r="BQ29" s="70"/>
-      <c r="BR29" s="70"/>
-      <c r="BS29" s="67"/>
-      <c r="BT29" s="67"/>
-      <c r="BU29" s="67"/>
-      <c r="BV29" s="67"/>
-      <c r="BW29" s="67"/>
-      <c r="BX29" s="67"/>
-      <c r="BY29" s="67"/>
-      <c r="BZ29" s="67"/>
-      <c r="CA29" s="67"/>
-      <c r="CB29" s="70"/>
-      <c r="CC29" s="70"/>
-      <c r="CD29" s="70"/>
-      <c r="CE29" s="70"/>
-      <c r="CF29" s="70"/>
-      <c r="CG29" s="70"/>
-      <c r="CH29" s="70"/>
-      <c r="CI29" s="70"/>
-      <c r="CJ29" s="70"/>
-      <c r="CK29" s="70"/>
-      <c r="CL29" s="70"/>
-      <c r="CM29" s="67"/>
-      <c r="CN29" s="67"/>
-      <c r="CO29" s="67"/>
-      <c r="CP29" s="67"/>
-      <c r="CQ29" s="67"/>
-      <c r="CR29" s="67"/>
-      <c r="CS29" s="67"/>
-      <c r="CT29" s="67"/>
-      <c r="CU29" s="67"/>
-      <c r="CV29" s="67"/>
-      <c r="CW29" s="67"/>
-      <c r="CX29" s="67"/>
-      <c r="CY29" s="67"/>
-      <c r="CZ29" s="67"/>
-      <c r="DA29" s="67"/>
-    </row>
-    <row r="30" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="BD30" s="67"/>
-      <c r="BE30" s="67"/>
-      <c r="BF30" s="67"/>
-      <c r="BG30" s="67"/>
-      <c r="BH30" s="67"/>
-      <c r="BI30" s="67"/>
-      <c r="BJ30" s="67"/>
-      <c r="BK30" s="67"/>
-      <c r="BL30" s="67"/>
-      <c r="BM30" s="67"/>
-      <c r="BN30" s="67"/>
-      <c r="BO30" s="67"/>
-      <c r="BP30" s="67"/>
-      <c r="BQ30" s="67"/>
-      <c r="BR30" s="67"/>
-      <c r="BS30" s="67"/>
-      <c r="BT30" s="67"/>
-      <c r="BU30" s="67"/>
-      <c r="BV30" s="67"/>
-      <c r="BW30" s="67"/>
-      <c r="BX30" s="67"/>
-      <c r="BY30" s="67"/>
-      <c r="BZ30" s="67"/>
-      <c r="CA30" s="67"/>
-      <c r="CB30" s="67"/>
-      <c r="CC30" s="67"/>
-      <c r="CD30" s="67"/>
-      <c r="CE30" s="67"/>
-      <c r="CF30" s="67"/>
-      <c r="CG30" s="67"/>
-      <c r="CH30" s="67"/>
-      <c r="CI30" s="67"/>
-      <c r="CJ30" s="67"/>
-      <c r="CK30" s="67"/>
-      <c r="CL30" s="67"/>
-      <c r="CM30" s="67"/>
-      <c r="CN30" s="67"/>
-      <c r="CO30" s="67"/>
-      <c r="CP30" s="67"/>
-      <c r="CQ30" s="67"/>
-      <c r="CR30" s="67"/>
-      <c r="CS30" s="67"/>
-      <c r="CT30" s="67"/>
-      <c r="CU30" s="67"/>
-      <c r="CV30" s="67"/>
-      <c r="CW30" s="67"/>
-      <c r="CX30" s="67"/>
-      <c r="CY30" s="67"/>
-      <c r="CZ30" s="67"/>
-      <c r="DA30" s="67"/>
-    </row>
-    <row r="31" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="BD31" s="67"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
-      <c r="BI31" s="67"/>
-      <c r="BJ31" s="67"/>
-      <c r="BK31" s="67"/>
-      <c r="BL31" s="67"/>
-      <c r="BM31" s="67"/>
-      <c r="BN31" s="67"/>
-      <c r="BO31" s="67"/>
-      <c r="BP31" s="67"/>
-      <c r="BQ31" s="67"/>
-      <c r="BR31" s="67"/>
-      <c r="BS31" s="67"/>
-      <c r="BT31" s="67"/>
-      <c r="BU31" s="67"/>
-      <c r="BV31" s="67"/>
-      <c r="BW31" s="67"/>
-      <c r="BX31" s="67"/>
-      <c r="BY31" s="67"/>
-      <c r="BZ31" s="67"/>
-      <c r="CA31" s="67"/>
-      <c r="CB31" s="67"/>
-      <c r="CC31" s="67"/>
-      <c r="CD31" s="67"/>
-      <c r="CE31" s="67"/>
-      <c r="CF31" s="67"/>
-      <c r="CG31" s="67"/>
-      <c r="CH31" s="67"/>
-      <c r="CI31" s="67"/>
-      <c r="CJ31" s="67"/>
-      <c r="CK31" s="67"/>
-      <c r="CL31" s="67"/>
-      <c r="CM31" s="67"/>
-      <c r="CN31" s="67"/>
-      <c r="CO31" s="67"/>
-      <c r="CP31" s="67"/>
-      <c r="CQ31" s="67"/>
-      <c r="CR31" s="67"/>
-      <c r="CS31" s="67"/>
-      <c r="CT31" s="67"/>
-      <c r="CU31" s="67"/>
-      <c r="CV31" s="67"/>
-      <c r="CW31" s="67"/>
-      <c r="CX31" s="67"/>
-      <c r="CY31" s="67"/>
-      <c r="CZ31" s="67"/>
-      <c r="DA31" s="67"/>
-    </row>
-    <row r="32" spans="5:105" x14ac:dyDescent="0.35">
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
-      <c r="BF32" s="67"/>
-      <c r="BG32" s="67"/>
-      <c r="BH32" s="67"/>
-      <c r="BI32" s="67"/>
-      <c r="BJ32" s="67"/>
-      <c r="BK32" s="67"/>
-      <c r="BL32" s="67"/>
-      <c r="BM32" s="67"/>
-      <c r="BN32" s="67"/>
-      <c r="BO32" s="67"/>
-      <c r="BP32" s="67"/>
-      <c r="BQ32" s="67"/>
-      <c r="BR32" s="67"/>
-      <c r="BS32" s="67"/>
-      <c r="BT32" s="67"/>
-      <c r="BU32" s="67"/>
-      <c r="BV32" s="67"/>
-      <c r="BW32" s="67"/>
-      <c r="BX32" s="67"/>
-      <c r="BY32" s="67"/>
-      <c r="BZ32" s="67"/>
-      <c r="CA32" s="67"/>
-      <c r="CB32" s="67"/>
-      <c r="CC32" s="67"/>
-      <c r="CD32" s="67"/>
-      <c r="CE32" s="67"/>
-      <c r="CF32" s="67"/>
-      <c r="CG32" s="67"/>
-      <c r="CH32" s="67"/>
-      <c r="CI32" s="67"/>
-      <c r="CJ32" s="67"/>
-      <c r="CK32" s="67"/>
-      <c r="CL32" s="67"/>
-      <c r="CM32" s="67"/>
-      <c r="CN32" s="67"/>
-      <c r="CO32" s="67"/>
-      <c r="CP32" s="67"/>
-      <c r="CQ32" s="67"/>
-      <c r="CR32" s="67"/>
-      <c r="CS32" s="67"/>
-      <c r="CT32" s="67"/>
-      <c r="CU32" s="67"/>
-      <c r="CV32" s="67"/>
-      <c r="CW32" s="67"/>
-      <c r="CX32" s="67"/>
-      <c r="CY32" s="67"/>
-      <c r="CZ32" s="67"/>
-      <c r="DA32" s="67"/>
-    </row>
-    <row r="33" spans="56:105" x14ac:dyDescent="0.35">
-      <c r="BD33" s="67"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BG33" s="67"/>
-      <c r="BH33" s="67"/>
-      <c r="BI33" s="67"/>
-      <c r="BJ33" s="67"/>
-      <c r="BK33" s="67"/>
-      <c r="BL33" s="67"/>
-      <c r="BM33" s="67"/>
-      <c r="BN33" s="67"/>
-      <c r="BO33" s="67"/>
-      <c r="BP33" s="67"/>
-      <c r="BQ33" s="67"/>
-      <c r="BR33" s="67"/>
-      <c r="BS33" s="67"/>
-      <c r="BT33" s="67"/>
-      <c r="BU33" s="67"/>
-      <c r="BV33" s="67"/>
-      <c r="BW33" s="67"/>
-      <c r="BX33" s="67"/>
-      <c r="BY33" s="67"/>
-      <c r="BZ33" s="67"/>
-      <c r="CA33" s="67"/>
-      <c r="CB33" s="67"/>
-      <c r="CC33" s="67"/>
-      <c r="CD33" s="67"/>
-      <c r="CE33" s="67"/>
-      <c r="CF33" s="67"/>
-      <c r="CG33" s="67"/>
-      <c r="CH33" s="67"/>
-      <c r="CI33" s="67"/>
-      <c r="CJ33" s="67"/>
-      <c r="CK33" s="67"/>
-      <c r="CL33" s="67"/>
-      <c r="CM33" s="67"/>
-      <c r="CN33" s="67"/>
-      <c r="CO33" s="67"/>
-      <c r="CP33" s="67"/>
-      <c r="CQ33" s="67"/>
-      <c r="CR33" s="67"/>
-      <c r="CS33" s="67"/>
-      <c r="CT33" s="67"/>
-      <c r="CU33" s="67"/>
-      <c r="CV33" s="67"/>
-      <c r="CW33" s="67"/>
-      <c r="CX33" s="67"/>
-      <c r="CY33" s="67"/>
-      <c r="CZ33" s="67"/>
-      <c r="DA33" s="67"/>
-    </row>
-    <row r="34" spans="56:105" x14ac:dyDescent="0.35">
-      <c r="BD34" s="67"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="67"/>
-      <c r="BI34" s="67"/>
-      <c r="BJ34" s="67"/>
-      <c r="BK34" s="67"/>
-      <c r="BL34" s="67"/>
-      <c r="BM34" s="67"/>
-      <c r="BN34" s="67"/>
-      <c r="BO34" s="67"/>
-      <c r="BP34" s="67"/>
-      <c r="BQ34" s="67"/>
-      <c r="BR34" s="67"/>
-      <c r="BS34" s="67"/>
-      <c r="BT34" s="67"/>
-      <c r="BU34" s="67"/>
-      <c r="BV34" s="67"/>
-      <c r="BW34" s="67"/>
-      <c r="BX34" s="67"/>
-      <c r="BY34" s="67"/>
-      <c r="BZ34" s="67"/>
-      <c r="CA34" s="67"/>
-      <c r="CB34" s="67"/>
-      <c r="CC34" s="67"/>
-      <c r="CD34" s="67"/>
-      <c r="CE34" s="67"/>
-      <c r="CF34" s="67"/>
-      <c r="CG34" s="67"/>
-      <c r="CH34" s="67"/>
-      <c r="CI34" s="67"/>
-      <c r="CJ34" s="67"/>
-      <c r="CK34" s="67"/>
-      <c r="CL34" s="67"/>
-      <c r="CM34" s="67"/>
-      <c r="CN34" s="67"/>
-      <c r="CO34" s="67"/>
-      <c r="CP34" s="67"/>
-      <c r="CQ34" s="67"/>
-      <c r="CR34" s="67"/>
-      <c r="CS34" s="67"/>
-      <c r="CT34" s="67"/>
-      <c r="CU34" s="67"/>
-      <c r="CV34" s="67"/>
-      <c r="CW34" s="67"/>
-      <c r="CX34" s="67"/>
-      <c r="CY34" s="67"/>
-      <c r="CZ34" s="67"/>
-      <c r="DA34" s="67"/>
-    </row>
-    <row r="35" spans="56:105" x14ac:dyDescent="0.35">
-      <c r="BD35" s="67"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="67"/>
-      <c r="BJ35" s="67"/>
-      <c r="BK35" s="67"/>
-      <c r="BL35" s="67"/>
-      <c r="BM35" s="67"/>
-      <c r="BN35" s="67"/>
-      <c r="BO35" s="67"/>
-      <c r="BP35" s="67"/>
-      <c r="BQ35" s="67"/>
-      <c r="BR35" s="67"/>
-      <c r="BS35" s="67"/>
-      <c r="BT35" s="67"/>
-      <c r="BU35" s="67"/>
-      <c r="BV35" s="67"/>
-      <c r="BW35" s="67"/>
-      <c r="BX35" s="67"/>
-      <c r="BY35" s="67"/>
-      <c r="BZ35" s="67"/>
-      <c r="CA35" s="67"/>
-      <c r="CB35" s="67"/>
-      <c r="CC35" s="67"/>
-      <c r="CD35" s="67"/>
-      <c r="CE35" s="67"/>
-      <c r="CF35" s="67"/>
-      <c r="CG35" s="67"/>
-      <c r="CH35" s="67"/>
-      <c r="CI35" s="67"/>
-      <c r="CJ35" s="67"/>
-      <c r="CK35" s="67"/>
-      <c r="CL35" s="67"/>
-      <c r="CM35" s="67"/>
-      <c r="CN35" s="67"/>
-      <c r="CO35" s="67"/>
-      <c r="CP35" s="67"/>
-      <c r="CQ35" s="67"/>
-      <c r="CR35" s="67"/>
-      <c r="CS35" s="67"/>
-      <c r="CT35" s="67"/>
-      <c r="CU35" s="67"/>
-      <c r="CV35" s="67"/>
-      <c r="CW35" s="67"/>
-      <c r="CX35" s="67"/>
-      <c r="CY35" s="67"/>
-      <c r="CZ35" s="67"/>
-      <c r="DA35" s="67"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10858,7 +9958,7 @@
       <c r="D3" s="28">
         <v>1</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="67">
         <v>2</v>
       </c>
       <c r="F3" s="22">
@@ -10883,7 +9983,7 @@
       <c r="U3" s="26">
         <v>21</v>
       </c>
-      <c r="V3" s="74">
+      <c r="V3" s="67">
         <v>22</v>
       </c>
       <c r="W3" s="26">
@@ -11204,24 +10304,24 @@
       <c r="AD11" s="34"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="V13" s="52" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="V13" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C17">
@@ -11490,11 +10590,11 @@
       <c r="D21" s="27">
         <v>10</v>
       </c>
-      <c r="E21" s="75"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="27">
         <v>11</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="69">
         <v>12</v>
       </c>
       <c r="H21" s="27">
@@ -11557,7 +10657,7 @@
       <c r="F22" s="27">
         <v>16</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="69">
         <v>17</v>
       </c>
       <c r="H22" s="27">
@@ -11777,7 +10877,7 @@
       <c r="D26" s="22">
         <v>25</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="67">
         <v>24</v>
       </c>
       <c r="F26" s="28">
@@ -11800,7 +10900,7 @@
       <c r="U26" s="22">
         <v>9</v>
       </c>
-      <c r="V26" s="74">
+      <c r="V26" s="67">
         <v>4</v>
       </c>
       <c r="W26" s="22">
@@ -11858,24 +10958,24 @@
       <c r="AD27" s="34"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="V29" s="52" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="V29" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="D30" s="5"/>
@@ -12039,7 +11139,7 @@
       <c r="L36" s="28">
         <v>21</v>
       </c>
-      <c r="M36" s="74">
+      <c r="M36" s="67">
         <v>20</v>
       </c>
       <c r="T36">
@@ -12080,7 +11180,7 @@
       <c r="L37" s="28">
         <v>22</v>
       </c>
-      <c r="M37" s="77">
+      <c r="M37" s="22">
         <v>21</v>
       </c>
       <c r="T37">
@@ -12099,7 +11199,7 @@
       <c r="AC37" s="22">
         <v>6</v>
       </c>
-      <c r="AD37" s="77">
+      <c r="AD37" s="22">
         <v>1</v>
       </c>
       <c r="AE37" s="34"/>
@@ -12316,24 +11416,24 @@
       <c r="AE44" s="34"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.35">
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="W46" s="52" t="s">
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="W46" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70"/>
+      <c r="Z46" s="70"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="70"/>
     </row>
     <row r="47" spans="3:31" x14ac:dyDescent="0.35">
       <c r="E47" s="5"/>
@@ -14532,15 +13632,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A1C67E-5A46-4B15-92F8-0C9429361B3D}">
   <dimension ref="E1:AH11"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="13" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.26953125" customWidth="1"/>
+    <col min="8" max="13" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:34" x14ac:dyDescent="0.35">
@@ -14728,10 +13832,10 @@
         <v>26</v>
       </c>
       <c r="L4" s="1">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -14767,16 +13871,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="15">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="I5" s="15">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="J5" s="48">
         <v>26</v>
       </c>
       <c r="K5" s="3">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="1"/>
@@ -14811,13 +13915,13 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="J6" s="3">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="K6" s="3">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
@@ -14851,7 +13955,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <v>404</v>
+        <v>226</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
@@ -14928,22 +14032,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="11" spans="5:34" x14ac:dyDescent="0.35">
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="5"/>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15626,26 +14730,26 @@
       </c>
     </row>
     <row r="13" spans="3:43" x14ac:dyDescent="0.35">
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="W13" s="52" t="s">
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="W13" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15661,7 +14765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB49713B-288F-4EA2-851B-AB36E90C81FA}">
   <dimension ref="C2:AZ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="59" workbookViewId="0">
       <selection activeCell="BX27" sqref="BX27"/>
     </sheetView>
   </sheetViews>
@@ -15729,7 +14833,7 @@
         <v>9</v>
       </c>
       <c r="AQ2" s="5"/>
-      <c r="AT2" s="65"/>
+      <c r="AT2" s="62"/>
       <c r="AU2" t="s">
         <v>14</v>
       </c>
@@ -15738,31 +14842,31 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3">
         <v>1</v>
       </c>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
       <c r="AQ3" s="5"/>
       <c r="AT3" s="6"/>
       <c r="AU3" t="s">
@@ -15773,35 +14877,35 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="T4">
         <v>1</v>
       </c>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="57" t="s">
+      <c r="AB4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AC4" s="53">
+      <c r="AC4" s="3">
         <v>10</v>
       </c>
-      <c r="AD4" s="53"/>
+      <c r="AD4" s="3"/>
       <c r="AQ4" s="5"/>
       <c r="AT4" s="7"/>
       <c r="AU4" t="s">
@@ -15812,33 +14916,33 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="T5">
         <v>2</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="58" t="s">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="56" t="s">
         <v>1</v>
       </c>
       <c r="AB5" s="15">
         <v>1</v>
       </c>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
       <c r="AQ5" s="5"/>
       <c r="AT5" s="8"/>
       <c r="AU5" t="s">
@@ -15849,33 +14953,33 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="T6">
         <v>3</v>
       </c>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="54" t="s">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AB6" s="53"/>
+      <c r="AB6" s="3"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="53"/>
+      <c r="AD6" s="3"/>
       <c r="AQ6" s="5"/>
       <c r="AT6" s="9"/>
       <c r="AU6" t="s">
@@ -15886,29 +14990,29 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="T7">
         <v>4</v>
       </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="53"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
       <c r="AQ7" s="5"/>
       <c r="AT7" s="14"/>
       <c r="AU7" t="s">
@@ -15919,31 +15023,31 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
       <c r="T8">
         <v>5</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
       <c r="AT8" s="49"/>
       <c r="AU8" t="s">
         <v>10</v>
@@ -15953,139 +15057,139 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
       <c r="T9">
         <v>6</v>
       </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
       <c r="T10">
         <v>7</v>
       </c>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
     </row>
     <row r="11" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="T11">
         <v>8</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
     </row>
     <row r="12" spans="3:47" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="T12">
         <v>9</v>
       </c>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
     </row>
     <row r="14" spans="3:47" x14ac:dyDescent="0.35">
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="V14" s="52" t="s">
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="V14" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
     </row>
     <row r="17" spans="3:52" x14ac:dyDescent="0.35">
       <c r="D17">
@@ -16153,68 +15257,68 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="3">
         <v>11</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="3">
         <v>20</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="3">
         <v>21</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="3">
         <v>22</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" s="53">
+      <c r="U18" s="3">
         <v>7</v>
       </c>
-      <c r="V18" s="53">
+      <c r="V18" s="3">
         <v>6</v>
       </c>
-      <c r="W18" s="53">
+      <c r="W18" s="3">
         <v>11</v>
       </c>
-      <c r="X18" s="53">
+      <c r="X18" s="3">
         <v>31</v>
       </c>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="53">
+      <c r="F19" s="53"/>
+      <c r="G19" s="3">
         <v>26</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="T19">
         <v>1</v>
       </c>
@@ -16224,218 +15328,218 @@
       <c r="V19" s="12">
         <v>5</v>
       </c>
-      <c r="W19" s="53">
+      <c r="W19" s="3">
         <v>10</v>
       </c>
-      <c r="X19" s="53">
+      <c r="X19" s="3">
         <v>15</v>
       </c>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="3">
         <v>11</v>
       </c>
       <c r="E20" s="15">
         <v>10</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="3">
         <v>11</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="T20">
         <v>2</v>
       </c>
-      <c r="U20" s="53">
+      <c r="U20" s="3">
         <v>7</v>
       </c>
-      <c r="V20" s="53">
+      <c r="V20" s="3">
         <v>6</v>
       </c>
-      <c r="W20" s="53">
+      <c r="W20" s="3">
         <v>11</v>
       </c>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="3">
         <v>16</v>
       </c>
       <c r="E21" s="15">
         <v>15</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="3">
         <v>16</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="T21">
         <v>3</v>
       </c>
-      <c r="U21" s="53">
+      <c r="U21" s="3">
         <v>36</v>
       </c>
-      <c r="V21" s="53">
+      <c r="V21" s="3">
         <v>7</v>
       </c>
-      <c r="W21" s="53"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="54" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AB21" s="53"/>
+      <c r="AB21" s="3"/>
       <c r="AC21" s="4"/>
-      <c r="AD21" s="53"/>
+      <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="15">
         <v>22</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="T22">
         <v>4</v>
       </c>
-      <c r="U22" s="53"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="53"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="3"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="61" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="T23">
         <v>5</v>
       </c>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="64" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="T24">
         <v>6</v>
       </c>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
       <c r="AD24" s="4"/>
     </row>
     <row r="25" spans="3:52" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="T25">
         <v>7</v>
       </c>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
       <c r="AZ25" t="s">
         <v>9</v>
       </c>
@@ -16444,29 +15548,29 @@
       <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="4"/>
       <c r="T26">
         <v>8</v>
       </c>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
       <c r="AO26" t="s">
         <v>11</v>
       </c>
@@ -16479,31 +15583,31 @@
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="64" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
       <c r="T27">
         <v>9</v>
       </c>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
       <c r="AO27" t="s">
         <v>12</v>
       </c>
@@ -16522,26 +15626,26 @@
       </c>
     </row>
     <row r="29" spans="3:52" x14ac:dyDescent="0.35">
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="V29" s="52" t="s">
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="V29" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
     </row>
     <row r="33" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D33">
@@ -16609,66 +15713,66 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="3">
         <v>11</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="3">
         <v>10</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="3">
         <v>11</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="3">
         <v>12</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="3">
         <v>13</v>
       </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34" s="53">
+      <c r="U34" s="3">
         <v>7</v>
       </c>
-      <c r="V34" s="53">
+      <c r="V34" s="3">
         <v>6</v>
       </c>
-      <c r="W34" s="53">
+      <c r="W34" s="3">
         <v>8</v>
       </c>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="3">
         <v>1</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="53">
+      <c r="F35" s="53"/>
+      <c r="G35" s="3">
         <v>22</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
       <c r="T35">
         <v>1</v>
       </c>
@@ -16678,39 +15782,39 @@
       <c r="V35" s="17">
         <v>5</v>
       </c>
-      <c r="W35" s="53">
+      <c r="W35" s="3">
         <v>7</v>
       </c>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="53">
+      <c r="H36" s="3">
         <v>23</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
       <c r="T36">
         <v>2</v>
       </c>
@@ -16723,42 +15827,42 @@
       <c r="W36" s="12">
         <v>6</v>
       </c>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="3">
         <v>1</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="3">
         <v>12</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="3">
         <v>13</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="3">
         <v>14</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="3">
         <v>15</v>
       </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
       <c r="T37">
         <v>3</v>
       </c>
@@ -16772,27 +15876,27 @@
         <v>6</v>
       </c>
       <c r="X37" s="4"/>
-      <c r="Y37" s="53">
+      <c r="Y37" s="3">
         <v>9</v>
       </c>
-      <c r="Z37" s="53">
+      <c r="Z37" s="3">
         <v>10</v>
       </c>
-      <c r="AA37" s="61" t="s">
+      <c r="AA37" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AB37" s="53"/>
+      <c r="AB37" s="3"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="53"/>
+      <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="58" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="15">
@@ -16810,11 +15914,11 @@
       <c r="J38" s="48">
         <v>5</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="3">
         <v>6</v>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
       <c r="T38">
         <v>4</v>
       </c>
@@ -16837,40 +15941,40 @@
       <c r="AA38" s="48">
         <v>10</v>
       </c>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="53">
+      <c r="G39" s="3">
         <v>2</v>
       </c>
-      <c r="H39" s="53">
+      <c r="H39" s="3">
         <v>3</v>
       </c>
-      <c r="I39" s="53">
+      <c r="I39" s="3">
         <v>4</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="3">
         <v>5</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="3">
         <v>6</v>
       </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="T39">
         <v>5</v>
       </c>
@@ -16895,191 +15999,191 @@
       <c r="AA39" s="12">
         <v>10</v>
       </c>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="3">
         <v>11</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="16">
         <v>10</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F40" s="3">
         <v>11</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="3">
         <v>13</v>
       </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
         <v>15</v>
       </c>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
       <c r="T40">
         <v>6</v>
       </c>
-      <c r="U40" s="53">
+      <c r="U40" s="3">
         <v>7</v>
       </c>
-      <c r="V40" s="53">
+      <c r="V40" s="3">
         <v>6</v>
       </c>
-      <c r="W40" s="53">
+      <c r="W40" s="3">
         <v>7</v>
       </c>
       <c r="X40" s="4"/>
-      <c r="Y40" s="53">
+      <c r="Y40" s="3">
         <v>9</v>
       </c>
-      <c r="Z40" s="53">
+      <c r="Z40" s="3">
         <v>10</v>
       </c>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
       <c r="AD40" s="4"/>
     </row>
     <row r="41" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C41">
         <v>7</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="3">
         <v>21</v>
       </c>
       <c r="E41" s="12">
         <v>12</v>
       </c>
-      <c r="F41" s="53">
+      <c r="F41" s="3">
         <v>21</v>
       </c>
-      <c r="G41" s="53">
+      <c r="G41" s="3">
         <v>22</v>
       </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
       <c r="T41">
         <v>7</v>
       </c>
-      <c r="U41" s="53">
+      <c r="U41" s="3">
         <v>8</v>
       </c>
-      <c r="V41" s="53">
+      <c r="V41" s="3">
         <v>7</v>
       </c>
-      <c r="W41" s="53">
+      <c r="W41" s="3">
         <v>8</v>
       </c>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C42">
         <v>8</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="3">
         <v>31</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="3">
         <v>30</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="3">
         <v>31</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
       <c r="M42" s="4"/>
       <c r="T42">
         <v>8</v>
       </c>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53">
+      <c r="U42" s="3"/>
+      <c r="V42" s="3">
         <v>8</v>
       </c>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C43">
         <v>9</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
         <v>40</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="64" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
       <c r="T43">
         <v>9</v>
       </c>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
     </row>
     <row r="45" spans="3:30" x14ac:dyDescent="0.35">
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="V45" s="52" t="s">
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="V45" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
     </row>
     <row r="48" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D48">
@@ -17147,77 +16251,77 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="12">
         <v>13</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
       <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53">
+      <c r="U49" s="3"/>
+      <c r="V49" s="3">
         <v>18</v>
       </c>
-      <c r="W49" s="53">
+      <c r="W49" s="3">
         <v>8</v>
       </c>
-      <c r="X49" s="53">
+      <c r="X49" s="3">
         <v>18</v>
       </c>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
     </row>
     <row r="50" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="55"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="12">
         <v>22</v>
       </c>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
       <c r="T50">
         <v>1</v>
       </c>
-      <c r="U50" s="62">
+      <c r="U50" s="16">
         <v>27</v>
       </c>
-      <c r="V50" s="62">
+      <c r="V50" s="16">
         <v>17</v>
       </c>
-      <c r="W50" s="53">
+      <c r="W50" s="3">
         <v>7</v>
       </c>
-      <c r="X50" s="53">
+      <c r="X50" s="3">
         <v>17</v>
       </c>
-      <c r="Y50" s="53">
+      <c r="Y50" s="3">
         <v>27</v>
       </c>
-      <c r="Z50" s="53"/>
+      <c r="Z50" s="3"/>
       <c r="AA50" s="4"/>
-      <c r="AB50" s="55"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
     </row>
     <row r="51" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C51">
@@ -17226,40 +16330,40 @@
       <c r="D51" s="12">
         <v>31</v>
       </c>
-      <c r="E51" s="63"/>
-      <c r="F51" s="53">
+      <c r="E51" s="60"/>
+      <c r="F51" s="3">
         <v>10</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
       <c r="T51">
         <v>2</v>
       </c>
-      <c r="U51" s="53">
+      <c r="U51" s="3">
         <v>26</v>
       </c>
-      <c r="V51" s="53">
+      <c r="V51" s="3">
         <v>16</v>
       </c>
-      <c r="W51" s="53">
+      <c r="W51" s="3">
         <v>6</v>
       </c>
-      <c r="X51" s="53">
+      <c r="X51" s="3">
         <v>16</v>
       </c>
-      <c r="Y51" s="53">
+      <c r="Y51" s="3">
         <v>26</v>
       </c>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
     </row>
     <row r="52" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C52">
@@ -17268,36 +16372,36 @@
       <c r="D52" s="12">
         <v>30</v>
       </c>
-      <c r="E52" s="63"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="21" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
       <c r="T52">
         <v>3</v>
       </c>
-      <c r="U52" s="53">
+      <c r="U52" s="3">
         <v>25</v>
       </c>
-      <c r="V52" s="53">
+      <c r="V52" s="3">
         <v>15</v>
       </c>
       <c r="W52" s="48">
         <v>5</v>
       </c>
       <c r="X52" s="4"/>
-      <c r="Y52" s="53"/>
+      <c r="Y52" s="3"/>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="63"/>
-      <c r="AB52" s="53"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="3"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="53"/>
+      <c r="AD52" s="3"/>
     </row>
     <row r="53" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C53">
@@ -17306,222 +16410,222 @@
       <c r="D53" s="12">
         <v>31</v>
       </c>
-      <c r="E53" s="63"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
       <c r="T53">
         <v>4</v>
       </c>
-      <c r="U53" s="53">
+      <c r="U53" s="3">
         <v>26</v>
       </c>
-      <c r="V53" s="62">
+      <c r="V53" s="16">
         <v>16</v>
       </c>
       <c r="W53" s="15">
         <v>6</v>
       </c>
       <c r="X53" s="4"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="53"/>
-      <c r="AA53" s="53"/>
-      <c r="AB53" s="53"/>
-      <c r="AC53" s="53"/>
-      <c r="AD53" s="53"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
     </row>
     <row r="54" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>5</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="63"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="60"/>
       <c r="F54" s="48">
         <v>12</v>
       </c>
       <c r="G54" s="15">
         <v>13</v>
       </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
       <c r="T54">
         <v>5</v>
       </c>
-      <c r="U54" s="53">
+      <c r="U54" s="3">
         <v>27</v>
       </c>
-      <c r="V54" s="53">
+      <c r="V54" s="3">
         <v>17</v>
       </c>
       <c r="W54" s="48">
         <v>7</v>
       </c>
-      <c r="X54" s="53">
+      <c r="X54" s="3">
         <v>17</v>
       </c>
-      <c r="Y54" s="53">
+      <c r="Y54" s="3">
         <v>27</v>
       </c>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="53"/>
-      <c r="AC54" s="53"/>
-      <c r="AD54" s="53"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
     </row>
     <row r="55" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>6</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="62"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="12">
         <v>13</v>
       </c>
-      <c r="G55" s="66" t="s">
+      <c r="G55" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
       <c r="T55">
         <v>6</v>
       </c>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3">
         <v>18</v>
       </c>
-      <c r="W55" s="53">
+      <c r="W55" s="3">
         <v>8</v>
       </c>
       <c r="X55" s="4"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="53"/>
-      <c r="AB55" s="53"/>
-      <c r="AC55" s="53"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
       <c r="AD55" s="4"/>
     </row>
     <row r="56" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>7</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
       <c r="T56">
         <v>7</v>
       </c>
-      <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3">
         <v>9</v>
       </c>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="53"/>
-      <c r="AA56" s="53"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="53"/>
-      <c r="AD56" s="53"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
     </row>
     <row r="57" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>8</v>
       </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
       <c r="M57" s="4"/>
       <c r="T57">
         <v>8</v>
       </c>
-      <c r="U57" s="53"/>
-      <c r="V57" s="53"/>
-      <c r="W57" s="53"/>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="53"/>
-      <c r="Z57" s="53"/>
-      <c r="AA57" s="53"/>
-      <c r="AB57" s="53"/>
-      <c r="AC57" s="53"/>
-      <c r="AD57" s="53"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
     </row>
     <row r="58" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>9</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="66" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
       <c r="T58">
         <v>9</v>
       </c>
-      <c r="U58" s="53"/>
-      <c r="V58" s="53"/>
-      <c r="W58" s="53"/>
-      <c r="X58" s="53"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="53"/>
-      <c r="AA58" s="53"/>
-      <c r="AB58" s="53"/>
-      <c r="AC58" s="53"/>
-      <c r="AD58" s="53"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
     </row>
     <row r="60" spans="3:30" x14ac:dyDescent="0.35">
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="V60" s="52" t="s">
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="V60" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
-      <c r="AC60" s="52"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
     </row>
     <row r="63" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D63">
@@ -17589,247 +16693,247 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
       <c r="T64">
         <v>0</v>
       </c>
-      <c r="U64" s="53">
+      <c r="U64" s="3">
         <v>23</v>
       </c>
-      <c r="V64" s="53">
+      <c r="V64" s="3">
         <v>13</v>
       </c>
-      <c r="W64" s="53">
+      <c r="W64" s="3">
         <v>3</v>
       </c>
-      <c r="X64" s="53">
+      <c r="X64" s="3">
         <v>13</v>
       </c>
-      <c r="Y64" s="53">
+      <c r="Y64" s="3">
         <v>23</v>
       </c>
-      <c r="Z64" s="53"/>
-      <c r="AA64" s="53"/>
-      <c r="AB64" s="53"/>
-      <c r="AC64" s="53"/>
-      <c r="AD64" s="53"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
     </row>
     <row r="65" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="55"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
       <c r="T65">
         <v>1</v>
       </c>
-      <c r="U65" s="62">
+      <c r="U65" s="16">
         <v>22</v>
       </c>
-      <c r="V65" s="62">
+      <c r="V65" s="16">
         <v>12</v>
       </c>
-      <c r="W65" s="53">
+      <c r="W65" s="3">
         <v>2</v>
       </c>
-      <c r="X65" s="53">
+      <c r="X65" s="3">
         <v>12</v>
       </c>
-      <c r="Y65" s="53">
+      <c r="Y65" s="3">
         <v>22</v>
       </c>
-      <c r="Z65" s="53">
+      <c r="Z65" s="3">
         <v>33</v>
       </c>
       <c r="AA65" s="4"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="53"/>
-      <c r="AD65" s="53"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
     </row>
     <row r="66" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="53">
+      <c r="E66" s="60"/>
+      <c r="F66" s="3">
         <v>10</v>
       </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
       <c r="T66">
         <v>2</v>
       </c>
-      <c r="U66" s="53">
+      <c r="U66" s="3">
         <v>21</v>
       </c>
-      <c r="V66" s="53">
+      <c r="V66" s="3">
         <v>11</v>
       </c>
-      <c r="W66" s="53">
+      <c r="W66" s="3">
         <v>1</v>
       </c>
-      <c r="X66" s="53">
+      <c r="X66" s="3">
         <v>11</v>
       </c>
-      <c r="Y66" s="53">
+      <c r="Y66" s="3">
         <v>9</v>
       </c>
-      <c r="Z66" s="53"/>
-      <c r="AA66" s="59"/>
-      <c r="AB66" s="55"/>
-      <c r="AC66" s="53"/>
-      <c r="AD66" s="53"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="57"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
     </row>
     <row r="67" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="63"/>
+      <c r="E67" s="60"/>
       <c r="F67" s="21" t="s">
         <v>0</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="53">
+      <c r="J67" s="3">
         <v>23</v>
       </c>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
       <c r="T67">
         <v>3</v>
       </c>
-      <c r="U67" s="53">
+      <c r="U67" s="3">
         <v>20</v>
       </c>
-      <c r="V67" s="53">
+      <c r="V67" s="3">
         <v>10</v>
       </c>
       <c r="W67" s="10" t="s">
         <v>0</v>
       </c>
       <c r="X67" s="4"/>
-      <c r="Y67" s="53">
+      <c r="Y67" s="3">
         <v>8</v>
       </c>
       <c r="Z67" s="4"/>
-      <c r="AA67" s="63"/>
-      <c r="AB67" s="53"/>
+      <c r="AA67" s="60"/>
+      <c r="AB67" s="3"/>
       <c r="AC67" s="4"/>
-      <c r="AD67" s="53"/>
+      <c r="AD67" s="3"/>
     </row>
     <row r="68" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="63"/>
+      <c r="E68" s="60"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="53">
+      <c r="H68" s="3">
         <v>11</v>
       </c>
-      <c r="I68" s="53">
+      <c r="I68" s="3">
         <v>12</v>
       </c>
-      <c r="J68" s="53">
+      <c r="J68" s="3">
         <v>13</v>
       </c>
-      <c r="K68" s="53">
+      <c r="K68" s="3">
         <v>14</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="3">
         <v>15</v>
       </c>
-      <c r="M68" s="53"/>
+      <c r="M68" s="3"/>
       <c r="T68">
         <v>4</v>
       </c>
-      <c r="U68" s="53">
+      <c r="U68" s="3">
         <v>20</v>
       </c>
-      <c r="V68" s="62">
+      <c r="V68" s="16">
         <v>10</v>
       </c>
       <c r="W68" s="10" t="s">
         <v>0</v>
       </c>
       <c r="X68" s="4"/>
-      <c r="Y68" s="53">
+      <c r="Y68" s="3">
         <v>7</v>
       </c>
-      <c r="Z68" s="53">
+      <c r="Z68" s="3">
         <v>8</v>
       </c>
-      <c r="AA68" s="53">
+      <c r="AA68" s="3">
         <v>9</v>
       </c>
-      <c r="AB68" s="53"/>
-      <c r="AC68" s="53"/>
-      <c r="AD68" s="53"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
     </row>
     <row r="69" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C69">
         <v>5</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="63"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="60"/>
       <c r="F69" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="53">
+      <c r="H69" s="3">
         <v>1</v>
       </c>
-      <c r="I69" s="53">
+      <c r="I69" s="3">
         <v>2</v>
       </c>
-      <c r="J69" s="53">
+      <c r="J69" s="3">
         <v>3</v>
       </c>
-      <c r="K69" s="53">
+      <c r="K69" s="3">
         <v>4</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="3">
         <v>5</v>
       </c>
-      <c r="M69" s="53">
+      <c r="M69" s="3">
         <v>6</v>
       </c>
       <c r="T69">
         <v>5</v>
       </c>
-      <c r="U69" s="53">
+      <c r="U69" s="3">
         <v>20</v>
       </c>
-      <c r="V69" s="53">
+      <c r="V69" s="3">
         <v>10</v>
       </c>
       <c r="W69" s="10" t="s">
@@ -17850,17 +16954,17 @@
       <c r="AB69" s="12">
         <v>9</v>
       </c>
-      <c r="AC69" s="53"/>
-      <c r="AD69" s="53"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
     </row>
     <row r="70" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C70">
         <v>6</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="3">
         <v>23</v>
       </c>
-      <c r="E70" s="62">
+      <c r="E70" s="16">
         <v>22</v>
       </c>
       <c r="F70" s="4"/>
@@ -17879,22 +16983,22 @@
       <c r="K70" s="15">
         <v>4</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="3">
         <v>5</v>
       </c>
-      <c r="M70" s="53">
+      <c r="M70" s="3">
         <v>6</v>
       </c>
       <c r="T70">
         <v>6</v>
       </c>
-      <c r="U70" s="53">
+      <c r="U70" s="3">
         <v>21</v>
       </c>
-      <c r="V70" s="53">
+      <c r="V70" s="3">
         <v>11</v>
       </c>
-      <c r="W70" s="53">
+      <c r="W70" s="3">
         <v>1</v>
       </c>
       <c r="X70" s="4"/>
@@ -17910,74 +17014,74 @@
       <c r="AB70" s="12">
         <v>9</v>
       </c>
-      <c r="AC70" s="53"/>
+      <c r="AC70" s="3"/>
       <c r="AD70" s="4"/>
     </row>
     <row r="71" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C71">
         <v>7</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="3">
         <v>13</v>
       </c>
-      <c r="E71" s="53">
+      <c r="E71" s="3">
         <v>12</v>
       </c>
       <c r="F71" s="12">
         <v>7</v>
       </c>
-      <c r="G71" s="53">
+      <c r="G71" s="3">
         <v>10</v>
       </c>
-      <c r="H71" s="53">
+      <c r="H71" s="3">
         <v>11</v>
       </c>
-      <c r="I71" s="53">
+      <c r="I71" s="3">
         <v>12</v>
       </c>
-      <c r="J71" s="53">
+      <c r="J71" s="3">
         <v>13</v>
       </c>
       <c r="K71" s="15">
         <v>14</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="3">
         <v>15</v>
       </c>
-      <c r="M71" s="53"/>
+      <c r="M71" s="3"/>
       <c r="T71">
         <v>7</v>
       </c>
-      <c r="U71" s="53">
+      <c r="U71" s="3">
         <v>22</v>
       </c>
-      <c r="V71" s="53">
+      <c r="V71" s="3">
         <v>12</v>
       </c>
-      <c r="W71" s="53">
+      <c r="W71" s="3">
         <v>2</v>
       </c>
-      <c r="X71" s="53">
+      <c r="X71" s="3">
         <v>15</v>
       </c>
-      <c r="Y71" s="53">
+      <c r="Y71" s="3">
         <v>7</v>
       </c>
-      <c r="Z71" s="53">
+      <c r="Z71" s="3">
         <v>8</v>
       </c>
-      <c r="AA71" s="53">
+      <c r="AA71" s="3">
         <v>9</v>
       </c>
-      <c r="AB71" s="53"/>
-      <c r="AC71" s="53"/>
-      <c r="AD71" s="53"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
     </row>
     <row r="72" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C72">
         <v>8</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D72" s="3">
         <v>23</v>
       </c>
       <c r="E72" s="12">
@@ -17986,118 +17090,118 @@
       <c r="F72" s="12">
         <v>8</v>
       </c>
-      <c r="G72" s="53">
+      <c r="G72" s="3">
         <v>20</v>
       </c>
       <c r="H72" s="12">
         <v>13</v>
       </c>
-      <c r="I72" s="62">
+      <c r="I72" s="16">
         <v>22</v>
       </c>
-      <c r="J72" s="53">
+      <c r="J72" s="3">
         <v>23</v>
       </c>
       <c r="K72" s="15">
         <v>24</v>
       </c>
-      <c r="L72" s="53"/>
+      <c r="L72" s="3"/>
       <c r="M72" s="4"/>
       <c r="T72">
         <v>8</v>
       </c>
-      <c r="U72" s="53">
+      <c r="U72" s="3">
         <v>23</v>
       </c>
-      <c r="V72" s="53">
+      <c r="V72" s="3">
         <v>13</v>
       </c>
-      <c r="W72" s="53">
+      <c r="W72" s="3">
         <v>3</v>
       </c>
-      <c r="X72" s="53">
+      <c r="X72" s="3">
         <v>16</v>
       </c>
-      <c r="Y72" s="53">
+      <c r="Y72" s="3">
         <v>8</v>
       </c>
-      <c r="Z72" s="53">
+      <c r="Z72" s="3">
         <v>9</v>
       </c>
-      <c r="AA72" s="53"/>
-      <c r="AB72" s="53"/>
-      <c r="AC72" s="53"/>
-      <c r="AD72" s="53"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
     </row>
     <row r="73" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C73">
         <v>9</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
         <v>32</v>
       </c>
       <c r="F73" s="12">
         <v>9</v>
       </c>
-      <c r="G73" s="53">
+      <c r="G73" s="3">
         <v>30</v>
       </c>
-      <c r="H73" s="53">
+      <c r="H73" s="3">
         <v>31</v>
       </c>
-      <c r="I73" s="53">
+      <c r="I73" s="3">
         <v>32</v>
       </c>
-      <c r="J73" s="53"/>
-      <c r="K73" s="66" t="s">
+      <c r="J73" s="3"/>
+      <c r="K73" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
       <c r="T73">
         <v>9</v>
       </c>
-      <c r="U73" s="53"/>
-      <c r="V73" s="53">
+      <c r="U73" s="3"/>
+      <c r="V73" s="3">
         <v>14</v>
       </c>
-      <c r="W73" s="53">
+      <c r="W73" s="3">
         <v>4</v>
       </c>
-      <c r="X73" s="53">
+      <c r="X73" s="3">
         <v>17</v>
       </c>
-      <c r="Y73" s="53">
+      <c r="Y73" s="3">
         <v>9</v>
       </c>
-      <c r="Z73" s="53"/>
-      <c r="AA73" s="53"/>
-      <c r="AB73" s="53"/>
-      <c r="AC73" s="53"/>
-      <c r="AD73" s="53"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
     </row>
     <row r="75" spans="3:30" x14ac:dyDescent="0.35">
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="V75" s="52" t="s">
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="V75" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="W75" s="52"/>
-      <c r="X75" s="52"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-      <c r="AC75" s="52"/>
+      <c r="W75" s="70"/>
+      <c r="X75" s="70"/>
+      <c r="Y75" s="70"/>
+      <c r="Z75" s="70"/>
+      <c r="AA75" s="70"/>
+      <c r="AB75" s="70"/>
+      <c r="AC75" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="10">
